--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F7636D-D2FD-4BE2-B3F1-435735AA8FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B3F9-83C6-4AB5-89DB-EFA2431AECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="29">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,9 @@
   <si>
     <t>week</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18w</t>
   </si>
 </sst>
 </file>
@@ -297,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,9 +347,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -686,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -779,6 +779,23 @@
         <v>347</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1049</v>
+      </c>
+      <c r="C6">
+        <v>839</v>
+      </c>
+      <c r="D6">
+        <v>217</v>
+      </c>
+      <c r="E6">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -787,7 +804,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -880,6 +897,23 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C6">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D6">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E6">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,7 +922,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -903,20 +937,20 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2319,6 +2353,346 @@
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="9"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="2">
+        <v>5</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" s="3">
+        <v>964</v>
+      </c>
+      <c r="E82" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="2">
+        <v>4</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="3">
+        <v>65</v>
+      </c>
+      <c r="E83" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B84" s="2">
+        <v>3</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D84" s="3">
+        <v>16</v>
+      </c>
+      <c r="E84" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2</v>
+      </c>
+      <c r="E85" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2</v>
+      </c>
+      <c r="E86" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B87" s="2">
+        <v>5</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="3">
+        <v>746</v>
+      </c>
+      <c r="E87" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="3">
+        <v>74</v>
+      </c>
+      <c r="E88" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B89" s="2">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="3">
+        <v>13</v>
+      </c>
+      <c r="E89" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="3">
+        <v>5</v>
+      </c>
+      <c r="E90" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="3">
+        <v>1</v>
+      </c>
+      <c r="E91" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B92" s="2">
+        <v>5</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="3">
+        <v>187</v>
+      </c>
+      <c r="E92" s="9">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B93" s="2">
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="3">
+        <v>23</v>
+      </c>
+      <c r="E93" s="9">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="3">
+        <v>4</v>
+      </c>
+      <c r="E94" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D95" s="3">
+        <v>1</v>
+      </c>
+      <c r="E95" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2</v>
+      </c>
+      <c r="E96" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="3">
+        <v>230</v>
+      </c>
+      <c r="E97" s="9">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="2">
+        <v>4</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="3">
+        <v>12</v>
+      </c>
+      <c r="E98" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D99" s="3">
+        <v>3</v>
+      </c>
+      <c r="E99" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D101" s="3">
+        <v>1</v>
+      </c>
+      <c r="E101" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB2B3F9-83C6-4AB5-89DB-EFA2431AECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7E53A-BA91-4FFD-B3E0-5B4F0DACC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>18w</t>
+  </si>
+  <si>
+    <t>19w</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
@@ -796,6 +799,23 @@
         <v>246</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>1003</v>
+      </c>
+      <c r="C7">
+        <v>840</v>
+      </c>
+      <c r="D7">
+        <v>224</v>
+      </c>
+      <c r="E7">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -804,7 +824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -914,6 +934,23 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C7">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D7">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E7">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -922,7 +959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -2694,6 +2731,346 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B102" s="2">
+        <v>5</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" s="3">
+        <v>924</v>
+      </c>
+      <c r="E102" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B103" s="2">
+        <v>4</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D103" s="3">
+        <v>59</v>
+      </c>
+      <c r="E103" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B104" s="2">
+        <v>3</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D104" s="3">
+        <v>18</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2</v>
+      </c>
+      <c r="E105" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="3">
+        <v>0</v>
+      </c>
+      <c r="E106" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B107" s="2">
+        <v>5</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="3">
+        <v>751</v>
+      </c>
+      <c r="E107" s="9">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B108" s="2">
+        <v>4</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="3">
+        <v>65</v>
+      </c>
+      <c r="E108" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="3">
+        <v>20</v>
+      </c>
+      <c r="E109" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="3">
+        <v>3</v>
+      </c>
+      <c r="E111" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B112" s="2">
+        <v>5</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="3">
+        <v>194</v>
+      </c>
+      <c r="E112" s="9">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B113" s="2">
+        <v>4</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113" s="3">
+        <v>27</v>
+      </c>
+      <c r="E113" s="9">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2</v>
+      </c>
+      <c r="E114" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="3">
+        <v>1</v>
+      </c>
+      <c r="E115" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117" s="2">
+        <v>5</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="3">
+        <v>277</v>
+      </c>
+      <c r="E117" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B118" s="2">
+        <v>4</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" s="3">
+        <v>16</v>
+      </c>
+      <c r="E118" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B119" s="2">
+        <v>3</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2</v>
+      </c>
+      <c r="E119" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" s="3">
+        <v>1</v>
+      </c>
+      <c r="E120" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B121" s="2">
+        <v>1</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" s="3">
+        <v>0</v>
+      </c>
+      <c r="E121" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7E53A-BA91-4FFD-B3E0-5B4F0DACC2A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8AA5DC-C411-4274-9F47-94E2F78B5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -692,7 +692,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,7 +962,7 @@
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8AA5DC-C411-4274-9F47-94E2F78B5FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894EA3F-E02A-40B2-B43D-B20F93D65C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="31">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>19w</t>
+  </si>
+  <si>
+    <t>20w</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E3"/>
@@ -816,6 +819,23 @@
         <v>296</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>1090</v>
+      </c>
+      <c r="C8">
+        <v>766</v>
+      </c>
+      <c r="D8">
+        <v>236</v>
+      </c>
+      <c r="E8">
+        <v>336</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -824,7 +844,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -951,6 +971,23 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C8">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D8">
+        <v>4.91</v>
+      </c>
+      <c r="E8">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -959,7 +996,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:K141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
@@ -3071,6 +3108,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="2">
+        <v>5</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122" s="3">
+        <v>1001</v>
+      </c>
+      <c r="E122" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="2">
+        <v>4</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D123" s="3">
+        <v>77</v>
+      </c>
+      <c r="E123" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="2">
+        <v>3</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D124" s="3">
+        <v>9</v>
+      </c>
+      <c r="E124" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="2">
+        <v>2</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2</v>
+      </c>
+      <c r="E125" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D126" s="3">
+        <v>1</v>
+      </c>
+      <c r="E126" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="3">
+        <v>686</v>
+      </c>
+      <c r="E127" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="2">
+        <v>4</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="3">
+        <v>62</v>
+      </c>
+      <c r="E128" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="2">
+        <v>3</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="3">
+        <v>12</v>
+      </c>
+      <c r="E129" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="2">
+        <v>2</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="3">
+        <v>1</v>
+      </c>
+      <c r="E130" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="3">
+        <v>5</v>
+      </c>
+      <c r="E131" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="2">
+        <v>5</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D132" s="3">
+        <v>215</v>
+      </c>
+      <c r="E132" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B133" s="2">
+        <v>4</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="3">
+        <v>20</v>
+      </c>
+      <c r="E133" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B134" s="2">
+        <v>3</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D134" s="3">
+        <v>1</v>
+      </c>
+      <c r="E134" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D135" s="3">
+        <v>0</v>
+      </c>
+      <c r="E135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B136" s="2">
+        <v>1</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D136" s="3">
+        <v>0</v>
+      </c>
+      <c r="E136" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" s="3">
+        <v>305</v>
+      </c>
+      <c r="E137" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="2">
+        <v>4</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" s="3">
+        <v>26</v>
+      </c>
+      <c r="E138" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="2">
+        <v>3</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" s="3">
+        <v>5</v>
+      </c>
+      <c r="E139" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" s="3">
+        <v>0</v>
+      </c>
+      <c r="E140" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="2">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" s="3">
+        <v>0</v>
+      </c>
+      <c r="E141" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894EA3F-E02A-40B2-B43D-B20F93D65C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F9516-1790-4BFC-8883-26684865531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="32">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>20w</t>
+  </si>
+  <si>
+    <t>21w</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,6 +837,23 @@
       </c>
       <c r="E8">
         <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>607</v>
+      </c>
+      <c r="C9">
+        <v>695</v>
+      </c>
+      <c r="D9">
+        <v>262</v>
+      </c>
+      <c r="E9">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -844,7 +864,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
@@ -988,6 +1008,23 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9">
+        <v>4.91</v>
+      </c>
+      <c r="C9">
+        <v>4.87</v>
+      </c>
+      <c r="D9">
+        <v>4.82</v>
+      </c>
+      <c r="E9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -996,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K141"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="F163" sqref="E163:F163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3448,6 +3485,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D142" s="3">
+        <v>570</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" s="3">
+        <v>26</v>
+      </c>
+      <c r="E143" s="9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="2">
+        <v>3</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D144" s="3">
+        <v>9</v>
+      </c>
+      <c r="E144" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B145" s="2">
+        <v>2</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="3">
+        <v>0</v>
+      </c>
+      <c r="E145" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B146" s="2">
+        <v>1</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2</v>
+      </c>
+      <c r="E146" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="2">
+        <v>5</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="3">
+        <v>622</v>
+      </c>
+      <c r="E147" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B148" s="2">
+        <v>4</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="3">
+        <v>60</v>
+      </c>
+      <c r="E148" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B149" s="2">
+        <v>3</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="3">
+        <v>9</v>
+      </c>
+      <c r="E149" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="2">
+        <v>2</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="3">
+        <v>3</v>
+      </c>
+      <c r="E150" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="3">
+        <v>1</v>
+      </c>
+      <c r="E151" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B152" s="2">
+        <v>5</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D152" s="3">
+        <v>228</v>
+      </c>
+      <c r="E152" s="9">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B153" s="2">
+        <v>4</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D153" s="3">
+        <v>27</v>
+      </c>
+      <c r="E153" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B154" s="2">
+        <v>3</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="3">
+        <v>3</v>
+      </c>
+      <c r="E154" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B155" s="2">
+        <v>2</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D155" s="3">
+        <v>3</v>
+      </c>
+      <c r="E155" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" s="3">
+        <v>1</v>
+      </c>
+      <c r="E156" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="2">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" s="3">
+        <v>308</v>
+      </c>
+      <c r="E157" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B158" s="2">
+        <v>4</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" s="3">
+        <v>23</v>
+      </c>
+      <c r="E158" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="3">
+        <v>1</v>
+      </c>
+      <c r="E159" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" s="3">
+        <v>3</v>
+      </c>
+      <c r="E160" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B161" s="2">
+        <v>1</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" s="3">
+        <v>0</v>
+      </c>
+      <c r="E161" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7F9516-1790-4BFC-8883-26684865531D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379C9F8-CA79-4703-8D5C-FC0794072105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -698,7 +698,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +844,7 @@
         <v>31</v>
       </c>
       <c r="B9">
-        <v>607</v>
+        <v>942</v>
       </c>
       <c r="C9">
         <v>695</v>
@@ -1035,8 +1035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:K161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="F163" sqref="E163:F163"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="M147" sqref="M146:M147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3496,7 +3496,7 @@
         <v>20</v>
       </c>
       <c r="D142" s="3">
-        <v>570</v>
+        <v>865</v>
       </c>
       <c r="E142" s="9">
         <v>0.93899999999999995</v>
@@ -3513,7 +3513,7 @@
         <v>20</v>
       </c>
       <c r="D143" s="3">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="E143" s="9">
         <v>4.2999999999999997E-2</v>
@@ -3536,7 +3536,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>31</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>31</v>
       </c>
@@ -3569,8 +3569,9 @@
       <c r="E146" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J146" s="3"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>31</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>0.89500000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>31</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>31</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>31</v>
       </c>
@@ -3638,7 +3639,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>31</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>31</v>
       </c>
@@ -3672,7 +3673,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>31</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>31</v>
       </c>
@@ -3706,7 +3707,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>31</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>31</v>
       </c>
@@ -3740,7 +3741,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>31</v>
       </c>
@@ -3757,7 +3758,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>31</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>31</v>
       </c>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379C9F8-CA79-4703-8D5C-FC0794072105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D41377F-1A5A-42EC-AF85-AE5C25B4E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="33">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>21w</t>
+  </si>
+  <si>
+    <t>22w</t>
   </si>
 </sst>
 </file>
@@ -695,10 +698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,6 +857,23 @@
       </c>
       <c r="E9">
         <v>335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>1148</v>
+      </c>
+      <c r="C10">
+        <v>741</v>
+      </c>
+      <c r="D10">
+        <v>190</v>
+      </c>
+      <c r="E10">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -864,10 +884,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,6 +1042,23 @@
         <v>4.82</v>
       </c>
       <c r="E9">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10">
+        <v>4.92</v>
+      </c>
+      <c r="C10">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D10">
+        <v>4.75</v>
+      </c>
+      <c r="E10">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -1033,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K161"/>
+  <dimension ref="A1:K181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="M147" sqref="M146:M147"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3826,6 +3863,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B162" s="2">
+        <v>5</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D162" s="3">
+        <v>1069</v>
+      </c>
+      <c r="E162" s="9">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B163" s="2">
+        <v>4</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163" s="3">
+        <v>65</v>
+      </c>
+      <c r="E163" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B164" s="2">
+        <v>3</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164" s="3">
+        <v>12</v>
+      </c>
+      <c r="E164" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D165" s="3">
+        <v>0</v>
+      </c>
+      <c r="E165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B166" s="2">
+        <v>1</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2</v>
+      </c>
+      <c r="E166" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="3">
+        <v>689</v>
+      </c>
+      <c r="E167" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B168" s="2">
+        <v>4</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45</v>
+      </c>
+      <c r="E168" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B169" s="2">
+        <v>3</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="3">
+        <v>5</v>
+      </c>
+      <c r="E169" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B170" s="2">
+        <v>2</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="3">
+        <v>1</v>
+      </c>
+      <c r="E170" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B171" s="2">
+        <v>1</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="3">
+        <v>1</v>
+      </c>
+      <c r="E171" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B172" s="2">
+        <v>5</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D172" s="3">
+        <v>154</v>
+      </c>
+      <c r="E172" s="9">
+        <v>0.81100000000000005</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B173" s="2">
+        <v>4</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D173" s="3">
+        <v>29</v>
+      </c>
+      <c r="E173" s="9">
+        <v>0.153</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B174" s="2">
+        <v>3</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D174" s="3">
+        <v>5</v>
+      </c>
+      <c r="E174" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B175" s="2">
+        <v>2</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D175" s="3">
+        <v>0</v>
+      </c>
+      <c r="E175" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2</v>
+      </c>
+      <c r="E176" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B177" s="2">
+        <v>5</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D177" s="3">
+        <v>274</v>
+      </c>
+      <c r="E177" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B178" s="2">
+        <v>4</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D178" s="3">
+        <v>7</v>
+      </c>
+      <c r="E178" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B179" s="2">
+        <v>3</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2</v>
+      </c>
+      <c r="E179" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B180" s="2">
+        <v>2</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D180" s="3">
+        <v>0</v>
+      </c>
+      <c r="E180" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2</v>
+      </c>
+      <c r="E181" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D41377F-1A5A-42EC-AF85-AE5C25B4E017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DB3398-5A12-4D80-9A88-EA55D0922713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="34">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t>22w</t>
+  </si>
+  <si>
+    <t>23w</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -876,6 +879,23 @@
         <v>285</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>1114</v>
+      </c>
+      <c r="C11">
+        <v>793</v>
+      </c>
+      <c r="D11">
+        <v>218</v>
+      </c>
+      <c r="E11">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -884,7 +904,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1062,6 +1082,23 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>4.93</v>
+      </c>
+      <c r="C11">
+        <v>4.87</v>
+      </c>
+      <c r="D11">
+        <v>4.84</v>
+      </c>
+      <c r="E11">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K181"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
       <selection activeCell="B184" sqref="B184"/>
@@ -4203,6 +4240,346 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="2">
+        <v>5</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D182" s="3">
+        <v>1053</v>
+      </c>
+      <c r="E182" s="9">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="2">
+        <v>4</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D183" s="3">
+        <v>50</v>
+      </c>
+      <c r="E183" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B184" s="2">
+        <v>3</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184" s="3">
+        <v>9</v>
+      </c>
+      <c r="E184" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D185" s="3">
+        <v>1</v>
+      </c>
+      <c r="E185" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B186" s="2">
+        <v>1</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D186" s="3">
+        <v>1</v>
+      </c>
+      <c r="E186" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="2">
+        <v>5</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D187" s="3">
+        <v>705</v>
+      </c>
+      <c r="E187" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="2">
+        <v>4</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188" s="3">
+        <v>75</v>
+      </c>
+      <c r="E188" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" s="2">
+        <v>3</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3">
+        <v>9</v>
+      </c>
+      <c r="E189" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="3">
+        <v>3</v>
+      </c>
+      <c r="E190" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="2">
+        <v>1</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="3">
+        <v>1</v>
+      </c>
+      <c r="E191" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="2">
+        <v>5</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D192" s="3">
+        <v>190</v>
+      </c>
+      <c r="E192" s="9">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="2">
+        <v>4</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D193" s="3">
+        <v>24</v>
+      </c>
+      <c r="E193" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B194" s="2">
+        <v>3</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D194" s="3">
+        <v>3</v>
+      </c>
+      <c r="E194" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B195" s="2">
+        <v>2</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D195" s="3">
+        <v>0</v>
+      </c>
+      <c r="E195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D196" s="3">
+        <v>1</v>
+      </c>
+      <c r="E196" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B197" s="2">
+        <v>5</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D197" s="3">
+        <v>254</v>
+      </c>
+      <c r="E197" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B198" s="2">
+        <v>4</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D198" s="3">
+        <v>15</v>
+      </c>
+      <c r="E198" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B199" s="2">
+        <v>3</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D199" s="3">
+        <v>3</v>
+      </c>
+      <c r="E199" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200" s="2">
+        <v>2</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D200" s="3">
+        <v>0</v>
+      </c>
+      <c r="E200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D201" s="3">
+        <v>0</v>
+      </c>
+      <c r="E201" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DB3398-5A12-4D80-9A88-EA55D0922713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79434DF-11E3-413C-8FC1-C315FCFED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="35">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>23w</t>
+  </si>
+  <si>
+    <t>24w</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -896,6 +899,23 @@
         <v>272</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>1127</v>
+      </c>
+      <c r="C12">
+        <v>765</v>
+      </c>
+      <c r="D12">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -904,7 +924,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1099,6 +1119,23 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>4.91</v>
+      </c>
+      <c r="C12">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D12">
+        <v>4.83</v>
+      </c>
+      <c r="E12">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1107,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K221"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
       <selection activeCell="B184" sqref="B184"/>
@@ -4580,6 +4617,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B202" s="2">
+        <v>5</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D202" s="3">
+        <v>1037</v>
+      </c>
+      <c r="E202" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="2">
+        <v>4</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D203" s="3">
+        <v>77</v>
+      </c>
+      <c r="E203" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" s="2">
+        <v>3</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D204" s="3">
+        <v>10</v>
+      </c>
+      <c r="E204" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="2">
+        <v>2</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2</v>
+      </c>
+      <c r="E205" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D206" s="3">
+        <v>1</v>
+      </c>
+      <c r="E206" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="2">
+        <v>5</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D207" s="3">
+        <v>685</v>
+      </c>
+      <c r="E207" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="2">
+        <v>4</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D208" s="3">
+        <v>59</v>
+      </c>
+      <c r="E208" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="2">
+        <v>3</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D209" s="3">
+        <v>19</v>
+      </c>
+      <c r="E209" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D210" s="3">
+        <v>1</v>
+      </c>
+      <c r="E210" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="2">
+        <v>1</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D211" s="3">
+        <v>1</v>
+      </c>
+      <c r="E211" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B212" s="2">
+        <v>5</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" s="3">
+        <v>198</v>
+      </c>
+      <c r="E212" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B213" s="2">
+        <v>4</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" s="3">
+        <v>21</v>
+      </c>
+      <c r="E213" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B214" s="2">
+        <v>3</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2</v>
+      </c>
+      <c r="E214" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" s="3">
+        <v>0</v>
+      </c>
+      <c r="E215" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B216" s="2">
+        <v>1</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" s="3">
+        <v>3</v>
+      </c>
+      <c r="E216" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B217" s="2">
+        <v>5</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D217" s="3">
+        <v>285</v>
+      </c>
+      <c r="E217" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B218" s="2">
+        <v>4</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D218" s="3">
+        <v>16</v>
+      </c>
+      <c r="E218" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B219" s="2">
+        <v>3</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D219" s="3">
+        <v>6</v>
+      </c>
+      <c r="E219" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B220" s="2">
+        <v>2</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D220" s="3">
+        <v>0</v>
+      </c>
+      <c r="E220" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D221" s="3">
+        <v>1</v>
+      </c>
+      <c r="E221" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79434DF-11E3-413C-8FC1-C315FCFED3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD1B24-4A07-4CFF-B206-998C8268FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="36">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>24w</t>
+  </si>
+  <si>
+    <t>25w</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
@@ -916,6 +919,23 @@
         <v>308</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>981</v>
+      </c>
+      <c r="C13">
+        <v>795</v>
+      </c>
+      <c r="D13">
+        <v>233</v>
+      </c>
+      <c r="E13">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -924,7 +944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1136,6 +1156,23 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>4.91</v>
+      </c>
+      <c r="C13">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D13">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E13">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K221"/>
+  <dimension ref="A1:K241"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
       <selection activeCell="B184" sqref="B184"/>
@@ -4957,6 +4994,346 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B222" s="2">
+        <v>5</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D222" s="3">
+        <v>906</v>
+      </c>
+      <c r="E222" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B223" s="2">
+        <v>4</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D223" s="3">
+        <v>63</v>
+      </c>
+      <c r="E223" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B224" s="2">
+        <v>3</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D224" s="3">
+        <v>12</v>
+      </c>
+      <c r="E224" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B225" s="2">
+        <v>2</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D225" s="3">
+        <v>0</v>
+      </c>
+      <c r="E225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B227" s="2">
+        <v>5</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" s="3">
+        <v>708</v>
+      </c>
+      <c r="E227" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B228" s="2">
+        <v>4</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" s="3">
+        <v>73</v>
+      </c>
+      <c r="E228" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B229" s="2">
+        <v>3</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" s="3">
+        <v>9</v>
+      </c>
+      <c r="E229" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B230" s="2">
+        <v>2</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2</v>
+      </c>
+      <c r="E230" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B231" s="2">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" s="3">
+        <v>3</v>
+      </c>
+      <c r="E231" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B232" s="2">
+        <v>5</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D232" s="3">
+        <v>205</v>
+      </c>
+      <c r="E232" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B233" s="2">
+        <v>4</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D233" s="3">
+        <v>21</v>
+      </c>
+      <c r="E233" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D234" s="3">
+        <v>7</v>
+      </c>
+      <c r="E234" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D235" s="3">
+        <v>0</v>
+      </c>
+      <c r="E235" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D236" s="3">
+        <v>0</v>
+      </c>
+      <c r="E236" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B237" s="2">
+        <v>5</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D237" s="3">
+        <v>325</v>
+      </c>
+      <c r="E237" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B238" s="2">
+        <v>4</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D238" s="3">
+        <v>23</v>
+      </c>
+      <c r="E238" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D239" s="3">
+        <v>6</v>
+      </c>
+      <c r="E239" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D240" s="3">
+        <v>0</v>
+      </c>
+      <c r="E240" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B241" s="2">
+        <v>1</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D241" s="3">
+        <v>1</v>
+      </c>
+      <c r="E241" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECD1B24-4A07-4CFF-B206-998C8268FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7FAEA-409F-4088-AC8B-B8DEA79D2875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" firstSheet="2" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="37">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>25w</t>
+  </si>
+  <si>
+    <t>26w</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -934,6 +937,23 @@
       </c>
       <c r="E13">
         <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>971</v>
+      </c>
+      <c r="C14">
+        <v>756</v>
+      </c>
+      <c r="D14">
+        <v>206</v>
+      </c>
+      <c r="E14">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1173,6 +1193,23 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C14">
+        <v>4.88</v>
+      </c>
+      <c r="D14">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E14">
+        <v>4.93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K241"/>
+  <dimension ref="A1:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B184" sqref="B184"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="R254" sqref="R254:R255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5334,6 +5371,346 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B242" s="2">
+        <v>5</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" s="3">
+        <v>891</v>
+      </c>
+      <c r="E242" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B243" s="2">
+        <v>4</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" s="3">
+        <v>69</v>
+      </c>
+      <c r="E243" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B244" s="2">
+        <v>3</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" s="3">
+        <v>9</v>
+      </c>
+      <c r="E244" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B245" s="2">
+        <v>2</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" s="3">
+        <v>0</v>
+      </c>
+      <c r="E245" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2</v>
+      </c>
+      <c r="E246" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B247" s="2">
+        <v>5</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D247" s="3">
+        <v>677</v>
+      </c>
+      <c r="E247" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B248" s="2">
+        <v>4</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D248" s="3">
+        <v>69</v>
+      </c>
+      <c r="E248" s="9">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B249" s="2">
+        <v>3</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="3">
+        <v>9</v>
+      </c>
+      <c r="E249" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B250" s="2">
+        <v>2</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D250" s="3">
+        <v>0</v>
+      </c>
+      <c r="E250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D251" s="3">
+        <v>1</v>
+      </c>
+      <c r="E251" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B252" s="2">
+        <v>5</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D252" s="3">
+        <v>184</v>
+      </c>
+      <c r="E252" s="9">
+        <v>0.89300000000000002</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B253" s="2">
+        <v>4</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D253" s="3">
+        <v>15</v>
+      </c>
+      <c r="E253" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B254" s="2">
+        <v>3</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" s="3">
+        <v>6</v>
+      </c>
+      <c r="E254" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D255" s="3">
+        <v>0</v>
+      </c>
+      <c r="E255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B256" s="2">
+        <v>1</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D256" s="3">
+        <v>1</v>
+      </c>
+      <c r="E256" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B257" s="2">
+        <v>5</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D257" s="3">
+        <v>263</v>
+      </c>
+      <c r="E257" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B258" s="2">
+        <v>4</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D258" s="3">
+        <v>15</v>
+      </c>
+      <c r="E258" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B259" s="2">
+        <v>3</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D259" s="3">
+        <v>3</v>
+      </c>
+      <c r="E259" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D260" s="3">
+        <v>0</v>
+      </c>
+      <c r="E260" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B261" s="2">
+        <v>1</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D261" s="3">
+        <v>0</v>
+      </c>
+      <c r="E261" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C7FAEA-409F-4088-AC8B-B8DEA79D2875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C6500A-5E20-4A49-A6C1-0649CB20C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="별점세부" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">별점세부!$A$1:$E$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">별점세부!$A$1:$E$281</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="38">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>26w</t>
+  </si>
+  <si>
+    <t>27w</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:E14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +957,23 @@
       </c>
       <c r="E14">
         <v>281</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>998</v>
+      </c>
+      <c r="C15">
+        <v>761</v>
+      </c>
+      <c r="D15">
+        <v>218</v>
+      </c>
+      <c r="E15">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -964,7 +984,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1210,6 +1230,23 @@
         <v>4.93</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>4.88</v>
+      </c>
+      <c r="C15">
+        <v>4.88</v>
+      </c>
+      <c r="D15">
+        <v>4.79</v>
+      </c>
+      <c r="E15">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1218,10 +1255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K261"/>
+  <dimension ref="A1:K281"/>
   <sheetViews>
-    <sheetView topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="R254" sqref="R254:R255"/>
+    <sheetView topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5711,8 +5748,348 @@
         <v>0</v>
       </c>
     </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B262" s="2">
+        <v>5</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D262" s="3">
+        <v>899</v>
+      </c>
+      <c r="E262" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B263" s="2">
+        <v>4</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D263" s="3">
+        <v>87</v>
+      </c>
+      <c r="E263" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B264" s="2">
+        <v>3</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D264" s="3">
+        <v>8</v>
+      </c>
+      <c r="E264" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B265" s="2">
+        <v>2</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D265" s="3">
+        <v>1</v>
+      </c>
+      <c r="E265" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B266" s="2">
+        <v>1</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D266" s="3">
+        <v>3</v>
+      </c>
+      <c r="E266" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B267" s="2">
+        <v>5</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D267" s="3">
+        <v>685</v>
+      </c>
+      <c r="E267" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B268" s="2">
+        <v>4</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D268" s="3">
+        <v>66</v>
+      </c>
+      <c r="E268" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B269" s="2">
+        <v>3</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D269" s="3">
+        <v>7</v>
+      </c>
+      <c r="E269" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B270" s="2">
+        <v>2</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D270" s="3">
+        <v>1</v>
+      </c>
+      <c r="E270" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2</v>
+      </c>
+      <c r="E271" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B272" s="2">
+        <v>5</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D272" s="3">
+        <v>180</v>
+      </c>
+      <c r="E272" s="9">
+        <v>0.82599999999999996</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B273" s="2">
+        <v>4</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D273" s="3">
+        <v>33</v>
+      </c>
+      <c r="E273" s="9">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B274" s="2">
+        <v>3</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="3">
+        <v>4</v>
+      </c>
+      <c r="E274" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B275" s="2">
+        <v>2</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D275" s="3">
+        <v>0</v>
+      </c>
+      <c r="E275" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D276" s="3">
+        <v>1</v>
+      </c>
+      <c r="E276" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B277" s="2">
+        <v>5</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D277" s="3">
+        <v>214</v>
+      </c>
+      <c r="E277" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B278" s="2">
+        <v>4</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D278" s="3">
+        <v>24</v>
+      </c>
+      <c r="E278" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B279" s="2">
+        <v>3</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2</v>
+      </c>
+      <c r="E279" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2</v>
+      </c>
+      <c r="E280" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D281" s="3">
+        <v>0</v>
+      </c>
+      <c r="E281" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E61" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
+  <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C6500A-5E20-4A49-A6C1-0649CB20C44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E6F14-9DC6-41FE-8061-9AECA0A15EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="39">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>27w</t>
+  </si>
+  <si>
+    <t>28w</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -976,6 +979,23 @@
         <v>242</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>912</v>
+      </c>
+      <c r="C16">
+        <v>717</v>
+      </c>
+      <c r="D16">
+        <v>235</v>
+      </c>
+      <c r="E16">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -984,7 +1004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1247,6 +1267,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>4.91</v>
+      </c>
+      <c r="C16">
+        <v>4.87</v>
+      </c>
+      <c r="D16">
+        <v>4.87</v>
+      </c>
+      <c r="E16">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1255,7 +1292,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K281"/>
+  <dimension ref="A1:K301"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="A282" sqref="A282"/>
@@ -6088,6 +6125,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B282" s="2">
+        <v>5</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D282" s="3">
+        <v>843</v>
+      </c>
+      <c r="E282" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B283" s="2">
+        <v>4</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D283" s="3">
+        <v>57</v>
+      </c>
+      <c r="E283" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B284" s="2">
+        <v>3</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284" s="3">
+        <v>10</v>
+      </c>
+      <c r="E284" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1</v>
+      </c>
+      <c r="E285" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B286" s="2">
+        <v>1</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D286" s="3">
+        <v>1</v>
+      </c>
+      <c r="E286" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B287" s="2">
+        <v>5</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D287" s="3">
+        <v>644</v>
+      </c>
+      <c r="E287" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B288" s="2">
+        <v>4</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D288" s="3">
+        <v>60</v>
+      </c>
+      <c r="E288" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B289" s="2">
+        <v>3</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D289" s="3">
+        <v>10</v>
+      </c>
+      <c r="E289" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2</v>
+      </c>
+      <c r="E290" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D291" s="3">
+        <v>1</v>
+      </c>
+      <c r="E291" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B292" s="2">
+        <v>5</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D292" s="3">
+        <v>210</v>
+      </c>
+      <c r="E292" s="9">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B293" s="2">
+        <v>4</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D293" s="3">
+        <v>22</v>
+      </c>
+      <c r="E293" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B294" s="2">
+        <v>3</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2</v>
+      </c>
+      <c r="E294" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B295" s="2">
+        <v>2</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D295" s="3">
+        <v>0</v>
+      </c>
+      <c r="E295" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D296" s="3">
+        <v>1</v>
+      </c>
+      <c r="E296" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B297" s="2">
+        <v>5</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D297" s="3">
+        <v>217</v>
+      </c>
+      <c r="E297" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B298" s="2">
+        <v>4</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D298" s="3">
+        <v>19</v>
+      </c>
+      <c r="E298" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B299" s="2">
+        <v>3</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" s="3">
+        <v>4</v>
+      </c>
+      <c r="E299" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B300" s="2">
+        <v>2</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D300" s="3">
+        <v>0</v>
+      </c>
+      <c r="E300" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B301" s="2">
+        <v>1</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D301" s="3">
+        <v>1</v>
+      </c>
+      <c r="E301" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E6F14-9DC6-41FE-8061-9AECA0A15EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D390A-FB3F-4B91-8208-5809469144C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="40">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>28w</t>
+  </si>
+  <si>
+    <t>29w</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
@@ -996,6 +999,23 @@
         <v>241</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>924</v>
+      </c>
+      <c r="C17">
+        <v>731</v>
+      </c>
+      <c r="D17">
+        <v>195</v>
+      </c>
+      <c r="E17">
+        <v>246</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1004,7 +1024,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1284,6 +1304,23 @@
         <v>4.87</v>
       </c>
     </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>4.91</v>
+      </c>
+      <c r="C17">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D17">
+        <v>4.84</v>
+      </c>
+      <c r="E17">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1292,7 +1329,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K301"/>
+  <dimension ref="A1:K321"/>
   <sheetViews>
     <sheetView topLeftCell="A271" workbookViewId="0">
       <selection activeCell="A282" sqref="A282"/>
@@ -6465,6 +6502,346 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B302" s="2">
+        <v>5</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" s="3">
+        <v>863</v>
+      </c>
+      <c r="E302" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B303" s="2">
+        <v>4</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D303" s="3">
+        <v>46</v>
+      </c>
+      <c r="E303" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B304" s="2">
+        <v>3</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D304" s="3">
+        <v>12</v>
+      </c>
+      <c r="E304" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B305" s="2">
+        <v>2</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2</v>
+      </c>
+      <c r="E305" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B306" s="2">
+        <v>1</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D306" s="3">
+        <v>1</v>
+      </c>
+      <c r="E306" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B307" s="2">
+        <v>5</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D307" s="3">
+        <v>667</v>
+      </c>
+      <c r="E307" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B308" s="2">
+        <v>4</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D308" s="3">
+        <v>54</v>
+      </c>
+      <c r="E308" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B309" s="2">
+        <v>3</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D309" s="3">
+        <v>8</v>
+      </c>
+      <c r="E309" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B310" s="2">
+        <v>2</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2</v>
+      </c>
+      <c r="E310" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B311" s="2">
+        <v>1</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D311" s="3">
+        <v>0</v>
+      </c>
+      <c r="E311" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B312" s="2">
+        <v>5</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D312" s="3">
+        <v>174</v>
+      </c>
+      <c r="E312" s="9">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B313" s="2">
+        <v>4</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D313" s="3">
+        <v>14</v>
+      </c>
+      <c r="E313" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="2">
+        <v>3</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D314" s="3">
+        <v>5</v>
+      </c>
+      <c r="E314" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B315" s="2">
+        <v>2</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D315" s="3">
+        <v>1</v>
+      </c>
+      <c r="E315" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B316" s="2">
+        <v>1</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D316" s="3">
+        <v>1</v>
+      </c>
+      <c r="E316" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B317" s="2">
+        <v>5</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D317" s="3">
+        <v>219</v>
+      </c>
+      <c r="E317" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B318" s="2">
+        <v>4</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D318" s="3">
+        <v>21</v>
+      </c>
+      <c r="E318" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B319" s="2">
+        <v>3</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D319" s="3">
+        <v>4</v>
+      </c>
+      <c r="E319" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B320" s="2">
+        <v>2</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2</v>
+      </c>
+      <c r="E320" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D321" s="3">
+        <v>0</v>
+      </c>
+      <c r="E321" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17D390A-FB3F-4B91-8208-5809469144C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C6968-11EC-462C-B076-13A7D9256CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="41">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>29w</t>
+  </si>
+  <si>
+    <t>30w</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,6 +1017,23 @@
       </c>
       <c r="E17">
         <v>246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>887</v>
+      </c>
+      <c r="C18">
+        <v>690</v>
+      </c>
+      <c r="D18">
+        <v>188</v>
+      </c>
+      <c r="E18">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +1044,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1321,6 +1341,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C18">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D18">
+        <v>4.8</v>
+      </c>
+      <c r="E18">
+        <v>4.83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1329,10 +1366,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K321"/>
+  <dimension ref="A1:K341"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="A282" sqref="A282"/>
+    <sheetView topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="H327" sqref="H327:H328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -6842,6 +6879,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B322" s="2">
+        <v>5</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D322" s="3">
+        <v>819</v>
+      </c>
+      <c r="E322" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B323" s="2">
+        <v>4</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D323" s="3">
+        <v>53</v>
+      </c>
+      <c r="E323" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B324" s="2">
+        <v>3</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D324" s="3">
+        <v>12</v>
+      </c>
+      <c r="E324" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B325" s="2">
+        <v>2</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D325" s="3">
+        <v>1</v>
+      </c>
+      <c r="E325" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D326" s="3">
+        <v>2</v>
+      </c>
+      <c r="E326" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B327" s="2">
+        <v>5</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D327" s="3">
+        <v>632</v>
+      </c>
+      <c r="E327" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B328" s="2">
+        <v>4</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D328" s="3">
+        <v>46</v>
+      </c>
+      <c r="E328" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B329" s="2">
+        <v>3</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D329" s="3">
+        <v>9</v>
+      </c>
+      <c r="E329" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D330" s="3">
+        <v>0</v>
+      </c>
+      <c r="E330" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B331" s="2">
+        <v>1</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D331" s="3">
+        <v>3</v>
+      </c>
+      <c r="E331" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B332" s="2">
+        <v>5</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D332" s="3">
+        <v>159</v>
+      </c>
+      <c r="E332" s="9">
+        <v>0.84599999999999997</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B333" s="2">
+        <v>4</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D333" s="3">
+        <v>23</v>
+      </c>
+      <c r="E333" s="9">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B334" s="2">
+        <v>3</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D334" s="3">
+        <v>5</v>
+      </c>
+      <c r="E334" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D335" s="3">
+        <v>0</v>
+      </c>
+      <c r="E335" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B336" s="2">
+        <v>1</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D336" s="3">
+        <v>1</v>
+      </c>
+      <c r="E336" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B337" s="2">
+        <v>5</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D337" s="3">
+        <v>197</v>
+      </c>
+      <c r="E337" s="9">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B338" s="2">
+        <v>4</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="3">
+        <v>20</v>
+      </c>
+      <c r="E338" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B339" s="2">
+        <v>3</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D339" s="3">
+        <v>6</v>
+      </c>
+      <c r="E339" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B340" s="2">
+        <v>2</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D340" s="3">
+        <v>1</v>
+      </c>
+      <c r="E340" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D341" s="3">
+        <v>1</v>
+      </c>
+      <c r="E341" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2C6968-11EC-462C-B076-13A7D9256CB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F2DA9-AD5E-4BC1-A797-84B24A151586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="42">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>30w</t>
+  </si>
+  <si>
+    <t>31w</t>
   </si>
 </sst>
 </file>
@@ -722,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1036,6 +1039,23 @@
         <v>225</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>856</v>
+      </c>
+      <c r="C19">
+        <v>653</v>
+      </c>
+      <c r="D19">
+        <v>189</v>
+      </c>
+      <c r="E19">
+        <v>224</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1358,6 +1378,23 @@
         <v>4.83</v>
       </c>
     </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>4.92</v>
+      </c>
+      <c r="C19">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D19">
+        <v>4.84</v>
+      </c>
+      <c r="E19">
+        <v>4.83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1366,7 +1403,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K341"/>
+  <dimension ref="A1:K361"/>
   <sheetViews>
     <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="H327" sqref="H327:H328"/>
@@ -7219,6 +7256,346 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B342" s="2">
+        <v>5</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D342" s="3">
+        <v>800</v>
+      </c>
+      <c r="E342" s="9">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B343" s="2">
+        <v>4</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D343" s="3">
+        <v>48</v>
+      </c>
+      <c r="E343" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B344" s="2">
+        <v>3</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D344" s="3">
+        <v>6</v>
+      </c>
+      <c r="E344" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B345" s="2">
+        <v>2</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2</v>
+      </c>
+      <c r="E345" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D346" s="3">
+        <v>0</v>
+      </c>
+      <c r="E346" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B347" s="2">
+        <v>5</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D347" s="3">
+        <v>594</v>
+      </c>
+      <c r="E347" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B348" s="2">
+        <v>4</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D348" s="3">
+        <v>51</v>
+      </c>
+      <c r="E348" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B349" s="2">
+        <v>3</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D349" s="3">
+        <v>6</v>
+      </c>
+      <c r="E349" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B350" s="2">
+        <v>2</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2</v>
+      </c>
+      <c r="E350" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B351" s="2">
+        <v>1</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D351" s="3">
+        <v>0</v>
+      </c>
+      <c r="E351" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B352" s="2">
+        <v>5</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D352" s="3">
+        <v>169</v>
+      </c>
+      <c r="E352" s="9">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B353" s="2">
+        <v>4</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D353" s="3">
+        <v>12</v>
+      </c>
+      <c r="E353" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B354" s="2">
+        <v>3</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D354" s="3">
+        <v>6</v>
+      </c>
+      <c r="E354" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2</v>
+      </c>
+      <c r="E355" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B356" s="2">
+        <v>1</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D356" s="3">
+        <v>0</v>
+      </c>
+      <c r="E356" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B357" s="2">
+        <v>5</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D357" s="3">
+        <v>198</v>
+      </c>
+      <c r="E357" s="9">
+        <v>0.88400000000000001</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B358" s="2">
+        <v>4</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D358" s="3">
+        <v>19</v>
+      </c>
+      <c r="E358" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B359" s="2">
+        <v>3</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D359" s="3">
+        <v>4</v>
+      </c>
+      <c r="E359" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D360" s="3">
+        <v>1</v>
+      </c>
+      <c r="E360" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B361" s="2">
+        <v>1</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D361" s="3">
+        <v>2</v>
+      </c>
+      <c r="E361" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82F2DA9-AD5E-4BC1-A797-84B24A151586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904458C-64ED-4D10-A62C-877FDFD4B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="43">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>31w</t>
+  </si>
+  <si>
+    <t>32w</t>
   </si>
 </sst>
 </file>
@@ -725,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1056,6 +1059,23 @@
         <v>224</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>786</v>
+      </c>
+      <c r="C20">
+        <v>778</v>
+      </c>
+      <c r="D20">
+        <v>194</v>
+      </c>
+      <c r="E20">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1064,7 +1084,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1395,6 +1415,23 @@
         <v>4.83</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="C20">
+        <v>4.91</v>
+      </c>
+      <c r="D20">
+        <v>4.78</v>
+      </c>
+      <c r="E20">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1403,7 +1440,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K361"/>
+  <dimension ref="A1:K381"/>
   <sheetViews>
     <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="H327" sqref="H327:H328"/>
@@ -7596,6 +7633,346 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B362" s="2">
+        <v>5</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D362" s="3">
+        <v>692</v>
+      </c>
+      <c r="E362" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B363" s="2">
+        <v>4</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D363" s="3">
+        <v>78</v>
+      </c>
+      <c r="E363" s="9">
+        <v>9.9000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B364" s="2">
+        <v>3</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D364" s="3">
+        <v>10</v>
+      </c>
+      <c r="E364" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B365" s="2">
+        <v>2</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="3">
+        <v>4</v>
+      </c>
+      <c r="E365" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2</v>
+      </c>
+      <c r="E366" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B367" s="2">
+        <v>5</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D367" s="3">
+        <v>716</v>
+      </c>
+      <c r="E367" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B368" s="2">
+        <v>4</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D368" s="3">
+        <v>54</v>
+      </c>
+      <c r="E368" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B369" s="2">
+        <v>3</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D369" s="3">
+        <v>6</v>
+      </c>
+      <c r="E369" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B370" s="2">
+        <v>2</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2</v>
+      </c>
+      <c r="E370" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B371" s="2">
+        <v>1</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D371" s="3">
+        <v>0</v>
+      </c>
+      <c r="E371" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B372" s="2">
+        <v>5</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D372" s="3">
+        <v>164</v>
+      </c>
+      <c r="E372" s="9">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B373" s="2">
+        <v>4</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D373" s="3">
+        <v>18</v>
+      </c>
+      <c r="E373" s="9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" s="2">
+        <v>3</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D374" s="3">
+        <v>11</v>
+      </c>
+      <c r="E374" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D375" s="3">
+        <v>1</v>
+      </c>
+      <c r="E375" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B376" s="2">
+        <v>1</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D376" s="3">
+        <v>0</v>
+      </c>
+      <c r="E376" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B377" s="2">
+        <v>5</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D377" s="3">
+        <v>180</v>
+      </c>
+      <c r="E377" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B378" s="2">
+        <v>4</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D378" s="3">
+        <v>17</v>
+      </c>
+      <c r="E378" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B379" s="2">
+        <v>3</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D379" s="3">
+        <v>3</v>
+      </c>
+      <c r="E379" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D380" s="3">
+        <v>0</v>
+      </c>
+      <c r="E380" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B381" s="2">
+        <v>1</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D381" s="3">
+        <v>1</v>
+      </c>
+      <c r="E381" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4904458C-64ED-4D10-A62C-877FDFD4B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB7D13-B556-4843-A950-AB1770EFE717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="44">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>32w</t>
+  </si>
+  <si>
+    <t>33w</t>
   </si>
 </sst>
 </file>
@@ -728,7 +731,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
@@ -1076,6 +1079,23 @@
         <v>201</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>982</v>
+      </c>
+      <c r="C21">
+        <v>643</v>
+      </c>
+      <c r="D21">
+        <v>158</v>
+      </c>
+      <c r="E21">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
@@ -1432,6 +1452,23 @@
         <v>4.87</v>
       </c>
     </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C21">
+        <v>4.88</v>
+      </c>
+      <c r="D21">
+        <v>4.84</v>
+      </c>
+      <c r="E21">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1440,7 +1477,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K381"/>
+  <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView topLeftCell="A311" workbookViewId="0">
       <selection activeCell="H327" sqref="H327:H328"/>
@@ -7973,6 +8010,346 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B382" s="2">
+        <v>5</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D382" s="3">
+        <v>893</v>
+      </c>
+      <c r="E382" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B383" s="2">
+        <v>4</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D383" s="3">
+        <v>73</v>
+      </c>
+      <c r="E383" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B384" s="2">
+        <v>3</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D384" s="3">
+        <v>16</v>
+      </c>
+      <c r="E384" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B385" s="2">
+        <v>2</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D385" s="3">
+        <v>0</v>
+      </c>
+      <c r="E385" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B386" s="2">
+        <v>1</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D386" s="3">
+        <v>0</v>
+      </c>
+      <c r="E386" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B387" s="2">
+        <v>5</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="3">
+        <v>586</v>
+      </c>
+      <c r="E387" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B388" s="2">
+        <v>4</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D388" s="3">
+        <v>44</v>
+      </c>
+      <c r="E388" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B389" s="2">
+        <v>3</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D389" s="3">
+        <v>9</v>
+      </c>
+      <c r="E389" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B390" s="2">
+        <v>2</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D390" s="3">
+        <v>0</v>
+      </c>
+      <c r="E390" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B391" s="2">
+        <v>1</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D391" s="3">
+        <v>4</v>
+      </c>
+      <c r="E391" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B392" s="2">
+        <v>5</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D392" s="3">
+        <v>138</v>
+      </c>
+      <c r="E392" s="9">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B393" s="2">
+        <v>4</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D393" s="3">
+        <v>17</v>
+      </c>
+      <c r="E393" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B394" s="2">
+        <v>3</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2</v>
+      </c>
+      <c r="E394" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B395" s="2">
+        <v>2</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D395" s="3">
+        <v>0</v>
+      </c>
+      <c r="E395" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A396" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B396" s="2">
+        <v>1</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D396" s="3">
+        <v>1</v>
+      </c>
+      <c r="E396" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A397" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B397" s="2">
+        <v>5</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D397" s="3">
+        <v>200</v>
+      </c>
+      <c r="E397" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A398" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B398" s="2">
+        <v>4</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D398" s="3">
+        <v>22</v>
+      </c>
+      <c r="E398" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A399" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B399" s="2">
+        <v>3</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2</v>
+      </c>
+      <c r="E399" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A400" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D400" s="3">
+        <v>1</v>
+      </c>
+      <c r="E400" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A401" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B401" s="2">
+        <v>1</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D401" s="3">
+        <v>0</v>
+      </c>
+      <c r="E401" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAAB7D13-B556-4843-A950-AB1770EFE717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C2AA-33DE-4F48-B77A-FEFF9DA616A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="45">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>33w</t>
+  </si>
+  <si>
+    <t>34w</t>
   </si>
 </sst>
 </file>
@@ -731,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,6 +1097,23 @@
       </c>
       <c r="E21">
         <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>1205</v>
+      </c>
+      <c r="C22">
+        <v>883</v>
+      </c>
+      <c r="D22">
+        <v>243</v>
+      </c>
+      <c r="E22">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1104,10 +1124,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C54" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,6 +1487,23 @@
       </c>
       <c r="E21">
         <v>4.87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C22">
+        <v>4.88</v>
+      </c>
+      <c r="D22">
+        <v>4.83</v>
+      </c>
+      <c r="E22">
+        <v>4.88</v>
       </c>
     </row>
   </sheetData>
@@ -1477,10 +1514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K401"/>
+  <dimension ref="A1:K421"/>
   <sheetViews>
-    <sheetView topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="H327" sqref="H327:H328"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8350,6 +8387,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A402" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B402" s="2">
+        <v>5</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D402" s="3">
+        <v>1096</v>
+      </c>
+      <c r="E402" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A403" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B403" s="2">
+        <v>4</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D403" s="3">
+        <v>92</v>
+      </c>
+      <c r="E403" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A404" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B404" s="2">
+        <v>3</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D404" s="3">
+        <v>11</v>
+      </c>
+      <c r="E404" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A405" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D405" s="3">
+        <v>3</v>
+      </c>
+      <c r="E405" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A406" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B406" s="2">
+        <v>1</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D406" s="3">
+        <v>3</v>
+      </c>
+      <c r="E406" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A407" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B407" s="2">
+        <v>5</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D407" s="3">
+        <v>797</v>
+      </c>
+      <c r="E407" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A408" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B408" s="2">
+        <v>4</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D408" s="3">
+        <v>68</v>
+      </c>
+      <c r="E408" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A409" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B409" s="2">
+        <v>3</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D409" s="3">
+        <v>17</v>
+      </c>
+      <c r="E409" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A410" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B410" s="2">
+        <v>2</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D410" s="3">
+        <v>0</v>
+      </c>
+      <c r="E410" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A411" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B411" s="2">
+        <v>1</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D411" s="3">
+        <v>1</v>
+      </c>
+      <c r="E411" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B412" s="2">
+        <v>5</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D412" s="3">
+        <v>207</v>
+      </c>
+      <c r="E412" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A413" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B413" s="2">
+        <v>4</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D413" s="3">
+        <v>31</v>
+      </c>
+      <c r="E413" s="9">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A414" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B414" s="2">
+        <v>3</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D414" s="3">
+        <v>4</v>
+      </c>
+      <c r="E414" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A415" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B415" s="2">
+        <v>2</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D415" s="3">
+        <v>1</v>
+      </c>
+      <c r="E415" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A416" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B416" s="2">
+        <v>1</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D416" s="3">
+        <v>0</v>
+      </c>
+      <c r="E416" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A417" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B417" s="2">
+        <v>5</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D417" s="3">
+        <v>261</v>
+      </c>
+      <c r="E417" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A418" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B418" s="2">
+        <v>4</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D418" s="3">
+        <v>25</v>
+      </c>
+      <c r="E418" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A419" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B419" s="2">
+        <v>3</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D419" s="3">
+        <v>1</v>
+      </c>
+      <c r="E419" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A420" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B420" s="2">
+        <v>2</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D420" s="3">
+        <v>1</v>
+      </c>
+      <c r="E420" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A421" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B421" s="2">
+        <v>1</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D421" s="3">
+        <v>1</v>
+      </c>
+      <c r="E421" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E768C2AA-33DE-4F48-B77A-FEFF9DA616A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E10EEE-099A-4B9C-B619-1B65D8524444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="별점세부" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">별점세부!$A$1:$E$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">별점세부!$A$1:$E$441</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="46">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>34w</t>
+  </si>
+  <si>
+    <t>35w</t>
   </si>
 </sst>
 </file>
@@ -734,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,6 +1117,23 @@
       </c>
       <c r="E22">
         <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>1225</v>
+      </c>
+      <c r="C23">
+        <v>982</v>
+      </c>
+      <c r="D23">
+        <v>280</v>
+      </c>
+      <c r="E23">
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1124,9 +1144,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
     </sheetView>
   </sheetViews>
@@ -1506,6 +1526,23 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23">
+        <v>4.91</v>
+      </c>
+      <c r="C23">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D23">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E23">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1514,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K421"/>
+  <dimension ref="A1:K441"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D437" sqref="D437:D441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -8727,8 +8764,348 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A422" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B422" s="2">
+        <v>5</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D422" s="3">
+        <v>1135</v>
+      </c>
+      <c r="E422" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A423" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B423" s="2">
+        <v>4</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D423" s="3">
+        <v>71</v>
+      </c>
+      <c r="E423" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A424" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B424" s="2">
+        <v>3</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D424" s="3">
+        <v>16</v>
+      </c>
+      <c r="E424" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A425" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B425" s="2">
+        <v>2</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D425" s="3">
+        <v>3</v>
+      </c>
+      <c r="E425" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A426" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B426" s="2">
+        <v>1</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D426" s="3">
+        <v>0</v>
+      </c>
+      <c r="E426" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A427" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B427" s="2">
+        <v>5</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D427" s="3">
+        <v>894</v>
+      </c>
+      <c r="E427" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A428" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B428" s="2">
+        <v>4</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D428" s="3">
+        <v>76</v>
+      </c>
+      <c r="E428" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A429" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B429" s="2">
+        <v>3</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D429" s="3">
+        <v>12</v>
+      </c>
+      <c r="E429" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A430" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D430" s="3">
+        <v>0</v>
+      </c>
+      <c r="E430" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A431" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B431" s="2">
+        <v>1</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D431" s="3">
+        <v>0</v>
+      </c>
+      <c r="E431" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B432" s="2">
+        <v>5</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D432" s="3">
+        <v>234</v>
+      </c>
+      <c r="E432" s="9">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B433" s="2">
+        <v>4</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D433" s="3">
+        <v>28</v>
+      </c>
+      <c r="E433" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B434" s="2">
+        <v>3</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D434" s="3">
+        <v>17</v>
+      </c>
+      <c r="E434" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A435" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B435" s="2">
+        <v>2</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D435" s="3">
+        <v>1</v>
+      </c>
+      <c r="E435" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A436" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B436" s="2">
+        <v>1</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0</v>
+      </c>
+      <c r="E436" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A437" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B437" s="2">
+        <v>5</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D437" s="3">
+        <v>295</v>
+      </c>
+      <c r="E437" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A438" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B438" s="2">
+        <v>4</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D438" s="3">
+        <v>18</v>
+      </c>
+      <c r="E438" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A439" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B439" s="2">
+        <v>3</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D439" s="3">
+        <v>3</v>
+      </c>
+      <c r="E439" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A440" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B440" s="2">
+        <v>2</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0</v>
+      </c>
+      <c r="E440" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A441" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B441" s="2">
+        <v>1</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D441" s="3">
+        <v>4</v>
+      </c>
+      <c r="E441" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E281" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
+  <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E10EEE-099A-4B9C-B619-1B65D8524444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EB25D-63D3-42A2-ADC1-44C60DAD475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="47">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>35w</t>
+  </si>
+  <si>
+    <t>36w</t>
   </si>
 </sst>
 </file>
@@ -737,7 +740,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1136,6 +1139,23 @@
         <v>320</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1342</v>
+      </c>
+      <c r="C24">
+        <v>912</v>
+      </c>
+      <c r="D24">
+        <v>301</v>
+      </c>
+      <c r="E24">
+        <v>279</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1144,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1543,6 +1563,23 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C24">
+        <v>4.88</v>
+      </c>
+      <c r="D24">
+        <v>4.83</v>
+      </c>
+      <c r="E24">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1551,7 +1588,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K441"/>
+  <dimension ref="A1:K461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -9104,6 +9141,346 @@
         <v>1.2E-2</v>
       </c>
     </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A442" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B442" s="2">
+        <v>5</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D442" s="3">
+        <v>1233</v>
+      </c>
+      <c r="E442" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A443" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B443" s="2">
+        <v>4</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D443" s="3">
+        <v>92</v>
+      </c>
+      <c r="E443" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A444" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B444" s="2">
+        <v>3</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D444" s="3">
+        <v>14</v>
+      </c>
+      <c r="E444" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A445" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B445" s="2">
+        <v>2</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D445" s="3">
+        <v>1</v>
+      </c>
+      <c r="E445" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A446" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B446" s="2">
+        <v>1</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2</v>
+      </c>
+      <c r="E446" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A447" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B447" s="2">
+        <v>5</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D447" s="3">
+        <v>820</v>
+      </c>
+      <c r="E447" s="9">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A448" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B448" s="2">
+        <v>4</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D448" s="3">
+        <v>73</v>
+      </c>
+      <c r="E448" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A449" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B449" s="2">
+        <v>3</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D449" s="3">
+        <v>17</v>
+      </c>
+      <c r="E449" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A450" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B450" s="2">
+        <v>2</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D450" s="3">
+        <v>1</v>
+      </c>
+      <c r="E450" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A451" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B451" s="2">
+        <v>1</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D451" s="3">
+        <v>1</v>
+      </c>
+      <c r="E451" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A452" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B452" s="2">
+        <v>5</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D452" s="3">
+        <v>263</v>
+      </c>
+      <c r="E452" s="9">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A453" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B453" s="2">
+        <v>4</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D453" s="3">
+        <v>29</v>
+      </c>
+      <c r="E453" s="9">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A454" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B454" s="2">
+        <v>3</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D454" s="3">
+        <v>6</v>
+      </c>
+      <c r="E454" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A455" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D455" s="3">
+        <v>3</v>
+      </c>
+      <c r="E455" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A456" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B456" s="2">
+        <v>1</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D456" s="3">
+        <v>0</v>
+      </c>
+      <c r="E456" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A457" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B457" s="2">
+        <v>5</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D457" s="3">
+        <v>243</v>
+      </c>
+      <c r="E457" s="9">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A458" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B458" s="2">
+        <v>4</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D458" s="3">
+        <v>31</v>
+      </c>
+      <c r="E458" s="9">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A459" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B459" s="2">
+        <v>3</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D459" s="3">
+        <v>5</v>
+      </c>
+      <c r="E459" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A460" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B460" s="2">
+        <v>2</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D460" s="3">
+        <v>0</v>
+      </c>
+      <c r="E460" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A461" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B461" s="2">
+        <v>1</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D461" s="3">
+        <v>0</v>
+      </c>
+      <c r="E461" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EB25D-63D3-42A2-ADC1-44C60DAD475A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196DEAE-3AB5-45DD-A36D-42A25390041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="48">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>36w</t>
+  </si>
+  <si>
+    <t>37w</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1156,6 +1159,23 @@
         <v>279</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>1278</v>
+      </c>
+      <c r="C25">
+        <v>810</v>
+      </c>
+      <c r="D25">
+        <v>236</v>
+      </c>
+      <c r="E25">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1164,7 +1184,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1580,6 +1600,23 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C25">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D25">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E25">
+        <v>4.84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1588,7 +1625,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K461"/>
+  <dimension ref="A1:K481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -9481,6 +9518,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A462" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B462" s="2">
+        <v>5</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D462" s="3">
+        <v>1177</v>
+      </c>
+      <c r="E462" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A463" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B463" s="2">
+        <v>4</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D463" s="3">
+        <v>78</v>
+      </c>
+      <c r="E463" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A464" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B464" s="2">
+        <v>3</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D464" s="3">
+        <v>19</v>
+      </c>
+      <c r="E464" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A465" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B465" s="2">
+        <v>2</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="3">
+        <v>3</v>
+      </c>
+      <c r="E465" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A466" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B466" s="2">
+        <v>1</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D466" s="3">
+        <v>1</v>
+      </c>
+      <c r="E466" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A467" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B467" s="2">
+        <v>5</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D467" s="3">
+        <v>741</v>
+      </c>
+      <c r="E467" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A468" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B468" s="2">
+        <v>4</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D468" s="3">
+        <v>64</v>
+      </c>
+      <c r="E468" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A469" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B469" s="2">
+        <v>3</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2</v>
+      </c>
+      <c r="E469" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A470" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B470" s="2">
+        <v>2</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D470" s="3">
+        <v>0</v>
+      </c>
+      <c r="E470" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A471" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B471" s="2">
+        <v>1</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D471" s="3">
+        <v>3</v>
+      </c>
+      <c r="E471" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A472" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B472" s="2">
+        <v>5</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D472" s="3">
+        <v>203</v>
+      </c>
+      <c r="E472" s="9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A473" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B473" s="2">
+        <v>4</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D473" s="3">
+        <v>24</v>
+      </c>
+      <c r="E473" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A474" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B474" s="2">
+        <v>3</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D474" s="3">
+        <v>7</v>
+      </c>
+      <c r="E474" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A475" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B475" s="2">
+        <v>2</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D475" s="3">
+        <v>1</v>
+      </c>
+      <c r="E475" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A476" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B476" s="2">
+        <v>1</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D476" s="3">
+        <v>1</v>
+      </c>
+      <c r="E476" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A477" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B477" s="2">
+        <v>5</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D477" s="3">
+        <v>219</v>
+      </c>
+      <c r="E477" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A478" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B478" s="2">
+        <v>4</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D478" s="3">
+        <v>21</v>
+      </c>
+      <c r="E478" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A479" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B479" s="2">
+        <v>3</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D479" s="3">
+        <v>5</v>
+      </c>
+      <c r="E479" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A480" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B480" s="2">
+        <v>2</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D480" s="3">
+        <v>0</v>
+      </c>
+      <c r="E480" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A481" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B481" s="2">
+        <v>1</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2</v>
+      </c>
+      <c r="E481" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196DEAE-3AB5-45DD-A36D-42A25390041A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1C9D5-6657-4762-AA95-F74269C6D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="49">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>37w</t>
+  </si>
+  <si>
+    <t>38w</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1176,6 +1179,23 @@
         <v>247</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>813</v>
+      </c>
+      <c r="C26">
+        <v>570</v>
+      </c>
+      <c r="D26">
+        <v>171</v>
+      </c>
+      <c r="E26">
+        <v>208</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1184,7 +1204,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1617,6 +1637,23 @@
         <v>4.84</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>4.88</v>
+      </c>
+      <c r="C26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D26">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E26">
+        <v>4.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1625,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K481"/>
+  <dimension ref="A1:K501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -9858,6 +9895,346 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A482" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B482" s="2">
+        <v>5</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D482" s="3">
+        <v>738</v>
+      </c>
+      <c r="E482" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A483" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B483" s="2">
+        <v>4</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D483" s="3">
+        <v>62</v>
+      </c>
+      <c r="E483" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A484" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B484" s="2">
+        <v>3</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D484" s="3">
+        <v>9</v>
+      </c>
+      <c r="E484" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A485" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B485" s="2">
+        <v>2</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2</v>
+      </c>
+      <c r="E485" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A486" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B486" s="2">
+        <v>1</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2</v>
+      </c>
+      <c r="E486" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A487" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B487" s="2">
+        <v>5</v>
+      </c>
+      <c r="C487" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D487" s="3">
+        <v>528</v>
+      </c>
+      <c r="E487" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A488" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B488" s="2">
+        <v>4</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D488" s="3">
+        <v>32</v>
+      </c>
+      <c r="E488" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A489" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B489" s="2">
+        <v>3</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D489" s="3">
+        <v>6</v>
+      </c>
+      <c r="E489" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A490" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B490" s="2">
+        <v>2</v>
+      </c>
+      <c r="C490" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D490" s="3">
+        <v>1</v>
+      </c>
+      <c r="E490" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A491" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B491" s="2">
+        <v>1</v>
+      </c>
+      <c r="C491" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D491" s="3">
+        <v>3</v>
+      </c>
+      <c r="E491" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A492" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B492" s="2">
+        <v>5</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D492" s="3">
+        <v>156</v>
+      </c>
+      <c r="E492" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A493" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B493" s="2">
+        <v>4</v>
+      </c>
+      <c r="C493" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D493" s="3">
+        <v>10</v>
+      </c>
+      <c r="E493" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A494" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B494" s="2">
+        <v>3</v>
+      </c>
+      <c r="C494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D494" s="3">
+        <v>3</v>
+      </c>
+      <c r="E494" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A495" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B495" s="2">
+        <v>2</v>
+      </c>
+      <c r="C495" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D495" s="3">
+        <v>0</v>
+      </c>
+      <c r="E495" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A496" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B496" s="2">
+        <v>1</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2</v>
+      </c>
+      <c r="E496" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A497" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B497" s="2">
+        <v>5</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D497" s="3">
+        <v>179</v>
+      </c>
+      <c r="E497" s="9">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A498" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B498" s="2">
+        <v>4</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D498" s="3">
+        <v>22</v>
+      </c>
+      <c r="E498" s="9">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A499" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B499" s="2">
+        <v>3</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D499" s="3">
+        <v>5</v>
+      </c>
+      <c r="E499" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A500" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B500" s="2">
+        <v>2</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2</v>
+      </c>
+      <c r="E500" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A501" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B501" s="2">
+        <v>1</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D501" s="3">
+        <v>0</v>
+      </c>
+      <c r="E501" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F1C9D5-6657-4762-AA95-F74269C6D679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD83CC-34B5-4EB5-ADEB-F61491F4C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="50">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>38w</t>
+  </si>
+  <si>
+    <t>39w</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1196,6 +1199,23 @@
         <v>208</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>1200</v>
+      </c>
+      <c r="C27">
+        <v>882</v>
+      </c>
+      <c r="D27">
+        <v>246</v>
+      </c>
+      <c r="E27">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1204,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1654,6 +1674,23 @@
         <v>4.82</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27">
+        <v>4.91</v>
+      </c>
+      <c r="C27">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D27">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E27">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1662,7 +1699,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K501"/>
+  <dimension ref="A1:K521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -10235,6 +10272,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A502" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B502" s="2">
+        <v>5</v>
+      </c>
+      <c r="C502" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D502" s="3">
+        <v>1110</v>
+      </c>
+      <c r="E502" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A503" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B503" s="2">
+        <v>4</v>
+      </c>
+      <c r="C503" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D503" s="3">
+        <v>74</v>
+      </c>
+      <c r="E503" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A504" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B504" s="2">
+        <v>3</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D504" s="3">
+        <v>13</v>
+      </c>
+      <c r="E504" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A505" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B505" s="2">
+        <v>2</v>
+      </c>
+      <c r="C505" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D505" s="3">
+        <v>1</v>
+      </c>
+      <c r="E505" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A506" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B506" s="2">
+        <v>1</v>
+      </c>
+      <c r="C506" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2</v>
+      </c>
+      <c r="E506" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A507" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B507" s="2">
+        <v>5</v>
+      </c>
+      <c r="C507" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D507" s="3">
+        <v>804</v>
+      </c>
+      <c r="E507" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A508" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B508" s="2">
+        <v>4</v>
+      </c>
+      <c r="C508" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D508" s="3">
+        <v>66</v>
+      </c>
+      <c r="E508" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A509" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B509" s="2">
+        <v>3</v>
+      </c>
+      <c r="C509" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D509" s="3">
+        <v>10</v>
+      </c>
+      <c r="E509" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A510" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B510" s="2">
+        <v>2</v>
+      </c>
+      <c r="C510" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D510" s="3">
+        <v>1</v>
+      </c>
+      <c r="E510" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A511" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B511" s="2">
+        <v>1</v>
+      </c>
+      <c r="C511" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D511" s="3">
+        <v>1</v>
+      </c>
+      <c r="E511" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A512" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B512" s="2">
+        <v>5</v>
+      </c>
+      <c r="C512" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D512" s="3">
+        <v>198</v>
+      </c>
+      <c r="E512" s="9">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B513" s="2">
+        <v>4</v>
+      </c>
+      <c r="C513" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D513" s="3">
+        <v>36</v>
+      </c>
+      <c r="E513" s="9">
+        <v>0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A514" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B514" s="2">
+        <v>3</v>
+      </c>
+      <c r="C514" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D514" s="3">
+        <v>7</v>
+      </c>
+      <c r="E514" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A515" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B515" s="2">
+        <v>2</v>
+      </c>
+      <c r="C515" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D515" s="3">
+        <v>4</v>
+      </c>
+      <c r="E515" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A516" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B516" s="2">
+        <v>1</v>
+      </c>
+      <c r="C516" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D516" s="3">
+        <v>1</v>
+      </c>
+      <c r="E516" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A517" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B517" s="2">
+        <v>5</v>
+      </c>
+      <c r="C517" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D517" s="3">
+        <v>277</v>
+      </c>
+      <c r="E517" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A518" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B518" s="2">
+        <v>4</v>
+      </c>
+      <c r="C518" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D518" s="3">
+        <v>18</v>
+      </c>
+      <c r="E518" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A519" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B519" s="2">
+        <v>3</v>
+      </c>
+      <c r="C519" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D519" s="3">
+        <v>3</v>
+      </c>
+      <c r="E519" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A520" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B520" s="2">
+        <v>2</v>
+      </c>
+      <c r="C520" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D520" s="3">
+        <v>1</v>
+      </c>
+      <c r="E520" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A521" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B521" s="2">
+        <v>1</v>
+      </c>
+      <c r="C521" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D521" s="3">
+        <v>1</v>
+      </c>
+      <c r="E521" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD83CC-34B5-4EB5-ADEB-F61491F4C5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED03C1C-A4AF-4B62-A430-EFF36FB046B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="51">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,9 @@
   </si>
   <si>
     <t>39w</t>
+  </si>
+  <si>
+    <t>40w</t>
   </si>
 </sst>
 </file>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1216,6 +1219,23 @@
         <v>300</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>1031</v>
+      </c>
+      <c r="C28">
+        <v>776</v>
+      </c>
+      <c r="D28">
+        <v>254</v>
+      </c>
+      <c r="E28">
+        <v>233</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1224,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1691,6 +1711,23 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>4.92</v>
+      </c>
+      <c r="C28">
+        <v>4.87</v>
+      </c>
+      <c r="D28">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E28">
+        <v>4.84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1699,7 +1736,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K521"/>
+  <dimension ref="A1:K541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -10612,6 +10649,346 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A522" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B522" s="2">
+        <v>5</v>
+      </c>
+      <c r="C522" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D522" s="3">
+        <v>958</v>
+      </c>
+      <c r="E522" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A523" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B523" s="2">
+        <v>4</v>
+      </c>
+      <c r="C523" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D523" s="3">
+        <v>61</v>
+      </c>
+      <c r="E523" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A524" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B524" s="2">
+        <v>3</v>
+      </c>
+      <c r="C524" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D524" s="3">
+        <v>12</v>
+      </c>
+      <c r="E524" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A525" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B525" s="2">
+        <v>2</v>
+      </c>
+      <c r="C525" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D525" s="3">
+        <v>0</v>
+      </c>
+      <c r="E525" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A526" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B526" s="2">
+        <v>1</v>
+      </c>
+      <c r="C526" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D526" s="3">
+        <v>0</v>
+      </c>
+      <c r="E526" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A527" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B527" s="2">
+        <v>5</v>
+      </c>
+      <c r="C527" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D527" s="3">
+        <v>696</v>
+      </c>
+      <c r="E527" s="9">
+        <v>0.89700000000000002</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A528" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B528" s="2">
+        <v>4</v>
+      </c>
+      <c r="C528" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D528" s="3">
+        <v>65</v>
+      </c>
+      <c r="E528" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A529" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B529" s="2">
+        <v>3</v>
+      </c>
+      <c r="C529" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D529" s="3">
+        <v>12</v>
+      </c>
+      <c r="E529" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A530" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B530" s="2">
+        <v>2</v>
+      </c>
+      <c r="C530" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2</v>
+      </c>
+      <c r="E530" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A531" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B531" s="2">
+        <v>1</v>
+      </c>
+      <c r="C531" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D531" s="3">
+        <v>1</v>
+      </c>
+      <c r="E531" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A532" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B532" s="2">
+        <v>5</v>
+      </c>
+      <c r="C532" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D532" s="3">
+        <v>226</v>
+      </c>
+      <c r="E532" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A533" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B533" s="2">
+        <v>4</v>
+      </c>
+      <c r="C533" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D533" s="3">
+        <v>22</v>
+      </c>
+      <c r="E533" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A534" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B534" s="2">
+        <v>3</v>
+      </c>
+      <c r="C534" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D534" s="3">
+        <v>3</v>
+      </c>
+      <c r="E534" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A535" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B535" s="2">
+        <v>2</v>
+      </c>
+      <c r="C535" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D535" s="3">
+        <v>3</v>
+      </c>
+      <c r="E535" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A536" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B536" s="2">
+        <v>1</v>
+      </c>
+      <c r="C536" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D536" s="3">
+        <v>0</v>
+      </c>
+      <c r="E536" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A537" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B537" s="2">
+        <v>5</v>
+      </c>
+      <c r="C537" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D537" s="3">
+        <v>204</v>
+      </c>
+      <c r="E537" s="9">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A538" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B538" s="2">
+        <v>4</v>
+      </c>
+      <c r="C538" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D538" s="3">
+        <v>22</v>
+      </c>
+      <c r="E538" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A539" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B539" s="2">
+        <v>3</v>
+      </c>
+      <c r="C539" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D539" s="3">
+        <v>6</v>
+      </c>
+      <c r="E539" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A540" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B540" s="2">
+        <v>2</v>
+      </c>
+      <c r="C540" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D540" s="3">
+        <v>0</v>
+      </c>
+      <c r="E540" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A541" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B541" s="2">
+        <v>1</v>
+      </c>
+      <c r="C541" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D541" s="3">
+        <v>1</v>
+      </c>
+      <c r="E541" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED03C1C-A4AF-4B62-A430-EFF36FB046B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51F59F-37F3-45F5-A400-4BE581E7C7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="52">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>40w</t>
+  </si>
+  <si>
+    <t>41w</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1236,6 +1239,23 @@
         <v>233</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>1132</v>
+      </c>
+      <c r="C29">
+        <v>1016</v>
+      </c>
+      <c r="D29">
+        <v>254</v>
+      </c>
+      <c r="E29">
+        <v>277</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,7 +1264,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1728,6 +1748,23 @@
         <v>4.84</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>4.88</v>
+      </c>
+      <c r="C29">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D29">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E29">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1736,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K541"/>
+  <dimension ref="A1:K561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -10989,6 +11026,346 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A542" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B542" s="2">
+        <v>5</v>
+      </c>
+      <c r="C542" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D542" s="3">
+        <v>1019</v>
+      </c>
+      <c r="E542" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A543" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B543" s="2">
+        <v>4</v>
+      </c>
+      <c r="C543" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D543" s="3">
+        <v>96</v>
+      </c>
+      <c r="E543" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A544" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B544" s="2">
+        <v>3</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D544" s="3">
+        <v>13</v>
+      </c>
+      <c r="E544" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A545" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B545" s="2">
+        <v>2</v>
+      </c>
+      <c r="C545" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2</v>
+      </c>
+      <c r="E545" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A546" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B546" s="2">
+        <v>1</v>
+      </c>
+      <c r="C546" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2</v>
+      </c>
+      <c r="E546" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A547" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B547" s="2">
+        <v>5</v>
+      </c>
+      <c r="C547" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D547" s="3">
+        <v>936</v>
+      </c>
+      <c r="E547" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A548" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B548" s="2">
+        <v>4</v>
+      </c>
+      <c r="C548" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D548" s="3">
+        <v>67</v>
+      </c>
+      <c r="E548" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A549" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B549" s="2">
+        <v>3</v>
+      </c>
+      <c r="C549" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D549" s="3">
+        <v>8</v>
+      </c>
+      <c r="E549" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A550" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B550" s="2">
+        <v>2</v>
+      </c>
+      <c r="C550" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D550" s="3">
+        <v>3</v>
+      </c>
+      <c r="E550" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A551" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B551" s="2">
+        <v>1</v>
+      </c>
+      <c r="C551" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2</v>
+      </c>
+      <c r="E551" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A552" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B552" s="2">
+        <v>5</v>
+      </c>
+      <c r="C552" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D552" s="3">
+        <v>223</v>
+      </c>
+      <c r="E552" s="9">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A553" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B553" s="2">
+        <v>4</v>
+      </c>
+      <c r="C553" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D553" s="3">
+        <v>25</v>
+      </c>
+      <c r="E553" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A554" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B554" s="2">
+        <v>3</v>
+      </c>
+      <c r="C554" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D554" s="3">
+        <v>5</v>
+      </c>
+      <c r="E554" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A555" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B555" s="2">
+        <v>2</v>
+      </c>
+      <c r="C555" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D555" s="3">
+        <v>1</v>
+      </c>
+      <c r="E555" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A556" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B556" s="2">
+        <v>1</v>
+      </c>
+      <c r="C556" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D556" s="3">
+        <v>0</v>
+      </c>
+      <c r="E556" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A557" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B557" s="2">
+        <v>5</v>
+      </c>
+      <c r="C557" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D557" s="3">
+        <v>253</v>
+      </c>
+      <c r="E557" s="9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A558" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B558" s="2">
+        <v>4</v>
+      </c>
+      <c r="C558" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D558" s="3">
+        <v>16</v>
+      </c>
+      <c r="E558" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A559" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B559" s="2">
+        <v>3</v>
+      </c>
+      <c r="C559" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D559" s="3">
+        <v>5</v>
+      </c>
+      <c r="E559" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A560" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B560" s="2">
+        <v>2</v>
+      </c>
+      <c r="C560" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D560" s="3">
+        <v>0</v>
+      </c>
+      <c r="E560" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A561" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B561" s="2">
+        <v>1</v>
+      </c>
+      <c r="C561" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D561" s="3">
+        <v>3</v>
+      </c>
+      <c r="E561" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD51F59F-37F3-45F5-A400-4BE581E7C7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A79306-50B2-4A83-917A-3E0194FC776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="53">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>41w</t>
+  </si>
+  <si>
+    <t>42w</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1256,6 +1259,23 @@
         <v>277</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>1253</v>
+      </c>
+      <c r="C30">
+        <v>934</v>
+      </c>
+      <c r="D30">
+        <v>261</v>
+      </c>
+      <c r="E30">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1765,6 +1785,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C30">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D30">
+        <v>4.82</v>
+      </c>
+      <c r="E30">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1773,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K561"/>
+  <dimension ref="A1:K581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -11366,6 +11403,346 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A562" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B562" s="2">
+        <v>5</v>
+      </c>
+      <c r="C562" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D562" s="3">
+        <v>1146</v>
+      </c>
+      <c r="E562" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A563" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B563" s="2">
+        <v>4</v>
+      </c>
+      <c r="C563" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D563" s="3">
+        <v>92</v>
+      </c>
+      <c r="E563" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A564" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B564" s="2">
+        <v>3</v>
+      </c>
+      <c r="C564" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D564" s="3">
+        <v>13</v>
+      </c>
+      <c r="E564" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A565" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B565" s="2">
+        <v>2</v>
+      </c>
+      <c r="C565" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D565" s="3">
+        <v>0</v>
+      </c>
+      <c r="E565" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A566" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B566" s="2">
+        <v>1</v>
+      </c>
+      <c r="C566" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2</v>
+      </c>
+      <c r="E566" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A567" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B567" s="2">
+        <v>5</v>
+      </c>
+      <c r="C567" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D567" s="3">
+        <v>855</v>
+      </c>
+      <c r="E567" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A568" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B568" s="2">
+        <v>4</v>
+      </c>
+      <c r="C568" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D568" s="3">
+        <v>61</v>
+      </c>
+      <c r="E568" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A569" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B569" s="2">
+        <v>3</v>
+      </c>
+      <c r="C569" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D569" s="3">
+        <v>14</v>
+      </c>
+      <c r="E569" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A570" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B570" s="2">
+        <v>2</v>
+      </c>
+      <c r="C570" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2</v>
+      </c>
+      <c r="E570" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A571" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B571" s="2">
+        <v>1</v>
+      </c>
+      <c r="C571" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D571" s="3">
+        <v>2</v>
+      </c>
+      <c r="E571" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A572" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B572" s="2">
+        <v>5</v>
+      </c>
+      <c r="C572" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D572" s="3">
+        <v>225</v>
+      </c>
+      <c r="E572" s="9">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A573" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B573" s="2">
+        <v>4</v>
+      </c>
+      <c r="C573" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D573" s="3">
+        <v>29</v>
+      </c>
+      <c r="E573" s="9">
+        <v>0.111</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A574" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B574" s="2">
+        <v>3</v>
+      </c>
+      <c r="C574" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D574" s="3">
+        <v>5</v>
+      </c>
+      <c r="E574" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A575" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B575" s="2">
+        <v>2</v>
+      </c>
+      <c r="C575" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D575" s="3">
+        <v>1</v>
+      </c>
+      <c r="E575" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A576" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B576" s="2">
+        <v>1</v>
+      </c>
+      <c r="C576" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D576" s="3">
+        <v>1</v>
+      </c>
+      <c r="E576" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A577" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B577" s="2">
+        <v>5</v>
+      </c>
+      <c r="C577" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D577" s="3">
+        <v>277</v>
+      </c>
+      <c r="E577" s="9">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A578" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B578" s="2">
+        <v>4</v>
+      </c>
+      <c r="C578" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D578" s="3">
+        <v>44</v>
+      </c>
+      <c r="E578" s="9">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A579" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B579" s="2">
+        <v>3</v>
+      </c>
+      <c r="C579" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D579" s="3">
+        <v>2</v>
+      </c>
+      <c r="E579" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A580" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B580" s="2">
+        <v>2</v>
+      </c>
+      <c r="C580" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D580" s="3">
+        <v>0</v>
+      </c>
+      <c r="E580" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A581" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B581" s="2">
+        <v>1</v>
+      </c>
+      <c r="C581" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D581" s="3">
+        <v>0</v>
+      </c>
+      <c r="E581" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A79306-50B2-4A83-917A-3E0194FC776C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8DD21-3AC8-4664-A976-F1AC2D94216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="54">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>42w</t>
+  </si>
+  <si>
+    <t>43w</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1276,6 +1279,23 @@
         <v>323</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>1110</v>
+      </c>
+      <c r="C31">
+        <v>929</v>
+      </c>
+      <c r="D31">
+        <v>256</v>
+      </c>
+      <c r="E31">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1802,6 +1822,23 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31">
+        <v>4.92</v>
+      </c>
+      <c r="C31">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D31">
+        <v>4.83</v>
+      </c>
+      <c r="E31">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1810,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K581"/>
+  <dimension ref="A1:K601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -11743,6 +11780,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A582" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B582" s="2">
+        <v>5</v>
+      </c>
+      <c r="C582" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582" s="3">
+        <v>1033</v>
+      </c>
+      <c r="E582" s="9">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A583" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B583" s="2">
+        <v>4</v>
+      </c>
+      <c r="C583" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D583" s="3">
+        <v>63</v>
+      </c>
+      <c r="E583" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A584" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B584" s="2">
+        <v>3</v>
+      </c>
+      <c r="C584" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D584" s="3">
+        <v>13</v>
+      </c>
+      <c r="E584" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A585" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B585" s="2">
+        <v>2</v>
+      </c>
+      <c r="C585" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D585" s="3">
+        <v>0</v>
+      </c>
+      <c r="E585" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A586" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B586" s="2">
+        <v>1</v>
+      </c>
+      <c r="C586" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D586" s="3">
+        <v>1</v>
+      </c>
+      <c r="E586" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A587" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B587" s="2">
+        <v>5</v>
+      </c>
+      <c r="C587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D587" s="3">
+        <v>845</v>
+      </c>
+      <c r="E587" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A588" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B588" s="2">
+        <v>4</v>
+      </c>
+      <c r="C588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D588" s="3">
+        <v>67</v>
+      </c>
+      <c r="E588" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A589" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B589" s="2">
+        <v>3</v>
+      </c>
+      <c r="C589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D589" s="3">
+        <v>16</v>
+      </c>
+      <c r="E589" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A590" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B590" s="2">
+        <v>2</v>
+      </c>
+      <c r="C590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D590" s="3">
+        <v>1</v>
+      </c>
+      <c r="E590" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A591" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B591" s="2">
+        <v>1</v>
+      </c>
+      <c r="C591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D591" s="3">
+        <v>0</v>
+      </c>
+      <c r="E591" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A592" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B592" s="2">
+        <v>5</v>
+      </c>
+      <c r="C592" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D592" s="3">
+        <v>220</v>
+      </c>
+      <c r="E592" s="9">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A593" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B593" s="2">
+        <v>4</v>
+      </c>
+      <c r="C593" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D593" s="3">
+        <v>30</v>
+      </c>
+      <c r="E593" s="9">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A594" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B594" s="2">
+        <v>3</v>
+      </c>
+      <c r="C594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D594" s="3">
+        <v>5</v>
+      </c>
+      <c r="E594" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A595" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B595" s="2">
+        <v>2</v>
+      </c>
+      <c r="C595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D595" s="3">
+        <v>0</v>
+      </c>
+      <c r="E595" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A596" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B596" s="2">
+        <v>1</v>
+      </c>
+      <c r="C596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D596" s="3">
+        <v>1</v>
+      </c>
+      <c r="E596" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A597" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B597" s="2">
+        <v>5</v>
+      </c>
+      <c r="C597" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D597" s="3">
+        <v>279</v>
+      </c>
+      <c r="E597" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A598" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B598" s="2">
+        <v>4</v>
+      </c>
+      <c r="C598" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D598" s="3">
+        <v>27</v>
+      </c>
+      <c r="E598" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A599" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B599" s="2">
+        <v>3</v>
+      </c>
+      <c r="C599" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2</v>
+      </c>
+      <c r="E599" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A600" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B600" s="2">
+        <v>2</v>
+      </c>
+      <c r="C600" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D600" s="3">
+        <v>1</v>
+      </c>
+      <c r="E600" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A601" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B601" s="2">
+        <v>1</v>
+      </c>
+      <c r="C601" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D601" s="3">
+        <v>0</v>
+      </c>
+      <c r="E601" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A8DD21-3AC8-4664-A976-F1AC2D94216A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692B0D7-13B2-44D3-A270-29C19DDBC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1275" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="55">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>43w</t>
+  </si>
+  <si>
+    <t>44w</t>
   </si>
 </sst>
 </file>
@@ -761,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1296,6 +1299,23 @@
         <v>309</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>1077</v>
+      </c>
+      <c r="C32">
+        <v>870</v>
+      </c>
+      <c r="D32">
+        <v>268</v>
+      </c>
+      <c r="E32">
+        <v>278</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1304,7 +1324,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1839,6 +1859,23 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C32">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D32">
+        <v>4.88</v>
+      </c>
+      <c r="E32">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,7 +1884,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K601"/>
+  <dimension ref="A1:K621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -12120,6 +12157,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A602" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B602" s="2">
+        <v>5</v>
+      </c>
+      <c r="C602" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D602" s="3">
+        <v>984</v>
+      </c>
+      <c r="E602" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A603" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B603" s="2">
+        <v>4</v>
+      </c>
+      <c r="C603" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D603" s="3">
+        <v>72</v>
+      </c>
+      <c r="E603" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A604" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B604" s="2">
+        <v>3</v>
+      </c>
+      <c r="C604" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D604" s="3">
+        <v>17</v>
+      </c>
+      <c r="E604" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A605" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B605" s="2">
+        <v>2</v>
+      </c>
+      <c r="C605" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2</v>
+      </c>
+      <c r="E605" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A606" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B606" s="2">
+        <v>1</v>
+      </c>
+      <c r="C606" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2</v>
+      </c>
+      <c r="E606" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A607" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B607" s="2">
+        <v>5</v>
+      </c>
+      <c r="C607" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D607" s="3">
+        <v>779</v>
+      </c>
+      <c r="E607" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A608" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B608" s="2">
+        <v>4</v>
+      </c>
+      <c r="C608" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D608" s="3">
+        <v>69</v>
+      </c>
+      <c r="E608" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A609" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B609" s="2">
+        <v>3</v>
+      </c>
+      <c r="C609" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D609" s="3">
+        <v>14</v>
+      </c>
+      <c r="E609" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A610" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B610" s="2">
+        <v>2</v>
+      </c>
+      <c r="C610" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2</v>
+      </c>
+      <c r="E610" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A611" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B611" s="2">
+        <v>1</v>
+      </c>
+      <c r="C611" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D611" s="3">
+        <v>6</v>
+      </c>
+      <c r="E611" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A612" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B612" s="2">
+        <v>5</v>
+      </c>
+      <c r="C612" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D612" s="3">
+        <v>242</v>
+      </c>
+      <c r="E612" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A613" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B613" s="2">
+        <v>4</v>
+      </c>
+      <c r="C613" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D613" s="3">
+        <v>22</v>
+      </c>
+      <c r="E613" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A614" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B614" s="2">
+        <v>3</v>
+      </c>
+      <c r="C614" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D614" s="3">
+        <v>3</v>
+      </c>
+      <c r="E614" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A615" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B615" s="2">
+        <v>2</v>
+      </c>
+      <c r="C615" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D615" s="3">
+        <v>1</v>
+      </c>
+      <c r="E615" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A616" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B616" s="2">
+        <v>1</v>
+      </c>
+      <c r="C616" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D616" s="3">
+        <v>0</v>
+      </c>
+      <c r="E616" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A617" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B617" s="2">
+        <v>5</v>
+      </c>
+      <c r="C617" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D617" s="3">
+        <v>255</v>
+      </c>
+      <c r="E617" s="9">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A618" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B618" s="2">
+        <v>4</v>
+      </c>
+      <c r="C618" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D618" s="3">
+        <v>19</v>
+      </c>
+      <c r="E618" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A619" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B619" s="2">
+        <v>3</v>
+      </c>
+      <c r="C619" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D619" s="3">
+        <v>1</v>
+      </c>
+      <c r="E619" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A620" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B620" s="2">
+        <v>2</v>
+      </c>
+      <c r="C620" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D620" s="3">
+        <v>3</v>
+      </c>
+      <c r="E620" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A621" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B621" s="2">
+        <v>1</v>
+      </c>
+      <c r="C621" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D621" s="3">
+        <v>0</v>
+      </c>
+      <c r="E621" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9692B0D7-13B2-44D3-A270-29C19DDBC3BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A29BC9-4E1A-4419-B6F2-F622CFF2C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="56">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>44w</t>
+  </si>
+  <si>
+    <t>45w</t>
   </si>
 </sst>
 </file>
@@ -764,7 +767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1316,6 +1319,23 @@
         <v>278</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1214</v>
+      </c>
+      <c r="C33">
+        <v>954</v>
+      </c>
+      <c r="D33">
+        <v>275</v>
+      </c>
+      <c r="E33">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1324,7 +1344,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1876,6 +1896,23 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="C33">
+        <v>4.92</v>
+      </c>
+      <c r="D33">
+        <v>4.91</v>
+      </c>
+      <c r="E33">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1884,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K621"/>
+  <dimension ref="A1:K641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -12497,6 +12534,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A622" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B622" s="2">
+        <v>5</v>
+      </c>
+      <c r="C622" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D622" s="3">
+        <v>1094</v>
+      </c>
+      <c r="E622" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A623" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B623" s="2">
+        <v>4</v>
+      </c>
+      <c r="C623" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D623" s="3">
+        <v>93</v>
+      </c>
+      <c r="E623" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A624" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B624" s="2">
+        <v>3</v>
+      </c>
+      <c r="C624" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D624" s="3">
+        <v>15</v>
+      </c>
+      <c r="E624" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A625" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B625" s="2">
+        <v>2</v>
+      </c>
+      <c r="C625" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D625" s="3">
+        <v>7</v>
+      </c>
+      <c r="E625" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A626" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B626" s="2">
+        <v>1</v>
+      </c>
+      <c r="C626" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D626" s="3">
+        <v>5</v>
+      </c>
+      <c r="E626" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A627" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B627" s="2">
+        <v>5</v>
+      </c>
+      <c r="C627" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D627" s="3">
+        <v>891</v>
+      </c>
+      <c r="E627" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A628" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B628" s="2">
+        <v>4</v>
+      </c>
+      <c r="C628" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D628" s="3">
+        <v>50</v>
+      </c>
+      <c r="E628" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A629" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B629" s="2">
+        <v>3</v>
+      </c>
+      <c r="C629" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D629" s="3">
+        <v>11</v>
+      </c>
+      <c r="E629" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A630" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B630" s="2">
+        <v>2</v>
+      </c>
+      <c r="C630" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D630" s="3">
+        <v>0</v>
+      </c>
+      <c r="E630" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A631" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B631" s="2">
+        <v>1</v>
+      </c>
+      <c r="C631" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D631" s="3">
+        <v>2</v>
+      </c>
+      <c r="E631" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A632" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B632" s="2">
+        <v>5</v>
+      </c>
+      <c r="C632" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D632" s="3">
+        <v>255</v>
+      </c>
+      <c r="E632" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A633" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B633" s="2">
+        <v>4</v>
+      </c>
+      <c r="C633" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D633" s="3">
+        <v>15</v>
+      </c>
+      <c r="E633" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A634" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B634" s="2">
+        <v>3</v>
+      </c>
+      <c r="C634" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D634" s="3">
+        <v>4</v>
+      </c>
+      <c r="E634" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A635" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B635" s="2">
+        <v>2</v>
+      </c>
+      <c r="C635" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D635" s="3">
+        <v>1</v>
+      </c>
+      <c r="E635" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A636" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B636" s="2">
+        <v>1</v>
+      </c>
+      <c r="C636" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D636" s="3">
+        <v>0</v>
+      </c>
+      <c r="E636" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A637" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B637" s="2">
+        <v>5</v>
+      </c>
+      <c r="C637" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D637" s="3">
+        <v>242</v>
+      </c>
+      <c r="E637" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A638" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B638" s="2">
+        <v>4</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D638" s="3">
+        <v>26</v>
+      </c>
+      <c r="E638" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A639" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B639" s="2">
+        <v>3</v>
+      </c>
+      <c r="C639" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D639" s="3">
+        <v>3</v>
+      </c>
+      <c r="E639" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A640" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B640" s="2">
+        <v>2</v>
+      </c>
+      <c r="C640" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2</v>
+      </c>
+      <c r="E640" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A641" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B641" s="2">
+        <v>1</v>
+      </c>
+      <c r="C641" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D641" s="3">
+        <v>0</v>
+      </c>
+      <c r="E641" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A29BC9-4E1A-4419-B6F2-F622CFF2C1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D4BAE-19A9-43B4-A5AF-E0A4DFDB5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="57">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>45w</t>
+  </si>
+  <si>
+    <t>46w</t>
   </si>
 </sst>
 </file>
@@ -767,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1336,6 +1339,23 @@
         <v>273</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>1250</v>
+      </c>
+      <c r="C34">
+        <v>982</v>
+      </c>
+      <c r="D34">
+        <v>259</v>
+      </c>
+      <c r="E34">
+        <v>325</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1344,7 +1364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1913,6 +1933,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34">
+        <v>4.88</v>
+      </c>
+      <c r="C34">
+        <v>4.88</v>
+      </c>
+      <c r="D34">
+        <v>4.83</v>
+      </c>
+      <c r="E34">
+        <v>4.84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1921,7 +1958,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K641"/>
+  <dimension ref="A1:K661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -12874,6 +12911,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A642" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B642" s="2">
+        <v>5</v>
+      </c>
+      <c r="C642" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D642" s="3">
+        <v>1136</v>
+      </c>
+      <c r="E642" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A643" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B643" s="2">
+        <v>4</v>
+      </c>
+      <c r="C643" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D643" s="3">
+        <v>88</v>
+      </c>
+      <c r="E643" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A644" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B644" s="2">
+        <v>3</v>
+      </c>
+      <c r="C644" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D644" s="3">
+        <v>19</v>
+      </c>
+      <c r="E644" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A645" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B645" s="2">
+        <v>2</v>
+      </c>
+      <c r="C645" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D645" s="3">
+        <v>4</v>
+      </c>
+      <c r="E645" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A646" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B646" s="2">
+        <v>1</v>
+      </c>
+      <c r="C646" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D646" s="3">
+        <v>3</v>
+      </c>
+      <c r="E646" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A647" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B647" s="2">
+        <v>5</v>
+      </c>
+      <c r="C647" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D647" s="3">
+        <v>891</v>
+      </c>
+      <c r="E647" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A648" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B648" s="2">
+        <v>4</v>
+      </c>
+      <c r="C648" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D648" s="3">
+        <v>72</v>
+      </c>
+      <c r="E648" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A649" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B649" s="2">
+        <v>3</v>
+      </c>
+      <c r="C649" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D649" s="3">
+        <v>15</v>
+      </c>
+      <c r="E649" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A650" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B650" s="2">
+        <v>2</v>
+      </c>
+      <c r="C650" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2</v>
+      </c>
+      <c r="E650" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A651" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B651" s="2">
+        <v>1</v>
+      </c>
+      <c r="C651" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2</v>
+      </c>
+      <c r="E651" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A652" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B652" s="2">
+        <v>5</v>
+      </c>
+      <c r="C652" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D652" s="3">
+        <v>227</v>
+      </c>
+      <c r="E652" s="9">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A653" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B653" s="2">
+        <v>4</v>
+      </c>
+      <c r="C653" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D653" s="3">
+        <v>22</v>
+      </c>
+      <c r="E653" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A654" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B654" s="2">
+        <v>3</v>
+      </c>
+      <c r="C654" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D654" s="3">
+        <v>9</v>
+      </c>
+      <c r="E654" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A655" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B655" s="2">
+        <v>2</v>
+      </c>
+      <c r="C655" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D655" s="3">
+        <v>0</v>
+      </c>
+      <c r="E655" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A656" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B656" s="2">
+        <v>1</v>
+      </c>
+      <c r="C656" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D656" s="3">
+        <v>1</v>
+      </c>
+      <c r="E656" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A657" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B657" s="2">
+        <v>5</v>
+      </c>
+      <c r="C657" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D657" s="3">
+        <v>281</v>
+      </c>
+      <c r="E657" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A658" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B658" s="2">
+        <v>4</v>
+      </c>
+      <c r="C658" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D658" s="3">
+        <v>39</v>
+      </c>
+      <c r="E658" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A659" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B659" s="2">
+        <v>3</v>
+      </c>
+      <c r="C659" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D659" s="3">
+        <v>4</v>
+      </c>
+      <c r="E659" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A660" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B660" s="2">
+        <v>2</v>
+      </c>
+      <c r="C660" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D660" s="3">
+        <v>0</v>
+      </c>
+      <c r="E660" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A661" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B661" s="2">
+        <v>1</v>
+      </c>
+      <c r="C661" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D661" s="3">
+        <v>1</v>
+      </c>
+      <c r="E661" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D4BAE-19A9-43B4-A5AF-E0A4DFDB5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2282719-42D5-4406-9853-0D40CA806F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="58">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>46w</t>
+  </si>
+  <si>
+    <t>47w</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1356,6 +1359,23 @@
         <v>325</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>1303</v>
+      </c>
+      <c r="C35">
+        <v>933</v>
+      </c>
+      <c r="D35">
+        <v>225</v>
+      </c>
+      <c r="E35">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1364,7 +1384,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1950,6 +1970,23 @@
         <v>4.84</v>
       </c>
     </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C35">
+        <v>4.92</v>
+      </c>
+      <c r="D35">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E35">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1958,7 +1995,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K661"/>
+  <dimension ref="A1:K681"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -13251,6 +13288,346 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A662" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B662" s="2">
+        <v>5</v>
+      </c>
+      <c r="C662" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D662" s="3">
+        <v>1191</v>
+      </c>
+      <c r="E662" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A663" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B663" s="2">
+        <v>4</v>
+      </c>
+      <c r="C663" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D663" s="3">
+        <v>102</v>
+      </c>
+      <c r="E663" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A664" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B664" s="2">
+        <v>3</v>
+      </c>
+      <c r="C664" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D664" s="3">
+        <v>7</v>
+      </c>
+      <c r="E664" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A665" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B665" s="2">
+        <v>2</v>
+      </c>
+      <c r="C665" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D665" s="3">
+        <v>0</v>
+      </c>
+      <c r="E665" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A666" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B666" s="2">
+        <v>1</v>
+      </c>
+      <c r="C666" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D666" s="3">
+        <v>3</v>
+      </c>
+      <c r="E666" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A667" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B667" s="2">
+        <v>5</v>
+      </c>
+      <c r="C667" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D667" s="3">
+        <v>866</v>
+      </c>
+      <c r="E667" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A668" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B668" s="2">
+        <v>4</v>
+      </c>
+      <c r="C668" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D668" s="3">
+        <v>55</v>
+      </c>
+      <c r="E668" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A669" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B669" s="2">
+        <v>3</v>
+      </c>
+      <c r="C669" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D669" s="3">
+        <v>12</v>
+      </c>
+      <c r="E669" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A670" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B670" s="2">
+        <v>2</v>
+      </c>
+      <c r="C670" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D670" s="3">
+        <v>0</v>
+      </c>
+      <c r="E670" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A671" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B671" s="2">
+        <v>1</v>
+      </c>
+      <c r="C671" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D671" s="3">
+        <v>0</v>
+      </c>
+      <c r="E671" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A672" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B672" s="2">
+        <v>5</v>
+      </c>
+      <c r="C672" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D672" s="3">
+        <v>188</v>
+      </c>
+      <c r="E672" s="9">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A673" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B673" s="2">
+        <v>4</v>
+      </c>
+      <c r="C673" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D673" s="3">
+        <v>27</v>
+      </c>
+      <c r="E673" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A674" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B674" s="2">
+        <v>3</v>
+      </c>
+      <c r="C674" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D674" s="3">
+        <v>6</v>
+      </c>
+      <c r="E674" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A675" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B675" s="2">
+        <v>2</v>
+      </c>
+      <c r="C675" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D675" s="3">
+        <v>4</v>
+      </c>
+      <c r="E675" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A676" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B676" s="2">
+        <v>1</v>
+      </c>
+      <c r="C676" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D676" s="3">
+        <v>0</v>
+      </c>
+      <c r="E676" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A677" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B677" s="2">
+        <v>5</v>
+      </c>
+      <c r="C677" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D677" s="3">
+        <v>329</v>
+      </c>
+      <c r="E677" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A678" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B678" s="2">
+        <v>4</v>
+      </c>
+      <c r="C678" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D678" s="3">
+        <v>24</v>
+      </c>
+      <c r="E678" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A679" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B679" s="2">
+        <v>3</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D679" s="3">
+        <v>2</v>
+      </c>
+      <c r="E679" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A680" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B680" s="2">
+        <v>2</v>
+      </c>
+      <c r="C680" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D680" s="3">
+        <v>2</v>
+      </c>
+      <c r="E680" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A681" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B681" s="2">
+        <v>1</v>
+      </c>
+      <c r="C681" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D681" s="3">
+        <v>2</v>
+      </c>
+      <c r="E681" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2282719-42D5-4406-9853-0D40CA806F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1DFC8E-D9F8-458D-AA98-16F09C758B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1443" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="59">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>47w</t>
+  </si>
+  <si>
+    <t>48w</t>
   </si>
 </sst>
 </file>
@@ -773,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1376,6 +1379,23 @@
         <v>359</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>1157</v>
+      </c>
+      <c r="C36">
+        <v>991</v>
+      </c>
+      <c r="D36">
+        <v>254</v>
+      </c>
+      <c r="E36">
+        <v>327</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1384,7 +1404,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -1987,6 +2007,23 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C36">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D36">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E36">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1995,7 +2032,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K681"/>
+  <dimension ref="A1:K701"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -13628,6 +13665,346 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A682" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B682" s="2">
+        <v>5</v>
+      </c>
+      <c r="C682" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D682" s="3">
+        <v>1060</v>
+      </c>
+      <c r="E682" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A683" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B683" s="2">
+        <v>4</v>
+      </c>
+      <c r="C683" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D683" s="3">
+        <v>81</v>
+      </c>
+      <c r="E683" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A684" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B684" s="2">
+        <v>3</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D684" s="3">
+        <v>13</v>
+      </c>
+      <c r="E684" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A685" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B685" s="2">
+        <v>2</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D685" s="3">
+        <v>1</v>
+      </c>
+      <c r="E685" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A686" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B686" s="2">
+        <v>1</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D686" s="3">
+        <v>2</v>
+      </c>
+      <c r="E686" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A687" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B687" s="2">
+        <v>5</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D687" s="3">
+        <v>915</v>
+      </c>
+      <c r="E687" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A688" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B688" s="2">
+        <v>4</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D688" s="3">
+        <v>62</v>
+      </c>
+      <c r="E688" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A689" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B689" s="2">
+        <v>3</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D689" s="3">
+        <v>9</v>
+      </c>
+      <c r="E689" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A690" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B690" s="2">
+        <v>2</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D690" s="3">
+        <v>3</v>
+      </c>
+      <c r="E690" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A691" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B691" s="2">
+        <v>1</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D691" s="3">
+        <v>2</v>
+      </c>
+      <c r="E691" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A692" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B692" s="2">
+        <v>5</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D692" s="3">
+        <v>232</v>
+      </c>
+      <c r="E692" s="9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A693" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B693" s="2">
+        <v>4</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D693" s="3">
+        <v>17</v>
+      </c>
+      <c r="E693" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A694" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B694" s="2">
+        <v>3</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D694" s="3">
+        <v>5</v>
+      </c>
+      <c r="E694" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A695" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B695" s="2">
+        <v>2</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D695" s="3">
+        <v>0</v>
+      </c>
+      <c r="E695" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A696" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B696" s="2">
+        <v>1</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D696" s="3">
+        <v>0</v>
+      </c>
+      <c r="E696" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A697" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B697" s="2">
+        <v>5</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D697" s="3">
+        <v>291</v>
+      </c>
+      <c r="E697" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A698" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B698" s="2">
+        <v>4</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D698" s="3">
+        <v>30</v>
+      </c>
+      <c r="E698" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A699" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B699" s="2">
+        <v>3</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D699" s="3">
+        <v>3</v>
+      </c>
+      <c r="E699" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A700" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B700" s="2">
+        <v>2</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D700" s="3">
+        <v>2</v>
+      </c>
+      <c r="E700" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A701" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B701" s="2">
+        <v>1</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D701" s="3">
+        <v>1</v>
+      </c>
+      <c r="E701" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1DFC8E-D9F8-458D-AA98-16F09C758B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971EA83-B908-4B29-9D4F-29D2B6FA7216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="60">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>48w</t>
+  </si>
+  <si>
+    <t>49w</t>
   </si>
 </sst>
 </file>
@@ -776,7 +779,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1396,6 +1399,23 @@
         <v>327</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>1163</v>
+      </c>
+      <c r="C37">
+        <v>916</v>
+      </c>
+      <c r="D37">
+        <v>261</v>
+      </c>
+      <c r="E37">
+        <v>313</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1404,7 +1424,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -2024,6 +2044,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37">
+        <v>4.88</v>
+      </c>
+      <c r="C37">
+        <v>4.88</v>
+      </c>
+      <c r="D37">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E37">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2032,7 +2069,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K701"/>
+  <dimension ref="A1:K721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -14005,6 +14042,346 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A702" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B702" s="2">
+        <v>5</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D702" s="3">
+        <v>1054</v>
+      </c>
+      <c r="E702" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A703" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B703" s="2">
+        <v>4</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D703" s="3">
+        <v>95</v>
+      </c>
+      <c r="E703" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A704" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B704" s="2">
+        <v>3</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D704" s="3">
+        <v>7</v>
+      </c>
+      <c r="E704" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A705" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B705" s="2">
+        <v>2</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D705" s="3">
+        <v>3</v>
+      </c>
+      <c r="E705" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A706" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B706" s="2">
+        <v>1</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D706" s="3">
+        <v>4</v>
+      </c>
+      <c r="E706" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A707" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B707" s="2">
+        <v>5</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D707" s="3">
+        <v>831</v>
+      </c>
+      <c r="E707" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A708" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B708" s="2">
+        <v>4</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D708" s="3">
+        <v>70</v>
+      </c>
+      <c r="E708" s="9">
+        <v>7.5999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A709" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B709" s="2">
+        <v>3</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D709" s="3">
+        <v>9</v>
+      </c>
+      <c r="E709" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A710" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B710" s="2">
+        <v>2</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D710" s="3">
+        <v>5</v>
+      </c>
+      <c r="E710" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A711" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B711" s="2">
+        <v>1</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D711" s="3">
+        <v>1</v>
+      </c>
+      <c r="E711" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A712" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B712" s="2">
+        <v>5</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D712" s="3">
+        <v>228</v>
+      </c>
+      <c r="E712" s="9">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A713" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B713" s="2">
+        <v>4</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D713" s="3">
+        <v>24</v>
+      </c>
+      <c r="E713" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A714" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B714" s="2">
+        <v>3</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D714" s="3">
+        <v>4</v>
+      </c>
+      <c r="E714" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A715" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B715" s="2">
+        <v>2</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D715" s="3">
+        <v>2</v>
+      </c>
+      <c r="E715" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A716" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B716" s="2">
+        <v>1</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D716" s="3">
+        <v>3</v>
+      </c>
+      <c r="E716" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A717" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B717" s="2">
+        <v>5</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D717" s="3">
+        <v>282</v>
+      </c>
+      <c r="E717" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A718" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B718" s="2">
+        <v>4</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D718" s="3">
+        <v>27</v>
+      </c>
+      <c r="E718" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A719" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B719" s="2">
+        <v>3</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D719" s="3">
+        <v>1</v>
+      </c>
+      <c r="E719" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A720" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B720" s="2">
+        <v>2</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D720" s="3">
+        <v>3</v>
+      </c>
+      <c r="E720" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A721" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B721" s="2">
+        <v>1</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D721" s="3">
+        <v>0</v>
+      </c>
+      <c r="E721" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F971EA83-B908-4B29-9D4F-29D2B6FA7216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25792E-D4DF-4C57-A777-CF5333C151AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="61">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>49w</t>
+  </si>
+  <si>
+    <t>50w</t>
   </si>
 </sst>
 </file>
@@ -779,7 +782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1416,6 +1419,23 @@
         <v>313</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>1139</v>
+      </c>
+      <c r="C38">
+        <v>931</v>
+      </c>
+      <c r="D38">
+        <v>275</v>
+      </c>
+      <c r="E38">
+        <v>352</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1424,7 +1444,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -2061,6 +2081,23 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38">
+        <v>4.91</v>
+      </c>
+      <c r="C38">
+        <v>4.88</v>
+      </c>
+      <c r="D38">
+        <v>4.87</v>
+      </c>
+      <c r="E38">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2069,7 +2106,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K721"/>
+  <dimension ref="A1:K741"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -14382,6 +14419,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A722" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B722" s="2">
+        <v>5</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D722" s="3">
+        <v>1058</v>
+      </c>
+      <c r="E722" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A723" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B723" s="2">
+        <v>4</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D723" s="3">
+        <v>66</v>
+      </c>
+      <c r="E723" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A724" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B724" s="2">
+        <v>3</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D724" s="3">
+        <v>10</v>
+      </c>
+      <c r="E724" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A725" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B725" s="2">
+        <v>2</v>
+      </c>
+      <c r="C725" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D725" s="3">
+        <v>5</v>
+      </c>
+      <c r="E725" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A726" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B726" s="2">
+        <v>1</v>
+      </c>
+      <c r="C726" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D726" s="3">
+        <v>0</v>
+      </c>
+      <c r="E726" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B727" s="2">
+        <v>5</v>
+      </c>
+      <c r="C727" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D727" s="3">
+        <v>840</v>
+      </c>
+      <c r="E727" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B728" s="2">
+        <v>4</v>
+      </c>
+      <c r="C728" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D728" s="3">
+        <v>70</v>
+      </c>
+      <c r="E728" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B729" s="2">
+        <v>3</v>
+      </c>
+      <c r="C729" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D729" s="3">
+        <v>18</v>
+      </c>
+      <c r="E729" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B730" s="2">
+        <v>2</v>
+      </c>
+      <c r="C730" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D730" s="3">
+        <v>2</v>
+      </c>
+      <c r="E730" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B731" s="2">
+        <v>1</v>
+      </c>
+      <c r="C731" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D731" s="3">
+        <v>1</v>
+      </c>
+      <c r="E731" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B732" s="2">
+        <v>5</v>
+      </c>
+      <c r="C732" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D732" s="3">
+        <v>246</v>
+      </c>
+      <c r="E732" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B733" s="2">
+        <v>4</v>
+      </c>
+      <c r="C733" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D733" s="3">
+        <v>22</v>
+      </c>
+      <c r="E733" s="9">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B734" s="2">
+        <v>3</v>
+      </c>
+      <c r="C734" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D734" s="3">
+        <v>7</v>
+      </c>
+      <c r="E734" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B735" s="2">
+        <v>2</v>
+      </c>
+      <c r="C735" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D735" s="3">
+        <v>0</v>
+      </c>
+      <c r="E735" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B736" s="2">
+        <v>1</v>
+      </c>
+      <c r="C736" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D736" s="3">
+        <v>0</v>
+      </c>
+      <c r="E736" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A737" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B737" s="2">
+        <v>5</v>
+      </c>
+      <c r="C737" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D737" s="3">
+        <v>309</v>
+      </c>
+      <c r="E737" s="9">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A738" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B738" s="2">
+        <v>4</v>
+      </c>
+      <c r="C738" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D738" s="3">
+        <v>36</v>
+      </c>
+      <c r="E738" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A739" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B739" s="2">
+        <v>3</v>
+      </c>
+      <c r="C739" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D739" s="3">
+        <v>7</v>
+      </c>
+      <c r="E739" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A740" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B740" s="2">
+        <v>2</v>
+      </c>
+      <c r="C740" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D740" s="3">
+        <v>0</v>
+      </c>
+      <c r="E740" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A741" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B741" s="2">
+        <v>1</v>
+      </c>
+      <c r="C741" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D741" s="3">
+        <v>0</v>
+      </c>
+      <c r="E741" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB25792E-D4DF-4C57-A777-CF5333C151AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F4D3E-7AD1-41F6-990B-594CF3E60969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="62">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>50w</t>
+  </si>
+  <si>
+    <t>51w</t>
   </si>
 </sst>
 </file>
@@ -782,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -1436,6 +1439,23 @@
         <v>352</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>1268</v>
+      </c>
+      <c r="C39">
+        <v>927</v>
+      </c>
+      <c r="D39">
+        <v>287</v>
+      </c>
+      <c r="E39">
+        <v>317</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1444,7 +1464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C54" sqref="C53:C54"/>
@@ -2098,6 +2118,23 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C39">
+        <v>4.91</v>
+      </c>
+      <c r="D39">
+        <v>4.82</v>
+      </c>
+      <c r="E39">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2106,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K741"/>
+  <dimension ref="A1:K761"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D437" sqref="D437:D441"/>
@@ -14759,6 +14796,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A742" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B742" s="2">
+        <v>5</v>
+      </c>
+      <c r="C742" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D742" s="3">
+        <v>1159</v>
+      </c>
+      <c r="E742" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A743" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B743" s="2">
+        <v>4</v>
+      </c>
+      <c r="C743" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D743" s="3">
+        <v>93</v>
+      </c>
+      <c r="E743" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A744" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B744" s="2">
+        <v>3</v>
+      </c>
+      <c r="C744" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D744" s="3">
+        <v>14</v>
+      </c>
+      <c r="E744" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A745" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B745" s="2">
+        <v>2</v>
+      </c>
+      <c r="C745" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D745" s="3">
+        <v>1</v>
+      </c>
+      <c r="E745" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A746" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B746" s="2">
+        <v>1</v>
+      </c>
+      <c r="C746" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D746" s="3">
+        <v>1</v>
+      </c>
+      <c r="E746" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A747" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B747" s="2">
+        <v>5</v>
+      </c>
+      <c r="C747" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D747" s="3">
+        <v>858</v>
+      </c>
+      <c r="E747" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A748" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B748" s="2">
+        <v>4</v>
+      </c>
+      <c r="C748" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D748" s="3">
+        <v>57</v>
+      </c>
+      <c r="E748" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A749" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B749" s="2">
+        <v>3</v>
+      </c>
+      <c r="C749" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D749" s="3">
+        <v>9</v>
+      </c>
+      <c r="E749" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A750" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B750" s="2">
+        <v>2</v>
+      </c>
+      <c r="C750" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D750" s="3">
+        <v>1</v>
+      </c>
+      <c r="E750" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A751" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B751" s="2">
+        <v>1</v>
+      </c>
+      <c r="C751" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D751" s="3">
+        <v>2</v>
+      </c>
+      <c r="E751" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A752" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B752" s="2">
+        <v>5</v>
+      </c>
+      <c r="C752" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D752" s="3">
+        <v>247</v>
+      </c>
+      <c r="E752" s="9">
+        <v>0.86099999999999999</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A753" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B753" s="2">
+        <v>4</v>
+      </c>
+      <c r="C753" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D753" s="3">
+        <v>31</v>
+      </c>
+      <c r="E753" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A754" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B754" s="2">
+        <v>3</v>
+      </c>
+      <c r="C754" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D754" s="3">
+        <v>8</v>
+      </c>
+      <c r="E754" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A755" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B755" s="2">
+        <v>2</v>
+      </c>
+      <c r="C755" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D755" s="3">
+        <v>0</v>
+      </c>
+      <c r="E755" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A756" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B756" s="2">
+        <v>1</v>
+      </c>
+      <c r="C756" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D756" s="3">
+        <v>1</v>
+      </c>
+      <c r="E756" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A757" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B757" s="2">
+        <v>5</v>
+      </c>
+      <c r="C757" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D757" s="3">
+        <v>290</v>
+      </c>
+      <c r="E757" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A758" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B758" s="2">
+        <v>4</v>
+      </c>
+      <c r="C758" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D758" s="3">
+        <v>17</v>
+      </c>
+      <c r="E758" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A759" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B759" s="2">
+        <v>3</v>
+      </c>
+      <c r="C759" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D759" s="3">
+        <v>8</v>
+      </c>
+      <c r="E759" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A760" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B760" s="2">
+        <v>2</v>
+      </c>
+      <c r="C760" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D760" s="3">
+        <v>2</v>
+      </c>
+      <c r="E760" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A761" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B761" s="2">
+        <v>1</v>
+      </c>
+      <c r="C761" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D761" s="3">
+        <v>0</v>
+      </c>
+      <c r="E761" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7F4D3E-7AD1-41F6-990B-594CF3E60969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E27C5-7114-4F58-BD6E-904E93F6C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,16 +1444,16 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>1268</v>
+        <v>1158</v>
       </c>
       <c r="C39">
-        <v>927</v>
+        <v>834</v>
       </c>
       <c r="D39">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="E39">
-        <v>317</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1466,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C54" sqref="C53:C54"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2123,7 @@
         <v>61</v>
       </c>
       <c r="B39">
-        <v>4.9000000000000004</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="C39">
         <v>4.91</v>
@@ -2145,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:K761"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D437" sqref="D437:D441"/>
+    <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
+      <selection activeCell="A741" sqref="A741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -14807,10 +14807,10 @@
         <v>20</v>
       </c>
       <c r="D742" s="3">
-        <v>1159</v>
+        <v>1053</v>
       </c>
       <c r="E742" s="9">
-        <v>0.91400000000000003</v>
+        <v>0.90900000000000003</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.25">
@@ -14824,10 +14824,10 @@
         <v>20</v>
       </c>
       <c r="D743" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E743" s="9">
-        <v>7.2999999999999995E-2</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.25">
@@ -14841,7 +14841,7 @@
         <v>20</v>
       </c>
       <c r="D744" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E744" s="9">
         <v>1.0999999999999999E-2</v>
@@ -14892,10 +14892,10 @@
         <v>19</v>
       </c>
       <c r="D747" s="3">
-        <v>858</v>
+        <v>770</v>
       </c>
       <c r="E747" s="9">
-        <v>0.92600000000000005</v>
+        <v>0.92300000000000004</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.25">
@@ -14909,10 +14909,10 @@
         <v>19</v>
       </c>
       <c r="D748" s="3">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E748" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.25">
@@ -14926,7 +14926,7 @@
         <v>19</v>
       </c>
       <c r="D749" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E749" s="9">
         <v>0.01</v>
@@ -14943,10 +14943,10 @@
         <v>19</v>
       </c>
       <c r="D750" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E750" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.25">
@@ -14977,10 +14977,10 @@
         <v>18</v>
       </c>
       <c r="D752" s="3">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="E752" s="9">
-        <v>0.86099999999999999</v>
+        <v>0.86299999999999999</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.25">
@@ -14994,10 +14994,10 @@
         <v>18</v>
       </c>
       <c r="D753" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E753" s="9">
-        <v>0.108</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.25">
@@ -15014,7 +15014,7 @@
         <v>8</v>
       </c>
       <c r="E754" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.25">
@@ -15048,7 +15048,7 @@
         <v>1</v>
       </c>
       <c r="E756" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.25">
@@ -15062,10 +15062,10 @@
         <v>16</v>
       </c>
       <c r="D757" s="3">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="E757" s="9">
-        <v>0.91500000000000004</v>
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.25">
@@ -15079,10 +15079,10 @@
         <v>16</v>
       </c>
       <c r="D758" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E758" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.25">
@@ -15096,10 +15096,10 @@
         <v>16</v>
       </c>
       <c r="D759" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E759" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.25">
@@ -15116,7 +15116,7 @@
         <v>2</v>
       </c>
       <c r="E760" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.25">

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207E27C5-7114-4F58-BD6E-904E93F6C69B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75D6890-B857-4571-B663-A536DE593C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="63">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>51w</t>
+  </si>
+  <si>
+    <t>52w</t>
   </si>
 </sst>
 </file>
@@ -785,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
@@ -1456,6 +1459,23 @@
         <v>296</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>1102</v>
+      </c>
+      <c r="C40">
+        <v>782</v>
+      </c>
+      <c r="D40">
+        <v>247</v>
+      </c>
+      <c r="E40">
+        <v>304</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1464,7 +1484,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
@@ -2135,6 +2155,23 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40">
+        <v>4.92</v>
+      </c>
+      <c r="C40">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D40">
+        <v>4.79</v>
+      </c>
+      <c r="E40">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2143,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:K761"/>
+  <dimension ref="A1:K781"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A731" workbookViewId="0">
       <selection activeCell="A741" sqref="A741"/>
@@ -15136,6 +15173,346 @@
         <v>0</v>
       </c>
     </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A762" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B762" s="2">
+        <v>5</v>
+      </c>
+      <c r="C762" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D762" s="3">
+        <v>1024</v>
+      </c>
+      <c r="E762" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A763" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B763" s="2">
+        <v>4</v>
+      </c>
+      <c r="C763" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D763" s="3">
+        <v>67</v>
+      </c>
+      <c r="E763" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A764" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B764" s="2">
+        <v>3</v>
+      </c>
+      <c r="C764" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D764" s="3">
+        <v>10</v>
+      </c>
+      <c r="E764" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A765" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B765" s="2">
+        <v>2</v>
+      </c>
+      <c r="C765" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D765" s="3">
+        <v>0</v>
+      </c>
+      <c r="E765" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A766" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B766" s="2">
+        <v>1</v>
+      </c>
+      <c r="C766" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D766" s="3">
+        <v>1</v>
+      </c>
+      <c r="E766" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A767" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B767" s="2">
+        <v>5</v>
+      </c>
+      <c r="C767" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D767" s="3">
+        <v>718</v>
+      </c>
+      <c r="E767" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A768" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B768" s="2">
+        <v>4</v>
+      </c>
+      <c r="C768" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D768" s="3">
+        <v>49</v>
+      </c>
+      <c r="E768" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A769" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B769" s="2">
+        <v>3</v>
+      </c>
+      <c r="C769" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D769" s="3">
+        <v>10</v>
+      </c>
+      <c r="E769" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A770" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B770" s="2">
+        <v>2</v>
+      </c>
+      <c r="C770" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D770" s="3">
+        <v>2</v>
+      </c>
+      <c r="E770" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A771" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B771" s="2">
+        <v>1</v>
+      </c>
+      <c r="C771" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D771" s="3">
+        <v>3</v>
+      </c>
+      <c r="E771" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A772" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B772" s="2">
+        <v>5</v>
+      </c>
+      <c r="C772" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D772" s="3">
+        <v>212</v>
+      </c>
+      <c r="E772" s="9">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A773" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B773" s="2">
+        <v>4</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D773" s="3">
+        <v>22</v>
+      </c>
+      <c r="E773" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A774" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B774" s="2">
+        <v>3</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D774" s="3">
+        <v>11</v>
+      </c>
+      <c r="E774" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A775" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B775" s="2">
+        <v>2</v>
+      </c>
+      <c r="C775" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D775" s="3">
+        <v>1</v>
+      </c>
+      <c r="E775" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A776" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B776" s="2">
+        <v>1</v>
+      </c>
+      <c r="C776" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D776" s="3">
+        <v>1</v>
+      </c>
+      <c r="E776" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A777" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B777" s="2">
+        <v>5</v>
+      </c>
+      <c r="C777" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D777" s="3">
+        <v>271</v>
+      </c>
+      <c r="E777" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A778" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B778" s="2">
+        <v>4</v>
+      </c>
+      <c r="C778" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D778" s="3">
+        <v>28</v>
+      </c>
+      <c r="E778" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A779" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B779" s="2">
+        <v>3</v>
+      </c>
+      <c r="C779" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D779" s="3">
+        <v>3</v>
+      </c>
+      <c r="E779" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A780" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B780" s="2">
+        <v>2</v>
+      </c>
+      <c r="C780" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D780" s="3">
+        <v>0</v>
+      </c>
+      <c r="E780" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A781" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B781" s="2">
+        <v>1</v>
+      </c>
+      <c r="C781" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D781" s="3">
+        <v>2</v>
+      </c>
+      <c r="E781" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E441" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{279740BF-6673-4A89-9E41-B69F11139C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFBBD3-5A24-42DC-8095-4C80FC0CDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="65">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,7 +257,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>year</t>
+    <t>1w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -795,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,26 +1602,6 @@
       </c>
       <c r="F40">
         <v>304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41">
-        <v>2025</v>
-      </c>
-      <c r="C41">
-        <v>971</v>
-      </c>
-      <c r="D41">
-        <v>756</v>
-      </c>
-      <c r="E41">
-        <v>206</v>
-      </c>
-      <c r="F41">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1631,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F41"/>
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2437,26 +2418,6 @@
       </c>
       <c r="F40">
         <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41">
-        <v>2025</v>
-      </c>
-      <c r="C41">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D41">
-        <v>4.88</v>
-      </c>
-      <c r="E41">
-        <v>4.8499999999999996</v>
-      </c>
-      <c r="F41">
-        <v>4.93</v>
       </c>
     </row>
   </sheetData>
@@ -2469,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:L801"/>
   <sheetViews>
-    <sheetView topLeftCell="A774" workbookViewId="0">
-      <selection activeCell="A782" sqref="A782"/>
+    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
+      <selection activeCell="B789" sqref="B789"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18144,11 +18105,11 @@
       </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A782" s="2" t="s">
+      <c r="A782" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B782" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B782" s="2">
-        <v>2025</v>
       </c>
       <c r="C782" s="2">
         <v>5</v>
@@ -18157,18 +18118,18 @@
         <v>20</v>
       </c>
       <c r="E782" s="3">
-        <v>891</v>
+        <v>1024</v>
       </c>
       <c r="F782" s="9">
-        <v>0.91800000000000004</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A783" s="2" t="s">
+      <c r="A783" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B783" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B783" s="2">
-        <v>2025</v>
       </c>
       <c r="C783" s="2">
         <v>4</v>
@@ -18177,19 +18138,19 @@
         <v>20</v>
       </c>
       <c r="E783" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F783" s="9">
-        <v>7.0999999999999994E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A784" s="2" t="s">
+      <c r="A784" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B784" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B784" s="2">
-        <v>2025</v>
-      </c>
       <c r="C784" s="2">
         <v>3</v>
       </c>
@@ -18197,58 +18158,58 @@
         <v>20</v>
       </c>
       <c r="E784" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F784" s="9">
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A785" s="2" t="s">
+      <c r="A785" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B785" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B785" s="2">
+      <c r="C785" s="2">
+        <v>2</v>
+      </c>
+      <c r="D785" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E785" s="3">
+        <v>0</v>
+      </c>
+      <c r="F785" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786" s="2">
         <v>2025</v>
       </c>
-      <c r="C785" s="2">
-        <v>2</v>
-      </c>
-      <c r="D785" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E785" s="3">
-        <v>0</v>
-      </c>
-      <c r="F785" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A786" s="2" t="s">
+      <c r="B786" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B786" s="2">
+      <c r="C786" s="2">
+        <v>1</v>
+      </c>
+      <c r="D786" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E786" s="3">
+        <v>1</v>
+      </c>
+      <c r="F786" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787" s="2">
         <v>2025</v>
       </c>
-      <c r="C786" s="2">
-        <v>1</v>
-      </c>
-      <c r="D786" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E786" s="3">
-        <v>2</v>
-      </c>
-      <c r="F786" s="9">
-        <v>2E-3</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A787" s="2" t="s">
+      <c r="B787" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B787" s="2">
-        <v>2025</v>
       </c>
       <c r="C787" s="2">
         <v>5</v>
@@ -18257,18 +18218,18 @@
         <v>19</v>
       </c>
       <c r="E787" s="3">
-        <v>677</v>
+        <v>718</v>
       </c>
       <c r="F787" s="9">
-        <v>0.89600000000000002</v>
+        <v>0.91800000000000004</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A788" s="2" t="s">
+      <c r="A788" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B788" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B788" s="2">
-        <v>2025</v>
       </c>
       <c r="C788" s="2">
         <v>4</v>
@@ -18277,78 +18238,78 @@
         <v>19</v>
       </c>
       <c r="E788" s="3">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F788" s="9">
-        <v>9.0999999999999998E-2</v>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A789" s="2" t="s">
+      <c r="A789" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B789" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B789" s="2">
+      <c r="C789" s="2">
+        <v>3</v>
+      </c>
+      <c r="D789" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E789" s="3">
+        <v>10</v>
+      </c>
+      <c r="F789" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790" s="2">
         <v>2025</v>
       </c>
-      <c r="C789" s="2">
-        <v>3</v>
-      </c>
-      <c r="D789" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E789" s="3">
-        <v>9</v>
-      </c>
-      <c r="F789" s="9">
-        <v>1.2E-2</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A790" s="2" t="s">
+      <c r="B790" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B790" s="2">
+      <c r="C790" s="2">
+        <v>2</v>
+      </c>
+      <c r="D790" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E790" s="3">
+        <v>2</v>
+      </c>
+      <c r="F790" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791" s="2">
         <v>2025</v>
       </c>
-      <c r="C790" s="2">
-        <v>2</v>
-      </c>
-      <c r="D790" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E790" s="3">
-        <v>0</v>
-      </c>
-      <c r="F790" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A791" s="2" t="s">
+      <c r="B791" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B791" s="2">
+      <c r="C791" s="2">
+        <v>1</v>
+      </c>
+      <c r="D791" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E791" s="3">
+        <v>3</v>
+      </c>
+      <c r="F791" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792" s="2">
         <v>2025</v>
       </c>
-      <c r="C791" s="2">
-        <v>1</v>
-      </c>
-      <c r="D791" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E791" s="3">
-        <v>1</v>
-      </c>
-      <c r="F791" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A792" s="2" t="s">
+      <c r="B792" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B792" s="2">
-        <v>2025</v>
       </c>
       <c r="C792" s="2">
         <v>5</v>
@@ -18357,18 +18318,18 @@
         <v>18</v>
       </c>
       <c r="E792" s="3">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="F792" s="9">
-        <v>0.89300000000000002</v>
+        <v>0.85799999999999998</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A793" s="2" t="s">
+      <c r="A793" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B793" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B793" s="2">
-        <v>2025</v>
       </c>
       <c r="C793" s="2">
         <v>4</v>
@@ -18377,78 +18338,78 @@
         <v>18</v>
       </c>
       <c r="E793" s="3">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F793" s="9">
-        <v>7.2999999999999995E-2</v>
+        <v>8.8999999999999996E-2</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A794" s="2" t="s">
+      <c r="A794" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B794" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B794" s="2">
+      <c r="C794" s="2">
+        <v>3</v>
+      </c>
+      <c r="D794" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E794" s="3">
+        <v>11</v>
+      </c>
+      <c r="F794" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795" s="2">
         <v>2025</v>
       </c>
-      <c r="C794" s="2">
-        <v>3</v>
-      </c>
-      <c r="D794" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E794" s="3">
-        <v>6</v>
-      </c>
-      <c r="F794" s="9">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A795" s="2" t="s">
+      <c r="B795" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B795" s="2">
+      <c r="C795" s="2">
+        <v>2</v>
+      </c>
+      <c r="D795" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E795" s="3">
+        <v>1</v>
+      </c>
+      <c r="F795" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796" s="2">
         <v>2025</v>
       </c>
-      <c r="C795" s="2">
-        <v>2</v>
-      </c>
-      <c r="D795" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E795" s="3">
-        <v>0</v>
-      </c>
-      <c r="F795" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A796" s="2" t="s">
+      <c r="B796" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B796" s="2">
+      <c r="C796" s="2">
+        <v>1</v>
+      </c>
+      <c r="D796" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E796" s="3">
+        <v>1</v>
+      </c>
+      <c r="F796" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797" s="2">
         <v>2025</v>
       </c>
-      <c r="C796" s="2">
-        <v>1</v>
-      </c>
-      <c r="D796" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E796" s="3">
-        <v>1</v>
-      </c>
-      <c r="F796" s="9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A797" s="2" t="s">
+      <c r="B797" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B797" s="2">
-        <v>2025</v>
       </c>
       <c r="C797" s="2">
         <v>5</v>
@@ -18457,18 +18418,18 @@
         <v>16</v>
       </c>
       <c r="E797" s="3">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F797" s="9">
-        <v>0.93600000000000005</v>
+        <v>0.89100000000000001</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A798" s="2" t="s">
+      <c r="A798" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B798" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B798" s="2">
-        <v>2025</v>
       </c>
       <c r="C798" s="2">
         <v>4</v>
@@ -18477,59 +18438,59 @@
         <v>16</v>
       </c>
       <c r="E798" s="3">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F798" s="9">
-        <v>5.2999999999999999E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A799" s="2" t="s">
+      <c r="A799" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B799" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B799" s="2">
+      <c r="C799" s="2">
+        <v>3</v>
+      </c>
+      <c r="D799" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E799" s="3">
+        <v>3</v>
+      </c>
+      <c r="F799" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800" s="2">
         <v>2025</v>
       </c>
-      <c r="C799" s="2">
-        <v>3</v>
-      </c>
-      <c r="D799" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E799" s="3">
-        <v>3</v>
-      </c>
-      <c r="F799" s="9">
-        <v>1.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A800" s="2" t="s">
+      <c r="B800" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B800" s="2">
+      <c r="C800" s="2">
+        <v>2</v>
+      </c>
+      <c r="D800" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E800" s="3">
+        <v>0</v>
+      </c>
+      <c r="F800" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801" s="2">
         <v>2025</v>
       </c>
-      <c r="C800" s="2">
-        <v>2</v>
-      </c>
-      <c r="D800" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E800" s="3">
-        <v>0</v>
-      </c>
-      <c r="F800" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A801" s="2" t="s">
+      <c r="B801" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B801" s="2">
-        <v>2025</v>
-      </c>
       <c r="C801" s="2">
         <v>1</v>
       </c>
@@ -18537,10 +18498,10 @@
         <v>16</v>
       </c>
       <c r="E801" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F801" s="9">
-        <v>0</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FFBBD3-5A24-42DC-8095-4C80FC0CDA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E14968-5305-42CB-ABCC-444F565F345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -2430,8 +2430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:L801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A770" workbookViewId="0">
-      <selection activeCell="B789" sqref="B789"/>
+    <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
+      <selection activeCell="E788" sqref="E788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E14968-5305-42CB-ABCC-444F565F345B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC4C172-E28C-4E11-A4D4-32496DEED9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1696" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="65">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -410,7 +410,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,6 +457,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -796,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1602,6 +1605,26 @@
       </c>
       <c r="F40">
         <v>304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>100</v>
+      </c>
+      <c r="D41">
+        <v>50</v>
+      </c>
+      <c r="E41">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1612,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2418,6 +2441,26 @@
       </c>
       <c r="F40">
         <v>4.8600000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>2025</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2430,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:L801"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A779" workbookViewId="0">
-      <selection activeCell="E788" sqref="E788"/>
+    <sheetView topLeftCell="A769" workbookViewId="0">
+      <selection activeCell="B796" sqref="B796"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC4C172-E28C-4E11-A4D4-32496DEED9BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F84C27-FF78-4F68-9BF5-0A43BAF54BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -258,7 +258,6 @@
   </si>
   <si>
     <t>1w</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -410,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -457,9 +456,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -801,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:F41"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1608,23 +1604,23 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="2">
         <v>2025</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>1050</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>744</v>
       </c>
       <c r="E41">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="F41">
-        <v>10</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -1637,8 +1633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,23 +2440,23 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="2">
         <v>2025</v>
       </c>
       <c r="B41" t="s">
         <v>64</v>
       </c>
       <c r="C41">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D41">
-        <v>5</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>4.82</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>4.88</v>
       </c>
     </row>
   </sheetData>
@@ -2473,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:L801"/>
   <sheetViews>
-    <sheetView topLeftCell="A769" workbookViewId="0">
-      <selection activeCell="B796" sqref="B796"/>
+    <sheetView topLeftCell="A762" workbookViewId="0">
+      <selection activeCell="A781" sqref="A781"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18161,10 +18157,10 @@
         <v>20</v>
       </c>
       <c r="E782" s="3">
-        <v>1024</v>
+        <v>966</v>
       </c>
       <c r="F782" s="9">
-        <v>0.92900000000000005</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.25">
@@ -18181,10 +18177,10 @@
         <v>20</v>
       </c>
       <c r="E783" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F783" s="9">
-        <v>6.0999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.25">
@@ -18201,10 +18197,10 @@
         <v>20</v>
       </c>
       <c r="E784" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F784" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="785" spans="1:6" x14ac:dyDescent="0.25">
@@ -18221,10 +18217,10 @@
         <v>20</v>
       </c>
       <c r="E785" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F785" s="9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="786" spans="1:6" x14ac:dyDescent="0.25">
@@ -18241,10 +18237,10 @@
         <v>20</v>
       </c>
       <c r="E786" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F786" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:6" x14ac:dyDescent="0.25">
@@ -18261,10 +18257,10 @@
         <v>19</v>
       </c>
       <c r="E787" s="3">
-        <v>718</v>
+        <v>675</v>
       </c>
       <c r="F787" s="9">
-        <v>0.91800000000000004</v>
+        <v>0.90700000000000003</v>
       </c>
     </row>
     <row r="788" spans="1:6" x14ac:dyDescent="0.25">
@@ -18281,10 +18277,10 @@
         <v>19</v>
       </c>
       <c r="E788" s="3">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F788" s="9">
-        <v>6.3E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="789" spans="1:6" x14ac:dyDescent="0.25">
@@ -18301,10 +18297,10 @@
         <v>19</v>
       </c>
       <c r="E789" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F789" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="790" spans="1:6" x14ac:dyDescent="0.25">
@@ -18321,10 +18317,10 @@
         <v>19</v>
       </c>
       <c r="E790" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F790" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:6" x14ac:dyDescent="0.25">
@@ -18341,10 +18337,10 @@
         <v>19</v>
       </c>
       <c r="E791" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F791" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="792" spans="1:6" x14ac:dyDescent="0.25">
@@ -18361,10 +18357,10 @@
         <v>18</v>
       </c>
       <c r="E792" s="3">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="F792" s="9">
-        <v>0.85799999999999998</v>
+        <v>0.86399999999999999</v>
       </c>
     </row>
     <row r="793" spans="1:6" x14ac:dyDescent="0.25">
@@ -18381,10 +18377,10 @@
         <v>18</v>
       </c>
       <c r="E793" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F793" s="9">
-        <v>8.8999999999999996E-2</v>
+        <v>0.10100000000000001</v>
       </c>
     </row>
     <row r="794" spans="1:6" x14ac:dyDescent="0.25">
@@ -18401,10 +18397,10 @@
         <v>18</v>
       </c>
       <c r="E794" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F794" s="9">
-        <v>4.4999999999999998E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="795" spans="1:6" x14ac:dyDescent="0.25">
@@ -18461,10 +18457,10 @@
         <v>16</v>
       </c>
       <c r="E797" s="3">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="F797" s="9">
-        <v>0.89100000000000001</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="798" spans="1:6" x14ac:dyDescent="0.25">
@@ -18481,10 +18477,10 @@
         <v>16</v>
       </c>
       <c r="E798" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F798" s="9">
-        <v>9.1999999999999998E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="799" spans="1:6" x14ac:dyDescent="0.25">
@@ -18501,10 +18497,10 @@
         <v>16</v>
       </c>
       <c r="E799" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F799" s="9">
-        <v>0.01</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="800" spans="1:6" x14ac:dyDescent="0.25">
@@ -18521,10 +18517,10 @@
         <v>16</v>
       </c>
       <c r="E800" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F800" s="9">
-        <v>0</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="801" spans="1:6" x14ac:dyDescent="0.25">
@@ -18541,10 +18537,10 @@
         <v>16</v>
       </c>
       <c r="E801" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F801" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F84C27-FF78-4F68-9BF5-0A43BAF54BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F68FA-6118-4590-B444-32A043BCBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="66">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>1w</t>
+  </si>
+  <si>
+    <t>2w</t>
   </si>
 </sst>
 </file>
@@ -795,7 +798,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1623,6 +1626,26 @@
         <v>328</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>1212</v>
+      </c>
+      <c r="D42">
+        <v>861</v>
+      </c>
+      <c r="E42">
+        <v>288</v>
+      </c>
+      <c r="F42">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1631,7 +1654,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2459,6 +2482,26 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2025</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>4.92</v>
+      </c>
+      <c r="D42">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E42">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F42">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2467,7 +2510,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L801"/>
+  <dimension ref="A1:L821"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -18543,6 +18586,406 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B802" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C802" s="2">
+        <v>5</v>
+      </c>
+      <c r="D802" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E802" s="3">
+        <v>1129</v>
+      </c>
+      <c r="F802" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B803" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C803" s="2">
+        <v>4</v>
+      </c>
+      <c r="D803" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E803" s="3">
+        <v>69</v>
+      </c>
+      <c r="F803" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B804" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C804" s="2">
+        <v>3</v>
+      </c>
+      <c r="D804" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E804" s="3">
+        <v>11</v>
+      </c>
+      <c r="F804" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B805" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C805" s="2">
+        <v>2</v>
+      </c>
+      <c r="D805" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E805" s="3">
+        <v>1</v>
+      </c>
+      <c r="F805" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B806" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C806" s="2">
+        <v>1</v>
+      </c>
+      <c r="D806" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E806" s="3">
+        <v>2</v>
+      </c>
+      <c r="F806" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B807" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C807" s="2">
+        <v>5</v>
+      </c>
+      <c r="D807" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E807" s="3">
+        <v>798</v>
+      </c>
+      <c r="F807" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B808" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C808" s="2">
+        <v>4</v>
+      </c>
+      <c r="D808" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E808" s="3">
+        <v>50</v>
+      </c>
+      <c r="F808" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B809" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C809" s="2">
+        <v>3</v>
+      </c>
+      <c r="D809" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E809" s="3">
+        <v>9</v>
+      </c>
+      <c r="F809" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B810" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C810" s="2">
+        <v>2</v>
+      </c>
+      <c r="D810" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E810" s="3">
+        <v>1</v>
+      </c>
+      <c r="F810" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B811" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C811" s="2">
+        <v>1</v>
+      </c>
+      <c r="D811" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E811" s="3">
+        <v>3</v>
+      </c>
+      <c r="F811" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B812" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C812" s="2">
+        <v>5</v>
+      </c>
+      <c r="D812" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E812" s="3">
+        <v>253</v>
+      </c>
+      <c r="F812" s="9">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B813" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C813" s="2">
+        <v>4</v>
+      </c>
+      <c r="D813" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E813" s="3">
+        <v>30</v>
+      </c>
+      <c r="F813" s="9">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B814" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C814" s="2">
+        <v>3</v>
+      </c>
+      <c r="D814" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E814" s="3">
+        <v>4</v>
+      </c>
+      <c r="F814" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B815" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C815" s="2">
+        <v>2</v>
+      </c>
+      <c r="D815" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E815" s="3">
+        <v>0</v>
+      </c>
+      <c r="F815" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B816" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C816" s="2">
+        <v>1</v>
+      </c>
+      <c r="D816" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E816" s="3">
+        <v>1</v>
+      </c>
+      <c r="F816" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B817" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C817" s="2">
+        <v>5</v>
+      </c>
+      <c r="D817" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E817" s="3">
+        <v>317</v>
+      </c>
+      <c r="F817" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B818" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C818" s="2">
+        <v>4</v>
+      </c>
+      <c r="D818" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E818" s="3">
+        <v>24</v>
+      </c>
+      <c r="F818" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B819" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C819" s="2">
+        <v>3</v>
+      </c>
+      <c r="D819" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E819" s="3">
+        <v>7</v>
+      </c>
+      <c r="F819" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B820" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C820" s="2">
+        <v>2</v>
+      </c>
+      <c r="D820" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E820" s="3">
+        <v>0</v>
+      </c>
+      <c r="F820" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B821" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C821" s="2">
+        <v>1</v>
+      </c>
+      <c r="D821" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E821" s="3">
+        <v>1</v>
+      </c>
+      <c r="F821" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882F68FA-6118-4590-B444-32A043BCBF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A23CA3-69A7-436D-B6F4-0B9C7FE458CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1740" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="67">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,9 @@
   </si>
   <si>
     <t>2w</t>
+  </si>
+  <si>
+    <t>3w</t>
   </si>
 </sst>
 </file>
@@ -798,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1646,6 +1649,26 @@
         <v>349</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2025</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>1076</v>
+      </c>
+      <c r="D43">
+        <v>820</v>
+      </c>
+      <c r="E43">
+        <v>223</v>
+      </c>
+      <c r="F43">
+        <v>318</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1654,7 +1677,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2502,6 +2525,26 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2025</v>
+      </c>
+      <c r="B43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43">
+        <v>4.91</v>
+      </c>
+      <c r="D43">
+        <v>4.91</v>
+      </c>
+      <c r="E43">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F43">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2510,7 +2553,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L821"/>
+  <dimension ref="A1:L841"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -18986,6 +19029,406 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B822" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C822" s="2">
+        <v>5</v>
+      </c>
+      <c r="D822" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E822" s="3">
+        <v>995</v>
+      </c>
+      <c r="F822" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B823" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C823" s="2">
+        <v>4</v>
+      </c>
+      <c r="D823" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E823" s="3">
+        <v>64</v>
+      </c>
+      <c r="F823" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B824" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C824" s="2">
+        <v>3</v>
+      </c>
+      <c r="D824" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E824" s="3">
+        <v>15</v>
+      </c>
+      <c r="F824" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B825" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C825" s="2">
+        <v>2</v>
+      </c>
+      <c r="D825" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E825" s="3">
+        <v>2</v>
+      </c>
+      <c r="F825" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B826" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C826" s="2">
+        <v>1</v>
+      </c>
+      <c r="D826" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E826" s="3">
+        <v>0</v>
+      </c>
+      <c r="F826" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B827" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C827" s="2">
+        <v>5</v>
+      </c>
+      <c r="D827" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E827" s="3">
+        <v>756</v>
+      </c>
+      <c r="F827" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B828" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C828" s="2">
+        <v>4</v>
+      </c>
+      <c r="D828" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E828" s="3">
+        <v>53</v>
+      </c>
+      <c r="F828" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B829" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C829" s="2">
+        <v>3</v>
+      </c>
+      <c r="D829" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E829" s="3">
+        <v>10</v>
+      </c>
+      <c r="F829" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B830" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C830" s="2">
+        <v>2</v>
+      </c>
+      <c r="D830" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E830" s="3">
+        <v>0</v>
+      </c>
+      <c r="F830" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B831" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C831" s="2">
+        <v>1</v>
+      </c>
+      <c r="D831" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E831" s="3">
+        <v>1</v>
+      </c>
+      <c r="F831" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B832" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C832" s="2">
+        <v>5</v>
+      </c>
+      <c r="D832" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E832" s="3">
+        <v>203</v>
+      </c>
+      <c r="F832" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B833" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C833" s="2">
+        <v>4</v>
+      </c>
+      <c r="D833" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E833" s="3">
+        <v>11</v>
+      </c>
+      <c r="F833" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B834" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C834" s="2">
+        <v>3</v>
+      </c>
+      <c r="D834" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E834" s="3">
+        <v>7</v>
+      </c>
+      <c r="F834" s="9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B835" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C835" s="2">
+        <v>2</v>
+      </c>
+      <c r="D835" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E835" s="3">
+        <v>1</v>
+      </c>
+      <c r="F835" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B836" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C836" s="2">
+        <v>1</v>
+      </c>
+      <c r="D836" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E836" s="3">
+        <v>1</v>
+      </c>
+      <c r="F836" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B837" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C837" s="2">
+        <v>5</v>
+      </c>
+      <c r="D837" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E837" s="3">
+        <v>276</v>
+      </c>
+      <c r="F837" s="9">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B838" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C838" s="2">
+        <v>4</v>
+      </c>
+      <c r="D838" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E838" s="3">
+        <v>36</v>
+      </c>
+      <c r="F838" s="9">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B839" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C839" s="2">
+        <v>3</v>
+      </c>
+      <c r="D839" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E839" s="3">
+        <v>5</v>
+      </c>
+      <c r="F839" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B840" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C840" s="2">
+        <v>2</v>
+      </c>
+      <c r="D840" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E840" s="3">
+        <v>1</v>
+      </c>
+      <c r="F840" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B841" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C841" s="2">
+        <v>1</v>
+      </c>
+      <c r="D841" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E841" s="3">
+        <v>0</v>
+      </c>
+      <c r="F841" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A23CA3-69A7-436D-B6F4-0B9C7FE458CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CC116-C9FB-4FF8-8237-2443CE117A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="68">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>3w</t>
+  </si>
+  <si>
+    <t>4w</t>
   </si>
 </sst>
 </file>
@@ -801,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1669,6 +1672,26 @@
         <v>318</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2025</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>1074</v>
+      </c>
+      <c r="D44">
+        <v>786</v>
+      </c>
+      <c r="E44">
+        <v>228</v>
+      </c>
+      <c r="F44">
+        <v>291</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1677,7 +1700,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2545,6 +2568,26 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2025</v>
+      </c>
+      <c r="B44" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D44">
+        <v>4.88</v>
+      </c>
+      <c r="E44">
+        <v>4.88</v>
+      </c>
+      <c r="F44">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2553,7 +2596,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L841"/>
+  <dimension ref="A1:L861"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -19429,6 +19472,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B842" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C842" s="2">
+        <v>5</v>
+      </c>
+      <c r="D842" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E842" s="3">
+        <v>983</v>
+      </c>
+      <c r="F842" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B843" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C843" s="2">
+        <v>4</v>
+      </c>
+      <c r="D843" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E843" s="3">
+        <v>74</v>
+      </c>
+      <c r="F843" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B844" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C844" s="2">
+        <v>3</v>
+      </c>
+      <c r="D844" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E844" s="3">
+        <v>17</v>
+      </c>
+      <c r="F844" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B845" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C845" s="2">
+        <v>2</v>
+      </c>
+      <c r="D845" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E845" s="3">
+        <v>0</v>
+      </c>
+      <c r="F845" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B846" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C846" s="2">
+        <v>1</v>
+      </c>
+      <c r="D846" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E846" s="3">
+        <v>0</v>
+      </c>
+      <c r="F846" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B847" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C847" s="2">
+        <v>5</v>
+      </c>
+      <c r="D847" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E847" s="3">
+        <v>717</v>
+      </c>
+      <c r="F847" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B848" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C848" s="2">
+        <v>4</v>
+      </c>
+      <c r="D848" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E848" s="3">
+        <v>51</v>
+      </c>
+      <c r="F848" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B849" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C849" s="2">
+        <v>3</v>
+      </c>
+      <c r="D849" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E849" s="3">
+        <v>13</v>
+      </c>
+      <c r="F849" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B850" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C850" s="2">
+        <v>2</v>
+      </c>
+      <c r="D850" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E850" s="3">
+        <v>1</v>
+      </c>
+      <c r="F850" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B851" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C851" s="2">
+        <v>1</v>
+      </c>
+      <c r="D851" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E851" s="3">
+        <v>4</v>
+      </c>
+      <c r="F851" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B852" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C852" s="2">
+        <v>5</v>
+      </c>
+      <c r="D852" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E852" s="3">
+        <v>206</v>
+      </c>
+      <c r="F852" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B853" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C853" s="2">
+        <v>4</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E853" s="3">
+        <v>18</v>
+      </c>
+      <c r="F853" s="9">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B854" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C854" s="2">
+        <v>3</v>
+      </c>
+      <c r="D854" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E854" s="3">
+        <v>3</v>
+      </c>
+      <c r="F854" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B855" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C855" s="2">
+        <v>2</v>
+      </c>
+      <c r="D855" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E855" s="3">
+        <v>0</v>
+      </c>
+      <c r="F855" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B856" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C856" s="2">
+        <v>1</v>
+      </c>
+      <c r="D856" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E856" s="3">
+        <v>1</v>
+      </c>
+      <c r="F856" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B857" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C857" s="2">
+        <v>5</v>
+      </c>
+      <c r="D857" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E857" s="3">
+        <v>270</v>
+      </c>
+      <c r="F857" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B858" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C858" s="2">
+        <v>4</v>
+      </c>
+      <c r="D858" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E858" s="3">
+        <v>19</v>
+      </c>
+      <c r="F858" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B859" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C859" s="2">
+        <v>3</v>
+      </c>
+      <c r="D859" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E859" s="3">
+        <v>1</v>
+      </c>
+      <c r="F859" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B860" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C860" s="2">
+        <v>2</v>
+      </c>
+      <c r="D860" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E860" s="3">
+        <v>1</v>
+      </c>
+      <c r="F860" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B861" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C861" s="2">
+        <v>1</v>
+      </c>
+      <c r="D861" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E861" s="3">
+        <v>0</v>
+      </c>
+      <c r="F861" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82CC116-C9FB-4FF8-8237-2443CE117A15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F12E9-D2D1-41CD-B407-42986D2ABBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="69">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,9 @@
   </si>
   <si>
     <t>4w</t>
+  </si>
+  <si>
+    <t>5w</t>
   </si>
 </sst>
 </file>
@@ -804,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1692,6 +1695,26 @@
         <v>291</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>717</v>
+      </c>
+      <c r="D45">
+        <v>516</v>
+      </c>
+      <c r="E45">
+        <v>158</v>
+      </c>
+      <c r="F45">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,7 +1723,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2588,6 +2611,26 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2025</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>4.93</v>
+      </c>
+      <c r="D45">
+        <v>4.87</v>
+      </c>
+      <c r="E45">
+        <v>4.91</v>
+      </c>
+      <c r="F45">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2596,7 +2639,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L861"/>
+  <dimension ref="A1:L881"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -19872,6 +19915,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B862" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C862" s="2">
+        <v>5</v>
+      </c>
+      <c r="D862" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E862" s="3">
+        <v>672</v>
+      </c>
+      <c r="F862" s="9">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B863" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C863" s="2">
+        <v>4</v>
+      </c>
+      <c r="D863" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E863" s="3">
+        <v>39</v>
+      </c>
+      <c r="F863" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B864" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C864" s="2">
+        <v>3</v>
+      </c>
+      <c r="D864" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E864" s="3">
+        <v>5</v>
+      </c>
+      <c r="F864" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B865" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C865" s="2">
+        <v>2</v>
+      </c>
+      <c r="D865" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E865" s="3">
+        <v>1</v>
+      </c>
+      <c r="F865" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B866" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C866" s="2">
+        <v>1</v>
+      </c>
+      <c r="D866" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E866" s="3">
+        <v>0</v>
+      </c>
+      <c r="F866" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B867" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C867" s="2">
+        <v>5</v>
+      </c>
+      <c r="D867" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E867" s="3">
+        <v>464</v>
+      </c>
+      <c r="F867" s="9">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B868" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C868" s="2">
+        <v>4</v>
+      </c>
+      <c r="D868" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E868" s="3">
+        <v>42</v>
+      </c>
+      <c r="F868" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B869" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C869" s="2">
+        <v>3</v>
+      </c>
+      <c r="D869" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E869" s="3">
+        <v>8</v>
+      </c>
+      <c r="F869" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B870" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C870" s="2">
+        <v>2</v>
+      </c>
+      <c r="D870" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E870" s="3">
+        <v>1</v>
+      </c>
+      <c r="F870" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B871" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C871" s="2">
+        <v>1</v>
+      </c>
+      <c r="D871" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E871" s="3">
+        <v>1</v>
+      </c>
+      <c r="F871" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B872" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C872" s="2">
+        <v>5</v>
+      </c>
+      <c r="D872" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E872" s="3">
+        <v>143</v>
+      </c>
+      <c r="F872" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B873" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C873" s="2">
+        <v>4</v>
+      </c>
+      <c r="D873" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E873" s="3">
+        <v>15</v>
+      </c>
+      <c r="F873" s="9">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B874" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C874" s="2">
+        <v>3</v>
+      </c>
+      <c r="D874" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E874" s="3">
+        <v>0</v>
+      </c>
+      <c r="F874" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B875" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C875" s="2">
+        <v>2</v>
+      </c>
+      <c r="D875" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E875" s="3">
+        <v>0</v>
+      </c>
+      <c r="F875" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B876" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C876" s="2">
+        <v>1</v>
+      </c>
+      <c r="D876" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E876" s="3">
+        <v>0</v>
+      </c>
+      <c r="F876" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B877" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C877" s="2">
+        <v>5</v>
+      </c>
+      <c r="D877" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E877" s="3">
+        <v>182</v>
+      </c>
+      <c r="F877" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B878" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C878" s="2">
+        <v>4</v>
+      </c>
+      <c r="D878" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E878" s="3">
+        <v>8</v>
+      </c>
+      <c r="F878" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B879" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C879" s="2">
+        <v>3</v>
+      </c>
+      <c r="D879" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E879" s="3">
+        <v>5</v>
+      </c>
+      <c r="F879" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B880" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C880" s="2">
+        <v>2</v>
+      </c>
+      <c r="D880" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E880" s="3">
+        <v>0</v>
+      </c>
+      <c r="F880" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B881" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C881" s="2">
+        <v>1</v>
+      </c>
+      <c r="D881" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E881" s="3">
+        <v>1</v>
+      </c>
+      <c r="F881" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F12E9-D2D1-41CD-B407-42986D2ABBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10EC06-DE6C-406C-A76A-4B3E7903DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="70">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>5w</t>
+  </si>
+  <si>
+    <t>6w</t>
   </si>
 </sst>
 </file>
@@ -807,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1715,6 +1718,26 @@
         <v>196</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2025</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>1109</v>
+      </c>
+      <c r="D46">
+        <v>858</v>
+      </c>
+      <c r="E46">
+        <v>289</v>
+      </c>
+      <c r="F46">
+        <v>361</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2631,6 +2654,26 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2025</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46">
+        <v>4.91</v>
+      </c>
+      <c r="D46">
+        <v>4.87</v>
+      </c>
+      <c r="E46">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F46">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2639,7 +2682,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L881"/>
+  <dimension ref="A1:L901"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -20315,6 +20358,406 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B882" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C882" s="2">
+        <v>5</v>
+      </c>
+      <c r="D882" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E882" s="3">
+        <v>1029</v>
+      </c>
+      <c r="F882" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B883" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C883" s="2">
+        <v>4</v>
+      </c>
+      <c r="D883" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E883" s="3">
+        <v>65</v>
+      </c>
+      <c r="F883" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B884" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C884" s="2">
+        <v>3</v>
+      </c>
+      <c r="D884" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E884" s="3">
+        <v>14</v>
+      </c>
+      <c r="F884" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A885" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B885" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C885" s="2">
+        <v>2</v>
+      </c>
+      <c r="D885" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E885" s="3">
+        <v>0</v>
+      </c>
+      <c r="F885" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A886" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B886" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C886" s="2">
+        <v>1</v>
+      </c>
+      <c r="D886" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E886" s="3">
+        <v>1</v>
+      </c>
+      <c r="F886" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A887" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B887" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C887" s="2">
+        <v>5</v>
+      </c>
+      <c r="D887" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E887" s="3">
+        <v>772</v>
+      </c>
+      <c r="F887" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A888" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B888" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C888" s="2">
+        <v>4</v>
+      </c>
+      <c r="D888" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E888" s="3">
+        <v>66</v>
+      </c>
+      <c r="F888" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A889" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B889" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C889" s="2">
+        <v>3</v>
+      </c>
+      <c r="D889" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E889" s="3">
+        <v>16</v>
+      </c>
+      <c r="F889" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A890" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B890" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C890" s="2">
+        <v>2</v>
+      </c>
+      <c r="D890" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E890" s="3">
+        <v>2</v>
+      </c>
+      <c r="F890" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A891" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B891" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C891" s="2">
+        <v>1</v>
+      </c>
+      <c r="D891" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E891" s="3">
+        <v>2</v>
+      </c>
+      <c r="F891" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A892" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B892" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C892" s="2">
+        <v>5</v>
+      </c>
+      <c r="D892" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E892" s="3">
+        <v>249</v>
+      </c>
+      <c r="F892" s="9">
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A893" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B893" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C893" s="2">
+        <v>4</v>
+      </c>
+      <c r="D893" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E893" s="3">
+        <v>29</v>
+      </c>
+      <c r="F893" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A894" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B894" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C894" s="2">
+        <v>3</v>
+      </c>
+      <c r="D894" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E894" s="3">
+        <v>8</v>
+      </c>
+      <c r="F894" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A895" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B895" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C895" s="2">
+        <v>2</v>
+      </c>
+      <c r="D895" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E895" s="3">
+        <v>1</v>
+      </c>
+      <c r="F895" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A896" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B896" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C896" s="2">
+        <v>1</v>
+      </c>
+      <c r="D896" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E896" s="3">
+        <v>2</v>
+      </c>
+      <c r="F896" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A897" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B897" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C897" s="2">
+        <v>5</v>
+      </c>
+      <c r="D897" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E897" s="3">
+        <v>320</v>
+      </c>
+      <c r="F897" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A898" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B898" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C898" s="2">
+        <v>4</v>
+      </c>
+      <c r="D898" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E898" s="3">
+        <v>34</v>
+      </c>
+      <c r="F898" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A899" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B899" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C899" s="2">
+        <v>3</v>
+      </c>
+      <c r="D899" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E899" s="3">
+        <v>7</v>
+      </c>
+      <c r="F899" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A900" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B900" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C900" s="2">
+        <v>2</v>
+      </c>
+      <c r="D900" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E900" s="3">
+        <v>0</v>
+      </c>
+      <c r="F900" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A901" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B901" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C901" s="2">
+        <v>1</v>
+      </c>
+      <c r="D901" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E901" s="3">
+        <v>0</v>
+      </c>
+      <c r="F901" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD10EC06-DE6C-406C-A76A-4B3E7903DBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE091EE-D770-4D73-942E-3CE381FD45FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="71">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,9 @@
   </si>
   <si>
     <t>6w</t>
+  </si>
+  <si>
+    <t>7w</t>
   </si>
 </sst>
 </file>
@@ -810,7 +813,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -1738,6 +1741,26 @@
         <v>361</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>1162</v>
+      </c>
+      <c r="D47">
+        <v>791</v>
+      </c>
+      <c r="E47">
+        <v>219</v>
+      </c>
+      <c r="F47">
+        <v>365</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,7 +1769,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
@@ -2674,6 +2697,26 @@
         <v>4.87</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47">
+        <v>4.92</v>
+      </c>
+      <c r="D47">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E47">
+        <v>4.92</v>
+      </c>
+      <c r="F47">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2682,7 +2725,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L901"/>
+  <dimension ref="A1:L921"/>
   <sheetViews>
     <sheetView topLeftCell="A762" workbookViewId="0">
       <selection activeCell="A781" sqref="A781"/>
@@ -20758,6 +20801,406 @@
         <v>0</v>
       </c>
     </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A902" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B902" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C902" s="2">
+        <v>5</v>
+      </c>
+      <c r="D902" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E902" s="3">
+        <v>1081</v>
+      </c>
+      <c r="F902" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A903" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B903" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C903" s="2">
+        <v>4</v>
+      </c>
+      <c r="D903" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E903" s="3">
+        <v>69</v>
+      </c>
+      <c r="F903" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A904" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B904" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C904" s="2">
+        <v>3</v>
+      </c>
+      <c r="D904" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E904" s="3">
+        <v>10</v>
+      </c>
+      <c r="F904" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A905" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B905" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C905" s="2">
+        <v>2</v>
+      </c>
+      <c r="D905" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E905" s="3">
+        <v>1</v>
+      </c>
+      <c r="F905" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A906" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B906" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C906" s="2">
+        <v>1</v>
+      </c>
+      <c r="D906" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E906" s="3">
+        <v>1</v>
+      </c>
+      <c r="F906" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A907" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B907" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C907" s="2">
+        <v>5</v>
+      </c>
+      <c r="D907" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E907" s="3">
+        <v>721</v>
+      </c>
+      <c r="F907" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A908" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B908" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C908" s="2">
+        <v>4</v>
+      </c>
+      <c r="D908" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E908" s="3">
+        <v>57</v>
+      </c>
+      <c r="F908" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A909" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B909" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C909" s="2">
+        <v>3</v>
+      </c>
+      <c r="D909" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E909" s="3">
+        <v>10</v>
+      </c>
+      <c r="F909" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A910" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B910" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C910" s="2">
+        <v>2</v>
+      </c>
+      <c r="D910" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E910" s="3">
+        <v>2</v>
+      </c>
+      <c r="F910" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A911" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B911" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C911" s="2">
+        <v>1</v>
+      </c>
+      <c r="D911" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E911" s="3">
+        <v>1</v>
+      </c>
+      <c r="F911" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A912" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B912" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C912" s="2">
+        <v>5</v>
+      </c>
+      <c r="D912" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E912" s="3">
+        <v>205</v>
+      </c>
+      <c r="F912" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A913" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B913" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C913" s="2">
+        <v>4</v>
+      </c>
+      <c r="D913" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E913" s="3">
+        <v>13</v>
+      </c>
+      <c r="F913" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A914" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B914" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C914" s="2">
+        <v>3</v>
+      </c>
+      <c r="D914" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E914" s="3">
+        <v>0</v>
+      </c>
+      <c r="F914" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A915" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B915" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C915" s="2">
+        <v>2</v>
+      </c>
+      <c r="D915" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E915" s="3">
+        <v>0</v>
+      </c>
+      <c r="F915" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A916" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B916" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C916" s="2">
+        <v>1</v>
+      </c>
+      <c r="D916" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E916" s="3">
+        <v>1</v>
+      </c>
+      <c r="F916" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A917" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B917" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C917" s="2">
+        <v>5</v>
+      </c>
+      <c r="D917" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E917" s="3">
+        <v>302</v>
+      </c>
+      <c r="F917" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A918" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B918" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C918" s="2">
+        <v>4</v>
+      </c>
+      <c r="D918" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E918" s="3">
+        <v>53</v>
+      </c>
+      <c r="F918" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A919" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B919" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C919" s="2">
+        <v>3</v>
+      </c>
+      <c r="D919" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E919" s="3">
+        <v>9</v>
+      </c>
+      <c r="F919" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A920" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B920" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C920" s="2">
+        <v>2</v>
+      </c>
+      <c r="D920" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E920" s="3">
+        <v>1</v>
+      </c>
+      <c r="F920" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A921" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B921" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C921" s="2">
+        <v>1</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E921" s="3">
+        <v>0</v>
+      </c>
+      <c r="F921" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE091EE-D770-4D73-942E-3CE381FD45FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B3A46-367A-4428-8BA0-DBE454353D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="별점세부" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">별점세부!$B$1:$F$801</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">별점세부!$B$1:$F$956</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1950" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="73">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,14 +277,23 @@
   <si>
     <t>7w</t>
   </si>
+  <si>
+    <t>스피드랙MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스피드랙MAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0%"/>
+    <numFmt numFmtId="178" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -427,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -474,6 +483,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -813,15 +825,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -840,8 +855,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -860,8 +878,11 @@
       <c r="F2">
         <v>278</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2024</v>
       </c>
@@ -880,8 +901,11 @@
       <c r="F3">
         <v>233</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2024</v>
       </c>
@@ -900,8 +924,11 @@
       <c r="F4">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2024</v>
       </c>
@@ -920,8 +947,11 @@
       <c r="F5">
         <v>347</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -940,8 +970,11 @@
       <c r="F6">
         <v>246</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2024</v>
       </c>
@@ -960,8 +993,11 @@
       <c r="F7">
         <v>296</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2024</v>
       </c>
@@ -980,8 +1016,11 @@
       <c r="F8">
         <v>336</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2024</v>
       </c>
@@ -1000,8 +1039,11 @@
       <c r="F9">
         <v>335</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2024</v>
       </c>
@@ -1020,8 +1062,11 @@
       <c r="F10">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2024</v>
       </c>
@@ -1040,8 +1085,11 @@
       <c r="F11">
         <v>272</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2024</v>
       </c>
@@ -1060,8 +1108,11 @@
       <c r="F12">
         <v>308</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2024</v>
       </c>
@@ -1080,8 +1131,11 @@
       <c r="F13">
         <v>355</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2024</v>
       </c>
@@ -1100,8 +1154,11 @@
       <c r="F14">
         <v>281</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2024</v>
       </c>
@@ -1120,8 +1177,11 @@
       <c r="F15">
         <v>242</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
@@ -1140,8 +1200,11 @@
       <c r="F16">
         <v>241</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2024</v>
       </c>
@@ -1160,8 +1223,11 @@
       <c r="F17">
         <v>246</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
@@ -1180,8 +1246,11 @@
       <c r="F18">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2024</v>
       </c>
@@ -1200,8 +1269,11 @@
       <c r="F19">
         <v>224</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -1220,8 +1292,11 @@
       <c r="F20">
         <v>201</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -1240,8 +1315,11 @@
       <c r="F21">
         <v>225</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -1260,8 +1338,11 @@
       <c r="F22">
         <v>289</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -1280,8 +1361,11 @@
       <c r="F23">
         <v>320</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -1300,8 +1384,11 @@
       <c r="F24">
         <v>279</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -1320,8 +1407,11 @@
       <c r="F25">
         <v>247</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -1340,8 +1430,11 @@
       <c r="F26">
         <v>208</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -1360,8 +1453,11 @@
       <c r="F27">
         <v>300</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -1380,8 +1476,11 @@
       <c r="F28">
         <v>233</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -1400,8 +1499,11 @@
       <c r="F29">
         <v>277</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -1420,8 +1522,11 @@
       <c r="F30">
         <v>323</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -1440,8 +1545,11 @@
       <c r="F31">
         <v>309</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -1460,8 +1568,11 @@
       <c r="F32">
         <v>278</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -1480,8 +1591,11 @@
       <c r="F33">
         <v>273</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -1500,8 +1614,11 @@
       <c r="F34">
         <v>325</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -1520,8 +1637,11 @@
       <c r="F35">
         <v>359</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -1540,8 +1660,11 @@
       <c r="F36">
         <v>327</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -1560,8 +1683,11 @@
       <c r="F37">
         <v>313</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -1580,8 +1706,11 @@
       <c r="F38">
         <v>352</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -1600,8 +1729,11 @@
       <c r="F39">
         <v>296</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -1620,8 +1752,11 @@
       <c r="F40">
         <v>304</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -1640,8 +1775,11 @@
       <c r="F41">
         <v>328</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -1660,8 +1798,11 @@
       <c r="F42">
         <v>349</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2025</v>
       </c>
@@ -1680,8 +1821,11 @@
       <c r="F43">
         <v>318</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2025</v>
       </c>
@@ -1700,8 +1844,11 @@
       <c r="F44">
         <v>291</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2025</v>
       </c>
@@ -1720,8 +1867,11 @@
       <c r="F45">
         <v>196</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2025</v>
       </c>
@@ -1740,8 +1890,11 @@
       <c r="F46">
         <v>361</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2025</v>
       </c>
@@ -1759,6 +1912,9 @@
       </c>
       <c r="F47">
         <v>365</v>
+      </c>
+      <c r="G47">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1769,15 +1925,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1796,8 +1952,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2024</v>
       </c>
@@ -1816,8 +1975,11 @@
       <c r="F2" s="1">
         <v>4.9060000000000006</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2024</v>
       </c>
@@ -1836,8 +1998,11 @@
       <c r="F3" s="1">
         <v>4.9060000000000006</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2024</v>
       </c>
@@ -1856,8 +2021,11 @@
       <c r="F4" s="1">
         <v>4.8609999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2024</v>
       </c>
@@ -1876,8 +2044,11 @@
       <c r="F5">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2024</v>
       </c>
@@ -1896,8 +2067,11 @@
       <c r="F6">
         <v>4.91</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>2024</v>
       </c>
@@ -1916,8 +2090,11 @@
       <c r="F7">
         <v>4.92</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2024</v>
       </c>
@@ -1936,8 +2113,11 @@
       <c r="F8">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2024</v>
       </c>
@@ -1956,8 +2136,11 @@
       <c r="F9">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2024</v>
       </c>
@@ -1976,8 +2159,11 @@
       <c r="F10">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2024</v>
       </c>
@@ -1996,8 +2182,11 @@
       <c r="F11">
         <v>4.92</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>2024</v>
       </c>
@@ -2016,8 +2205,11 @@
       <c r="F12">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2024</v>
       </c>
@@ -2036,8 +2228,11 @@
       <c r="F13">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2024</v>
       </c>
@@ -2056,8 +2251,11 @@
       <c r="F14">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2024</v>
       </c>
@@ -2076,8 +2274,11 @@
       <c r="F15">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>2024</v>
       </c>
@@ -2096,8 +2297,11 @@
       <c r="F16">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2024</v>
       </c>
@@ -2116,8 +2320,11 @@
       <c r="F17">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
@@ -2136,8 +2343,11 @@
       <c r="F18">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2024</v>
       </c>
@@ -2156,8 +2366,11 @@
       <c r="F19">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -2176,8 +2389,11 @@
       <c r="F20">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -2196,8 +2412,11 @@
       <c r="F21">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -2216,8 +2435,11 @@
       <c r="F22">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -2236,8 +2458,11 @@
       <c r="F23">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -2256,8 +2481,11 @@
       <c r="F24">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -2276,8 +2504,11 @@
       <c r="F25">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -2296,8 +2527,11 @@
       <c r="F26">
         <v>4.82</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -2316,8 +2550,11 @@
       <c r="F27">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -2336,8 +2573,11 @@
       <c r="F28">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -2356,8 +2596,11 @@
       <c r="F29">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -2376,8 +2619,11 @@
       <c r="F30">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -2396,8 +2642,11 @@
       <c r="F31">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -2416,8 +2665,11 @@
       <c r="F32">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -2436,8 +2688,11 @@
       <c r="F33">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -2456,8 +2711,11 @@
       <c r="F34">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -2476,8 +2734,11 @@
       <c r="F35">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -2496,8 +2757,11 @@
       <c r="F36">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -2516,8 +2780,11 @@
       <c r="F37">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -2536,8 +2803,11 @@
       <c r="F38">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -2556,8 +2826,11 @@
       <c r="F39">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -2576,8 +2849,11 @@
       <c r="F40">
         <v>4.8600000000000003</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -2596,8 +2872,11 @@
       <c r="F41">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2025</v>
       </c>
@@ -2616,8 +2895,11 @@
       <c r="F42">
         <v>4.88</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2025</v>
       </c>
@@ -2636,8 +2918,11 @@
       <c r="F43">
         <v>4.8499999999999996</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2025</v>
       </c>
@@ -2656,8 +2941,11 @@
       <c r="F44">
         <v>4.92</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2025</v>
       </c>
@@ -2676,8 +2964,12 @@
       <c r="F45">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2025</v>
       </c>
@@ -2696,8 +2988,11 @@
       <c r="F46">
         <v>4.87</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>4.7647058823529411</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2025</v>
       </c>
@@ -2715,6 +3010,9 @@
       </c>
       <c r="F47">
         <v>4.8</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4.8461538461538458</v>
       </c>
     </row>
   </sheetData>
@@ -2725,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L921"/>
+  <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView topLeftCell="A762" workbookViewId="0">
-      <selection activeCell="A781" sqref="A781"/>
+    <sheetView topLeftCell="A952" workbookViewId="0">
+      <selection activeCell="E965" sqref="E965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -18806,19 +19104,19 @@
         <v>2025</v>
       </c>
       <c r="B802" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C802" s="2">
         <v>5</v>
       </c>
       <c r="D802" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E802" s="3">
-        <v>1129</v>
+        <v>1</v>
       </c>
       <c r="F802" s="9">
-        <v>0.93200000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:6" x14ac:dyDescent="0.25">
@@ -18826,19 +19124,19 @@
         <v>2025</v>
       </c>
       <c r="B803" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C803" s="2">
         <v>4</v>
       </c>
       <c r="D803" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E803" s="3">
-        <v>69</v>
+        <v>0</v>
       </c>
       <c r="F803" s="9">
-        <v>5.7000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:6" x14ac:dyDescent="0.25">
@@ -18846,19 +19144,19 @@
         <v>2025</v>
       </c>
       <c r="B804" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C804" s="2">
         <v>3</v>
       </c>
       <c r="D804" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E804" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F804" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:6" x14ac:dyDescent="0.25">
@@ -18866,19 +19164,19 @@
         <v>2025</v>
       </c>
       <c r="B805" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C805" s="2">
         <v>2</v>
       </c>
       <c r="D805" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E805" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F805" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:6" x14ac:dyDescent="0.25">
@@ -18886,19 +19184,19 @@
         <v>2025</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C806" s="2">
         <v>1</v>
       </c>
       <c r="D806" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E806" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F806" s="9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:6" x14ac:dyDescent="0.25">
@@ -18912,13 +19210,13 @@
         <v>5</v>
       </c>
       <c r="D807" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E807" s="3">
-        <v>798</v>
+        <v>1129</v>
       </c>
       <c r="F807" s="9">
-        <v>0.92700000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
     </row>
     <row r="808" spans="1:6" x14ac:dyDescent="0.25">
@@ -18932,13 +19230,13 @@
         <v>4</v>
       </c>
       <c r="D808" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E808" s="3">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F808" s="9">
-        <v>5.8000000000000003E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="809" spans="1:6" x14ac:dyDescent="0.25">
@@ -18952,13 +19250,13 @@
         <v>3</v>
       </c>
       <c r="D809" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E809" s="3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F809" s="9">
-        <v>0.01</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="810" spans="1:6" x14ac:dyDescent="0.25">
@@ -18972,7 +19270,7 @@
         <v>2</v>
       </c>
       <c r="D810" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E810" s="3">
         <v>1</v>
@@ -18992,13 +19290,13 @@
         <v>1</v>
       </c>
       <c r="D811" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E811" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F811" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="812" spans="1:6" x14ac:dyDescent="0.25">
@@ -19012,13 +19310,13 @@
         <v>5</v>
       </c>
       <c r="D812" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E812" s="3">
-        <v>253</v>
+        <v>798</v>
       </c>
       <c r="F812" s="9">
-        <v>0.878</v>
+        <v>0.92700000000000005</v>
       </c>
     </row>
     <row r="813" spans="1:6" x14ac:dyDescent="0.25">
@@ -19032,13 +19330,13 @@
         <v>4</v>
       </c>
       <c r="D813" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E813" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F813" s="9">
-        <v>0.104</v>
+        <v>5.8000000000000003E-2</v>
       </c>
     </row>
     <row r="814" spans="1:6" x14ac:dyDescent="0.25">
@@ -19052,13 +19350,13 @@
         <v>3</v>
       </c>
       <c r="D814" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E814" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F814" s="9">
-        <v>1.4E-2</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="815" spans="1:6" x14ac:dyDescent="0.25">
@@ -19072,13 +19370,13 @@
         <v>2</v>
       </c>
       <c r="D815" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E815" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F815" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="816" spans="1:6" x14ac:dyDescent="0.25">
@@ -19092,10 +19390,10 @@
         <v>1</v>
       </c>
       <c r="D816" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E816" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F816" s="9">
         <v>3.0000000000000001E-3</v>
@@ -19112,13 +19410,13 @@
         <v>5</v>
       </c>
       <c r="D817" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E817" s="3">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="F817" s="9">
-        <v>0.90800000000000003</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="818" spans="1:6" x14ac:dyDescent="0.25">
@@ -19132,13 +19430,13 @@
         <v>4</v>
       </c>
       <c r="D818" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E818" s="3">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F818" s="9">
-        <v>6.9000000000000006E-2</v>
+        <v>0.104</v>
       </c>
     </row>
     <row r="819" spans="1:6" x14ac:dyDescent="0.25">
@@ -19152,13 +19450,13 @@
         <v>3</v>
       </c>
       <c r="D819" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E819" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F819" s="9">
-        <v>0.02</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="820" spans="1:6" x14ac:dyDescent="0.25">
@@ -19172,7 +19470,7 @@
         <v>2</v>
       </c>
       <c r="D820" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E820" s="3">
         <v>0</v>
@@ -19192,7 +19490,7 @@
         <v>1</v>
       </c>
       <c r="D821" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E821" s="3">
         <v>1</v>
@@ -19206,19 +19504,19 @@
         <v>2025</v>
       </c>
       <c r="B822" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C822" s="2">
         <v>5</v>
       </c>
       <c r="D822" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E822" s="3">
-        <v>995</v>
+        <v>317</v>
       </c>
       <c r="F822" s="9">
-        <v>0.92500000000000004</v>
+        <v>0.90800000000000003</v>
       </c>
     </row>
     <row r="823" spans="1:6" x14ac:dyDescent="0.25">
@@ -19226,19 +19524,19 @@
         <v>2025</v>
       </c>
       <c r="B823" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C823" s="2">
         <v>4</v>
       </c>
       <c r="D823" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E823" s="3">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="F823" s="9">
-        <v>5.8999999999999997E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="824" spans="1:6" x14ac:dyDescent="0.25">
@@ -19246,19 +19544,19 @@
         <v>2025</v>
       </c>
       <c r="B824" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C824" s="2">
         <v>3</v>
       </c>
       <c r="D824" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E824" s="3">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="F824" s="9">
-        <v>1.4E-2</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="825" spans="1:6" x14ac:dyDescent="0.25">
@@ -19266,19 +19564,19 @@
         <v>2025</v>
       </c>
       <c r="B825" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C825" s="2">
         <v>2</v>
       </c>
       <c r="D825" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E825" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F825" s="9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:6" x14ac:dyDescent="0.25">
@@ -19286,19 +19584,19 @@
         <v>2025</v>
       </c>
       <c r="B826" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C826" s="2">
         <v>1</v>
       </c>
       <c r="D826" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E826" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F826" s="9">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="827" spans="1:6" x14ac:dyDescent="0.25">
@@ -19306,19 +19604,19 @@
         <v>2025</v>
       </c>
       <c r="B827" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C827" s="2">
         <v>5</v>
       </c>
       <c r="D827" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E827" s="3">
-        <v>756</v>
+        <v>5</v>
       </c>
       <c r="F827" s="9">
-        <v>0.92200000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:6" x14ac:dyDescent="0.25">
@@ -19326,19 +19624,19 @@
         <v>2025</v>
       </c>
       <c r="B828" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C828" s="2">
         <v>4</v>
       </c>
       <c r="D828" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E828" s="3">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="F828" s="9">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:6" x14ac:dyDescent="0.25">
@@ -19346,19 +19644,19 @@
         <v>2025</v>
       </c>
       <c r="B829" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C829" s="2">
         <v>3</v>
       </c>
       <c r="D829" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E829" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F829" s="9">
-        <v>1.2E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:6" x14ac:dyDescent="0.25">
@@ -19366,13 +19664,13 @@
         <v>2025</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C830" s="2">
         <v>2</v>
       </c>
       <c r="D830" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E830" s="3">
         <v>0</v>
@@ -19386,19 +19684,19 @@
         <v>2025</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C831" s="2">
         <v>1</v>
       </c>
       <c r="D831" s="2" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="E831" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F831" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:6" x14ac:dyDescent="0.25">
@@ -19412,13 +19710,13 @@
         <v>5</v>
       </c>
       <c r="D832" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E832" s="3">
-        <v>203</v>
+        <v>995</v>
       </c>
       <c r="F832" s="9">
-        <v>0.91</v>
+        <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="833" spans="1:6" x14ac:dyDescent="0.25">
@@ -19432,13 +19730,13 @@
         <v>4</v>
       </c>
       <c r="D833" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E833" s="3">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F833" s="9">
-        <v>4.9000000000000002E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="834" spans="1:6" x14ac:dyDescent="0.25">
@@ -19452,13 +19750,13 @@
         <v>3</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E834" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F834" s="9">
-        <v>3.1E-2</v>
+        <v>1.4E-2</v>
       </c>
     </row>
     <row r="835" spans="1:6" x14ac:dyDescent="0.25">
@@ -19472,13 +19770,13 @@
         <v>2</v>
       </c>
       <c r="D835" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E835" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F835" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="836" spans="1:6" x14ac:dyDescent="0.25">
@@ -19492,13 +19790,13 @@
         <v>1</v>
       </c>
       <c r="D836" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E836" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F836" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:6" x14ac:dyDescent="0.25">
@@ -19512,13 +19810,13 @@
         <v>5</v>
       </c>
       <c r="D837" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E837" s="3">
-        <v>276</v>
+        <v>756</v>
       </c>
       <c r="F837" s="9">
-        <v>0.86799999999999999</v>
+        <v>0.92200000000000004</v>
       </c>
     </row>
     <row r="838" spans="1:6" x14ac:dyDescent="0.25">
@@ -19532,13 +19830,13 @@
         <v>4</v>
       </c>
       <c r="D838" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E838" s="3">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="F838" s="9">
-        <v>0.113</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="839" spans="1:6" x14ac:dyDescent="0.25">
@@ -19552,13 +19850,13 @@
         <v>3</v>
       </c>
       <c r="D839" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E839" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F839" s="9">
-        <v>1.6E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="840" spans="1:6" x14ac:dyDescent="0.25">
@@ -19572,13 +19870,13 @@
         <v>2</v>
       </c>
       <c r="D840" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E840" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F840" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:6" x14ac:dyDescent="0.25">
@@ -19592,13 +19890,13 @@
         <v>1</v>
       </c>
       <c r="D841" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E841" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F841" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="842" spans="1:6" x14ac:dyDescent="0.25">
@@ -19606,19 +19904,19 @@
         <v>2025</v>
       </c>
       <c r="B842" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C842" s="2">
         <v>5</v>
       </c>
       <c r="D842" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E842" s="3">
-        <v>983</v>
+        <v>203</v>
       </c>
       <c r="F842" s="9">
-        <v>0.91500000000000004</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="843" spans="1:6" x14ac:dyDescent="0.25">
@@ -19626,19 +19924,19 @@
         <v>2025</v>
       </c>
       <c r="B843" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C843" s="2">
         <v>4</v>
       </c>
       <c r="D843" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E843" s="3">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="F843" s="9">
-        <v>6.9000000000000006E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="844" spans="1:6" x14ac:dyDescent="0.25">
@@ -19646,19 +19944,19 @@
         <v>2025</v>
       </c>
       <c r="B844" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C844" s="2">
         <v>3</v>
       </c>
       <c r="D844" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E844" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F844" s="9">
-        <v>1.6E-2</v>
+        <v>3.1E-2</v>
       </c>
     </row>
     <row r="845" spans="1:6" x14ac:dyDescent="0.25">
@@ -19666,19 +19964,19 @@
         <v>2025</v>
       </c>
       <c r="B845" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C845" s="2">
         <v>2</v>
       </c>
       <c r="D845" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E845" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F845" s="9">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="846" spans="1:6" x14ac:dyDescent="0.25">
@@ -19686,19 +19984,19 @@
         <v>2025</v>
       </c>
       <c r="B846" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C846" s="2">
         <v>1</v>
       </c>
       <c r="D846" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E846" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F846" s="9">
-        <v>0</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="847" spans="1:6" x14ac:dyDescent="0.25">
@@ -19706,19 +20004,19 @@
         <v>2025</v>
       </c>
       <c r="B847" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C847" s="2">
         <v>5</v>
       </c>
       <c r="D847" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E847" s="3">
-        <v>717</v>
+        <v>276</v>
       </c>
       <c r="F847" s="9">
-        <v>0.91200000000000003</v>
+        <v>0.86799999999999999</v>
       </c>
     </row>
     <row r="848" spans="1:6" x14ac:dyDescent="0.25">
@@ -19726,19 +20024,19 @@
         <v>2025</v>
       </c>
       <c r="B848" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C848" s="2">
         <v>4</v>
       </c>
       <c r="D848" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E848" s="3">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F848" s="9">
-        <v>6.5000000000000002E-2</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="849" spans="1:6" x14ac:dyDescent="0.25">
@@ -19746,19 +20044,19 @@
         <v>2025</v>
       </c>
       <c r="B849" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C849" s="2">
         <v>3</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E849" s="3">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F849" s="9">
-        <v>1.7000000000000001E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="850" spans="1:6" x14ac:dyDescent="0.25">
@@ -19766,19 +20064,19 @@
         <v>2025</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C850" s="2">
         <v>2</v>
       </c>
       <c r="D850" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E850" s="3">
         <v>1</v>
       </c>
       <c r="F850" s="9">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="851" spans="1:6" x14ac:dyDescent="0.25">
@@ -19786,19 +20084,19 @@
         <v>2025</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C851" s="2">
         <v>1</v>
       </c>
       <c r="D851" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E851" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F851" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:6" x14ac:dyDescent="0.25">
@@ -19806,19 +20104,19 @@
         <v>2025</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C852" s="2">
         <v>5</v>
       </c>
       <c r="D852" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E852" s="3">
-        <v>206</v>
+        <v>2</v>
       </c>
       <c r="F852" s="9">
-        <v>0.90400000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:6" x14ac:dyDescent="0.25">
@@ -19826,19 +20124,19 @@
         <v>2025</v>
       </c>
       <c r="B853" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C853" s="2">
         <v>4</v>
       </c>
       <c r="D853" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E853" s="3">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="F853" s="9">
-        <v>7.9000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:6" x14ac:dyDescent="0.25">
@@ -19846,19 +20144,19 @@
         <v>2025</v>
       </c>
       <c r="B854" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C854" s="2">
         <v>3</v>
       </c>
       <c r="D854" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E854" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F854" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:6" x14ac:dyDescent="0.25">
@@ -19866,13 +20164,13 @@
         <v>2025</v>
       </c>
       <c r="B855" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C855" s="2">
         <v>2</v>
       </c>
       <c r="D855" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E855" s="3">
         <v>0</v>
@@ -19886,19 +20184,19 @@
         <v>2025</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C856" s="2">
         <v>1</v>
       </c>
       <c r="D856" s="2" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="E856" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F856" s="9">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:6" x14ac:dyDescent="0.25">
@@ -19912,13 +20210,13 @@
         <v>5</v>
       </c>
       <c r="D857" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E857" s="3">
-        <v>270</v>
+        <v>983</v>
       </c>
       <c r="F857" s="9">
-        <v>0.92800000000000005</v>
+        <v>0.91500000000000004</v>
       </c>
     </row>
     <row r="858" spans="1:6" x14ac:dyDescent="0.25">
@@ -19932,13 +20230,13 @@
         <v>4</v>
       </c>
       <c r="D858" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E858" s="3">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="F858" s="9">
-        <v>6.5000000000000002E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
     </row>
     <row r="859" spans="1:6" x14ac:dyDescent="0.25">
@@ -19952,13 +20250,13 @@
         <v>3</v>
       </c>
       <c r="D859" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E859" s="3">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F859" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="860" spans="1:6" x14ac:dyDescent="0.25">
@@ -19972,13 +20270,13 @@
         <v>2</v>
       </c>
       <c r="D860" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E860" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F860" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:6" x14ac:dyDescent="0.25">
@@ -19992,7 +20290,7 @@
         <v>1</v>
       </c>
       <c r="D861" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E861" s="3">
         <v>0</v>
@@ -20006,19 +20304,19 @@
         <v>2025</v>
       </c>
       <c r="B862" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C862" s="2">
         <v>5</v>
       </c>
       <c r="D862" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E862" s="3">
-        <v>672</v>
+        <v>717</v>
       </c>
       <c r="F862" s="9">
-        <v>0.93700000000000006</v>
+        <v>0.91200000000000003</v>
       </c>
     </row>
     <row r="863" spans="1:6" x14ac:dyDescent="0.25">
@@ -20026,19 +20324,19 @@
         <v>2025</v>
       </c>
       <c r="B863" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C863" s="2">
         <v>4</v>
       </c>
       <c r="D863" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E863" s="3">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F863" s="9">
-        <v>5.3999999999999999E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="864" spans="1:6" x14ac:dyDescent="0.25">
@@ -20046,19 +20344,19 @@
         <v>2025</v>
       </c>
       <c r="B864" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C864" s="2">
         <v>3</v>
       </c>
       <c r="D864" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E864" s="3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F864" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
     </row>
     <row r="865" spans="1:6" x14ac:dyDescent="0.25">
@@ -20066,13 +20364,13 @@
         <v>2025</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C865" s="2">
         <v>2</v>
       </c>
       <c r="D865" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E865" s="3">
         <v>1</v>
@@ -20086,19 +20384,19 @@
         <v>2025</v>
       </c>
       <c r="B866" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C866" s="2">
         <v>1</v>
       </c>
       <c r="D866" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E866" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F866" s="9">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="867" spans="1:6" x14ac:dyDescent="0.25">
@@ -20106,19 +20404,19 @@
         <v>2025</v>
       </c>
       <c r="B867" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C867" s="2">
         <v>5</v>
       </c>
       <c r="D867" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E867" s="3">
-        <v>464</v>
+        <v>206</v>
       </c>
       <c r="F867" s="9">
-        <v>0.89900000000000002</v>
+        <v>0.90400000000000003</v>
       </c>
     </row>
     <row r="868" spans="1:6" x14ac:dyDescent="0.25">
@@ -20126,19 +20424,19 @@
         <v>2025</v>
       </c>
       <c r="B868" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C868" s="2">
         <v>4</v>
       </c>
       <c r="D868" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E868" s="3">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F868" s="9">
-        <v>8.1000000000000003E-2</v>
+        <v>7.9000000000000001E-2</v>
       </c>
     </row>
     <row r="869" spans="1:6" x14ac:dyDescent="0.25">
@@ -20146,19 +20444,19 @@
         <v>2025</v>
       </c>
       <c r="B869" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C869" s="2">
         <v>3</v>
       </c>
       <c r="D869" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E869" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F869" s="9">
-        <v>1.6E-2</v>
+        <v>1.2999999999999999E-2</v>
       </c>
     </row>
     <row r="870" spans="1:6" x14ac:dyDescent="0.25">
@@ -20166,19 +20464,19 @@
         <v>2025</v>
       </c>
       <c r="B870" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C870" s="2">
         <v>2</v>
       </c>
       <c r="D870" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E870" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F870" s="9">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:6" x14ac:dyDescent="0.25">
@@ -20186,19 +20484,19 @@
         <v>2025</v>
       </c>
       <c r="B871" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C871" s="2">
         <v>1</v>
       </c>
       <c r="D871" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E871" s="3">
         <v>1</v>
       </c>
       <c r="F871" s="9">
-        <v>2E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="872" spans="1:6" x14ac:dyDescent="0.25">
@@ -20206,19 +20504,19 @@
         <v>2025</v>
       </c>
       <c r="B872" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C872" s="2">
         <v>5</v>
       </c>
       <c r="D872" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E872" s="3">
-        <v>143</v>
+        <v>270</v>
       </c>
       <c r="F872" s="9">
-        <v>0.90500000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="873" spans="1:6" x14ac:dyDescent="0.25">
@@ -20226,19 +20524,19 @@
         <v>2025</v>
       </c>
       <c r="B873" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C873" s="2">
         <v>4</v>
       </c>
       <c r="D873" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E873" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F873" s="9">
-        <v>9.5000000000000001E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="874" spans="1:6" x14ac:dyDescent="0.25">
@@ -20246,19 +20544,19 @@
         <v>2025</v>
       </c>
       <c r="B874" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C874" s="2">
         <v>3</v>
       </c>
       <c r="D874" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E874" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F874" s="9">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="875" spans="1:6" x14ac:dyDescent="0.25">
@@ -20266,19 +20564,19 @@
         <v>2025</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C875" s="2">
         <v>2</v>
       </c>
       <c r="D875" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E875" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F875" s="9">
-        <v>0</v>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="876" spans="1:6" x14ac:dyDescent="0.25">
@@ -20286,13 +20584,13 @@
         <v>2025</v>
       </c>
       <c r="B876" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C876" s="2">
         <v>1</v>
       </c>
       <c r="D876" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E876" s="3">
         <v>0</v>
@@ -20306,19 +20604,19 @@
         <v>2025</v>
       </c>
       <c r="B877" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C877" s="2">
         <v>5</v>
       </c>
       <c r="D877" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E877" s="3">
-        <v>182</v>
+        <v>17</v>
       </c>
       <c r="F877" s="9">
-        <v>0.92900000000000005</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:6" x14ac:dyDescent="0.25">
@@ -20326,19 +20624,19 @@
         <v>2025</v>
       </c>
       <c r="B878" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C878" s="2">
         <v>4</v>
       </c>
       <c r="D878" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E878" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F878" s="9">
-        <v>4.1000000000000002E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:6" x14ac:dyDescent="0.25">
@@ -20346,19 +20644,19 @@
         <v>2025</v>
       </c>
       <c r="B879" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C879" s="2">
         <v>3</v>
       </c>
       <c r="D879" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E879" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F879" s="9">
-        <v>2.5999999999999999E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:6" x14ac:dyDescent="0.25">
@@ -20366,13 +20664,13 @@
         <v>2025</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C880" s="2">
         <v>2</v>
       </c>
       <c r="D880" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E880" s="3">
         <v>0</v>
@@ -20386,19 +20684,19 @@
         <v>2025</v>
       </c>
       <c r="B881" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C881" s="2">
         <v>1</v>
       </c>
       <c r="D881" s="2" t="s">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E881" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F881" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:6" x14ac:dyDescent="0.25">
@@ -20406,7 +20704,7 @@
         <v>2025</v>
       </c>
       <c r="B882" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C882" s="2">
         <v>5</v>
@@ -20415,10 +20713,10 @@
         <v>20</v>
       </c>
       <c r="E882" s="3">
-        <v>1029</v>
+        <v>672</v>
       </c>
       <c r="F882" s="9">
-        <v>0.92800000000000005</v>
+        <v>0.93700000000000006</v>
       </c>
     </row>
     <row r="883" spans="1:6" x14ac:dyDescent="0.25">
@@ -20426,7 +20724,7 @@
         <v>2025</v>
       </c>
       <c r="B883" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C883" s="2">
         <v>4</v>
@@ -20435,10 +20733,10 @@
         <v>20</v>
       </c>
       <c r="E883" s="3">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="F883" s="9">
-        <v>5.8999999999999997E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
     </row>
     <row r="884" spans="1:6" x14ac:dyDescent="0.25">
@@ -20446,7 +20744,7 @@
         <v>2025</v>
       </c>
       <c r="B884" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C884" s="2">
         <v>3</v>
@@ -20455,10 +20753,10 @@
         <v>20</v>
       </c>
       <c r="E884" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F884" s="9">
-        <v>1.2999999999999999E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="885" spans="1:6" x14ac:dyDescent="0.25">
@@ -20466,7 +20764,7 @@
         <v>2025</v>
       </c>
       <c r="B885" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C885" s="2">
         <v>2</v>
@@ -20475,10 +20773,10 @@
         <v>20</v>
       </c>
       <c r="E885" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F885" s="9">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="886" spans="1:6" x14ac:dyDescent="0.25">
@@ -20486,7 +20784,7 @@
         <v>2025</v>
       </c>
       <c r="B886" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C886" s="2">
         <v>1</v>
@@ -20495,10 +20793,10 @@
         <v>20</v>
       </c>
       <c r="E886" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F886" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:6" x14ac:dyDescent="0.25">
@@ -20506,7 +20804,7 @@
         <v>2025</v>
       </c>
       <c r="B887" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C887" s="2">
         <v>5</v>
@@ -20515,10 +20813,10 @@
         <v>19</v>
       </c>
       <c r="E887" s="3">
-        <v>772</v>
+        <v>464</v>
       </c>
       <c r="F887" s="9">
-        <v>0.9</v>
+        <v>0.89900000000000002</v>
       </c>
     </row>
     <row r="888" spans="1:6" x14ac:dyDescent="0.25">
@@ -20526,7 +20824,7 @@
         <v>2025</v>
       </c>
       <c r="B888" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C888" s="2">
         <v>4</v>
@@ -20535,10 +20833,10 @@
         <v>19</v>
       </c>
       <c r="E888" s="3">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="F888" s="9">
-        <v>7.6999999999999999E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="889" spans="1:6" x14ac:dyDescent="0.25">
@@ -20546,7 +20844,7 @@
         <v>2025</v>
       </c>
       <c r="B889" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C889" s="2">
         <v>3</v>
@@ -20555,10 +20853,10 @@
         <v>19</v>
       </c>
       <c r="E889" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F889" s="9">
-        <v>1.9E-2</v>
+        <v>1.6E-2</v>
       </c>
     </row>
     <row r="890" spans="1:6" x14ac:dyDescent="0.25">
@@ -20566,7 +20864,7 @@
         <v>2025</v>
       </c>
       <c r="B890" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C890" s="2">
         <v>2</v>
@@ -20575,7 +20873,7 @@
         <v>19</v>
       </c>
       <c r="E890" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F890" s="9">
         <v>2E-3</v>
@@ -20586,7 +20884,7 @@
         <v>2025</v>
       </c>
       <c r="B891" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C891" s="2">
         <v>1</v>
@@ -20595,7 +20893,7 @@
         <v>19</v>
       </c>
       <c r="E891" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F891" s="9">
         <v>2E-3</v>
@@ -20606,7 +20904,7 @@
         <v>2025</v>
       </c>
       <c r="B892" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C892" s="2">
         <v>5</v>
@@ -20615,10 +20913,10 @@
         <v>18</v>
       </c>
       <c r="E892" s="3">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="F892" s="9">
-        <v>0.86199999999999999</v>
+        <v>0.90500000000000003</v>
       </c>
     </row>
     <row r="893" spans="1:6" x14ac:dyDescent="0.25">
@@ -20626,7 +20924,7 @@
         <v>2025</v>
       </c>
       <c r="B893" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C893" s="2">
         <v>4</v>
@@ -20635,10 +20933,10 @@
         <v>18</v>
       </c>
       <c r="E893" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="F893" s="9">
-        <v>0.1</v>
+        <v>9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="894" spans="1:6" x14ac:dyDescent="0.25">
@@ -20646,7 +20944,7 @@
         <v>2025</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C894" s="2">
         <v>3</v>
@@ -20655,10 +20953,10 @@
         <v>18</v>
       </c>
       <c r="E894" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F894" s="9">
-        <v>2.8000000000000001E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:6" x14ac:dyDescent="0.25">
@@ -20666,7 +20964,7 @@
         <v>2025</v>
       </c>
       <c r="B895" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C895" s="2">
         <v>2</v>
@@ -20675,10 +20973,10 @@
         <v>18</v>
       </c>
       <c r="E895" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F895" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:6" x14ac:dyDescent="0.25">
@@ -20686,7 +20984,7 @@
         <v>2025</v>
       </c>
       <c r="B896" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C896" s="2">
         <v>1</v>
@@ -20695,10 +20993,10 @@
         <v>18</v>
       </c>
       <c r="E896" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F896" s="9">
-        <v>7.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:6" x14ac:dyDescent="0.25">
@@ -20706,7 +21004,7 @@
         <v>2025</v>
       </c>
       <c r="B897" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C897" s="2">
         <v>5</v>
@@ -20715,10 +21013,10 @@
         <v>16</v>
       </c>
       <c r="E897" s="3">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="F897" s="9">
-        <v>0.88600000000000001</v>
+        <v>0.92900000000000005</v>
       </c>
     </row>
     <row r="898" spans="1:6" x14ac:dyDescent="0.25">
@@ -20726,7 +21024,7 @@
         <v>2025</v>
       </c>
       <c r="B898" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C898" s="2">
         <v>4</v>
@@ -20735,10 +21033,10 @@
         <v>16</v>
       </c>
       <c r="E898" s="3">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="F898" s="9">
-        <v>9.4E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
     </row>
     <row r="899" spans="1:6" x14ac:dyDescent="0.25">
@@ -20746,7 +21044,7 @@
         <v>2025</v>
       </c>
       <c r="B899" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C899" s="2">
         <v>3</v>
@@ -20755,10 +21053,10 @@
         <v>16</v>
       </c>
       <c r="E899" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F899" s="9">
-        <v>1.9E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="900" spans="1:6" x14ac:dyDescent="0.25">
@@ -20766,7 +21064,7 @@
         <v>2025</v>
       </c>
       <c r="B900" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C900" s="2">
         <v>2</v>
@@ -20786,7 +21084,7 @@
         <v>2025</v>
       </c>
       <c r="B901" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C901" s="2">
         <v>1</v>
@@ -20795,10 +21093,10 @@
         <v>16</v>
       </c>
       <c r="E901" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F901" s="9">
-        <v>0</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="902" spans="1:6" x14ac:dyDescent="0.25">
@@ -20806,19 +21104,19 @@
         <v>2025</v>
       </c>
       <c r="B902" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C902" s="2">
         <v>5</v>
       </c>
       <c r="D902" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E902" s="3">
-        <v>1081</v>
+        <v>2</v>
       </c>
       <c r="F902" s="9">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="903" spans="1:6" x14ac:dyDescent="0.25">
@@ -20826,19 +21124,19 @@
         <v>2025</v>
       </c>
       <c r="B903" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C903" s="2">
         <v>4</v>
       </c>
       <c r="D903" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E903" s="3">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="F903" s="9">
-        <v>5.8999999999999997E-2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="904" spans="1:6" x14ac:dyDescent="0.25">
@@ -20846,19 +21144,19 @@
         <v>2025</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C904" s="2">
         <v>3</v>
       </c>
       <c r="D904" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E904" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F904" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="905" spans="1:6" x14ac:dyDescent="0.25">
@@ -20866,19 +21164,19 @@
         <v>2025</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C905" s="2">
         <v>2</v>
       </c>
       <c r="D905" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E905" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F905" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:6" x14ac:dyDescent="0.25">
@@ -20886,19 +21184,19 @@
         <v>2025</v>
       </c>
       <c r="B906" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C906" s="2">
         <v>1</v>
       </c>
       <c r="D906" s="2" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="E906" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F906" s="9">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:6" x14ac:dyDescent="0.25">
@@ -20906,19 +21204,19 @@
         <v>2025</v>
       </c>
       <c r="B907" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C907" s="2">
         <v>5</v>
       </c>
       <c r="D907" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E907" s="3">
-        <v>721</v>
+        <v>1029</v>
       </c>
       <c r="F907" s="9">
-        <v>0.91200000000000003</v>
+        <v>0.92800000000000005</v>
       </c>
     </row>
     <row r="908" spans="1:6" x14ac:dyDescent="0.25">
@@ -20926,19 +21224,19 @@
         <v>2025</v>
       </c>
       <c r="B908" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C908" s="2">
         <v>4</v>
       </c>
       <c r="D908" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E908" s="3">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F908" s="9">
-        <v>7.1999999999999995E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
     </row>
     <row r="909" spans="1:6" x14ac:dyDescent="0.25">
@@ -20946,16 +21244,16 @@
         <v>2025</v>
       </c>
       <c r="B909" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C909" s="2">
         <v>3</v>
       </c>
       <c r="D909" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E909" s="3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F909" s="9">
         <v>1.2999999999999999E-2</v>
@@ -20966,19 +21264,19 @@
         <v>2025</v>
       </c>
       <c r="B910" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C910" s="2">
         <v>2</v>
       </c>
       <c r="D910" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E910" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F910" s="9">
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:6" x14ac:dyDescent="0.25">
@@ -20986,13 +21284,13 @@
         <v>2025</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C911" s="2">
         <v>1</v>
       </c>
       <c r="D911" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E911" s="3">
         <v>1</v>
@@ -21006,19 +21304,19 @@
         <v>2025</v>
       </c>
       <c r="B912" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C912" s="2">
         <v>5</v>
       </c>
       <c r="D912" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E912" s="3">
-        <v>205</v>
+        <v>772</v>
       </c>
       <c r="F912" s="9">
-        <v>0.93600000000000005</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="913" spans="1:6" x14ac:dyDescent="0.25">
@@ -21026,19 +21324,19 @@
         <v>2025</v>
       </c>
       <c r="B913" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C913" s="2">
         <v>4</v>
       </c>
       <c r="D913" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E913" s="3">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="F913" s="9">
-        <v>5.8999999999999997E-2</v>
+        <v>7.6999999999999999E-2</v>
       </c>
     </row>
     <row r="914" spans="1:6" x14ac:dyDescent="0.25">
@@ -21046,19 +21344,19 @@
         <v>2025</v>
       </c>
       <c r="B914" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C914" s="2">
         <v>3</v>
       </c>
       <c r="D914" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E914" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F914" s="9">
-        <v>0</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="915" spans="1:6" x14ac:dyDescent="0.25">
@@ -21066,19 +21364,19 @@
         <v>2025</v>
       </c>
       <c r="B915" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C915" s="2">
         <v>2</v>
       </c>
       <c r="D915" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E915" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F915" s="9">
-        <v>0</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="916" spans="1:6" x14ac:dyDescent="0.25">
@@ -21086,19 +21384,19 @@
         <v>2025</v>
       </c>
       <c r="B916" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C916" s="2">
         <v>1</v>
       </c>
       <c r="D916" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E916" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F916" s="9">
-        <v>5.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
     </row>
     <row r="917" spans="1:6" x14ac:dyDescent="0.25">
@@ -21106,19 +21404,19 @@
         <v>2025</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C917" s="2">
         <v>5</v>
       </c>
       <c r="D917" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E917" s="3">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="F917" s="9">
-        <v>0.82699999999999996</v>
+        <v>0.86199999999999999</v>
       </c>
     </row>
     <row r="918" spans="1:6" x14ac:dyDescent="0.25">
@@ -21126,19 +21424,19 @@
         <v>2025</v>
       </c>
       <c r="B918" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C918" s="2">
         <v>4</v>
       </c>
       <c r="D918" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E918" s="3">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F918" s="9">
-        <v>0.14499999999999999</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="919" spans="1:6" x14ac:dyDescent="0.25">
@@ -21146,19 +21444,19 @@
         <v>2025</v>
       </c>
       <c r="B919" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C919" s="2">
         <v>3</v>
       </c>
       <c r="D919" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E919" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F919" s="9">
-        <v>2.5000000000000001E-2</v>
+        <v>2.8000000000000001E-2</v>
       </c>
     </row>
     <row r="920" spans="1:6" x14ac:dyDescent="0.25">
@@ -21166,13 +21464,13 @@
         <v>2025</v>
       </c>
       <c r="B920" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C920" s="2">
         <v>2</v>
       </c>
       <c r="D920" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E920" s="3">
         <v>1</v>
@@ -21186,23 +21484,723 @@
         <v>2025</v>
       </c>
       <c r="B921" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C921" s="2">
+        <v>1</v>
+      </c>
+      <c r="D921" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E921" s="3">
+        <v>2</v>
+      </c>
+      <c r="F921" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A922" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B922" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C922" s="2">
+        <v>5</v>
+      </c>
+      <c r="D922" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E922" s="3">
+        <v>320</v>
+      </c>
+      <c r="F922" s="9">
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A923" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B923" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C923" s="2">
+        <v>4</v>
+      </c>
+      <c r="D923" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E923" s="3">
+        <v>34</v>
+      </c>
+      <c r="F923" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A924" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B924" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C924" s="2">
+        <v>3</v>
+      </c>
+      <c r="D924" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E924" s="3">
+        <v>7</v>
+      </c>
+      <c r="F924" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A925" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B925" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C925" s="2">
+        <v>2</v>
+      </c>
+      <c r="D925" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E925" s="3">
+        <v>0</v>
+      </c>
+      <c r="F925" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A926" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B926" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C926" s="2">
+        <v>1</v>
+      </c>
+      <c r="D926" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E926" s="3">
+        <v>0</v>
+      </c>
+      <c r="F926" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A927" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B927" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C927" s="2">
+        <v>5</v>
+      </c>
+      <c r="D927" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E927" s="3">
+        <v>15</v>
+      </c>
+      <c r="F927" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A928" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B928" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C928" s="2">
+        <v>4</v>
+      </c>
+      <c r="D928" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E928" s="3">
+        <v>1</v>
+      </c>
+      <c r="F928" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A929" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B929" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C929" s="2">
+        <v>3</v>
+      </c>
+      <c r="D929" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E929" s="3">
+        <v>0</v>
+      </c>
+      <c r="F929" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A930" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B930" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C930" s="2">
+        <v>2</v>
+      </c>
+      <c r="D930" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E930" s="3">
+        <v>1</v>
+      </c>
+      <c r="F930" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A931" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B931" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C931" s="2">
+        <v>1</v>
+      </c>
+      <c r="D931" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E931" s="3">
+        <v>0</v>
+      </c>
+      <c r="F931" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A932" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B932" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C921" s="2">
-        <v>1</v>
-      </c>
-      <c r="D921" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E921" s="3">
-        <v>0</v>
-      </c>
-      <c r="F921" s="9">
+      <c r="C932" s="2">
+        <v>5</v>
+      </c>
+      <c r="D932" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E932" s="3">
+        <v>1081</v>
+      </c>
+      <c r="F932" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A933" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B933" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C933" s="2">
+        <v>4</v>
+      </c>
+      <c r="D933" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E933" s="3">
+        <v>69</v>
+      </c>
+      <c r="F933" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A934" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B934" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C934" s="2">
+        <v>3</v>
+      </c>
+      <c r="D934" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E934" s="3">
+        <v>10</v>
+      </c>
+      <c r="F934" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A935" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B935" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C935" s="2">
+        <v>2</v>
+      </c>
+      <c r="D935" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E935" s="3">
+        <v>1</v>
+      </c>
+      <c r="F935" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A936" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B936" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C936" s="2">
+        <v>1</v>
+      </c>
+      <c r="D936" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E936" s="3">
+        <v>1</v>
+      </c>
+      <c r="F936" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A937" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B937" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C937" s="2">
+        <v>5</v>
+      </c>
+      <c r="D937" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E937" s="3">
+        <v>721</v>
+      </c>
+      <c r="F937" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A938" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B938" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C938" s="2">
+        <v>4</v>
+      </c>
+      <c r="D938" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E938" s="3">
+        <v>57</v>
+      </c>
+      <c r="F938" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A939" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B939" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C939" s="2">
+        <v>3</v>
+      </c>
+      <c r="D939" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E939" s="3">
+        <v>10</v>
+      </c>
+      <c r="F939" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A940" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B940" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C940" s="2">
+        <v>2</v>
+      </c>
+      <c r="D940" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E940" s="3">
+        <v>2</v>
+      </c>
+      <c r="F940" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A941" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B941" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C941" s="2">
+        <v>1</v>
+      </c>
+      <c r="D941" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E941" s="3">
+        <v>1</v>
+      </c>
+      <c r="F941" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A942" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B942" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C942" s="2">
+        <v>5</v>
+      </c>
+      <c r="D942" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E942" s="3">
+        <v>205</v>
+      </c>
+      <c r="F942" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A943" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B943" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C943" s="2">
+        <v>4</v>
+      </c>
+      <c r="D943" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E943" s="3">
+        <v>13</v>
+      </c>
+      <c r="F943" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A944" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B944" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C944" s="2">
+        <v>3</v>
+      </c>
+      <c r="D944" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E944" s="3">
+        <v>0</v>
+      </c>
+      <c r="F944" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A945" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B945" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C945" s="2">
+        <v>2</v>
+      </c>
+      <c r="D945" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E945" s="3">
+        <v>0</v>
+      </c>
+      <c r="F945" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A946" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B946" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C946" s="2">
+        <v>1</v>
+      </c>
+      <c r="D946" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E946" s="3">
+        <v>1</v>
+      </c>
+      <c r="F946" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A947" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B947" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C947" s="2">
+        <v>5</v>
+      </c>
+      <c r="D947" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E947" s="3">
+        <v>302</v>
+      </c>
+      <c r="F947" s="9">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A948" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B948" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C948" s="2">
+        <v>4</v>
+      </c>
+      <c r="D948" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E948" s="3">
+        <v>53</v>
+      </c>
+      <c r="F948" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A949" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B949" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C949" s="2">
+        <v>3</v>
+      </c>
+      <c r="D949" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E949" s="3">
+        <v>9</v>
+      </c>
+      <c r="F949" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A950" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B950" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C950" s="2">
+        <v>2</v>
+      </c>
+      <c r="D950" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E950" s="3">
+        <v>1</v>
+      </c>
+      <c r="F950" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A951" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B951" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C951" s="2">
+        <v>1</v>
+      </c>
+      <c r="D951" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E951" s="3">
+        <v>0</v>
+      </c>
+      <c r="F951" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A952" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B952" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C952" s="2">
+        <v>5</v>
+      </c>
+      <c r="D952" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E952" s="3">
+        <v>23</v>
+      </c>
+      <c r="F952" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A953" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B953" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C953" s="2">
+        <v>4</v>
+      </c>
+      <c r="D953" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E953" s="3">
+        <v>2</v>
+      </c>
+      <c r="F953" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A954" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B954" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C954" s="2">
+        <v>3</v>
+      </c>
+      <c r="D954" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E954" s="3">
+        <v>1</v>
+      </c>
+      <c r="F954" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A955" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B955" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C955" s="2">
+        <v>2</v>
+      </c>
+      <c r="D955" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E955" s="3">
+        <v>0</v>
+      </c>
+      <c r="F955" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A956" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B956" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C956" s="2">
+        <v>1</v>
+      </c>
+      <c r="D956" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E956" s="3">
+        <v>0</v>
+      </c>
+      <c r="F956" s="9">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:F801" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
+  <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0B3A46-367A-4428-8BA0-DBE454353D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C22116-6AA2-401D-BA75-540A6BF119B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -1927,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1975,9 +1975,7 @@
       <c r="F2" s="1">
         <v>4.9060000000000006</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -1998,9 +1996,7 @@
       <c r="F3" s="1">
         <v>4.9060000000000006</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -2021,9 +2017,7 @@
       <c r="F4" s="1">
         <v>4.8609999999999998</v>
       </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -2044,9 +2038,7 @@
       <c r="F5">
         <v>4.91</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -2067,9 +2059,7 @@
       <c r="F6">
         <v>4.91</v>
       </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -2090,9 +2080,7 @@
       <c r="F7">
         <v>4.92</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -2113,9 +2101,7 @@
       <c r="F8">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -2136,9 +2122,7 @@
       <c r="F9">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -2159,9 +2143,7 @@
       <c r="F10">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -2182,9 +2164,7 @@
       <c r="F11">
         <v>4.92</v>
       </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -2205,9 +2185,7 @@
       <c r="F12">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -2228,9 +2206,7 @@
       <c r="F13">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -2251,9 +2227,7 @@
       <c r="F14">
         <v>4.93</v>
       </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -2274,9 +2248,7 @@
       <c r="F15">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -2297,9 +2269,7 @@
       <c r="F16">
         <v>4.87</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -2320,9 +2290,7 @@
       <c r="F17">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -2343,9 +2311,7 @@
       <c r="F18">
         <v>4.83</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -2366,9 +2332,7 @@
       <c r="F19">
         <v>4.83</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -2389,9 +2353,7 @@
       <c r="F20">
         <v>4.87</v>
       </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -2412,9 +2374,7 @@
       <c r="F21">
         <v>4.87</v>
       </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -2435,9 +2395,7 @@
       <c r="F22">
         <v>4.88</v>
       </c>
-      <c r="G22" s="1">
-        <v>0</v>
-      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -2458,9 +2416,7 @@
       <c r="F23">
         <v>4.88</v>
       </c>
-      <c r="G23" s="1">
-        <v>0</v>
-      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
@@ -2481,9 +2437,7 @@
       <c r="F24">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G24" s="1">
-        <v>0</v>
-      </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -2504,9 +2458,7 @@
       <c r="F25">
         <v>4.84</v>
       </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
@@ -2527,9 +2479,7 @@
       <c r="F26">
         <v>4.82</v>
       </c>
-      <c r="G26" s="1">
-        <v>0</v>
-      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
@@ -2550,9 +2500,7 @@
       <c r="F27">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G27" s="1">
-        <v>0</v>
-      </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
@@ -2573,9 +2521,7 @@
       <c r="F28">
         <v>4.84</v>
       </c>
-      <c r="G28" s="1">
-        <v>0</v>
-      </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
@@ -2596,9 +2542,7 @@
       <c r="F29">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G29" s="1">
-        <v>0</v>
-      </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
@@ -2619,9 +2563,7 @@
       <c r="F30">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G30" s="1">
-        <v>0</v>
-      </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -2642,9 +2584,7 @@
       <c r="F31">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
@@ -2665,9 +2605,7 @@
       <c r="F32">
         <v>4.8899999999999997</v>
       </c>
-      <c r="G32" s="1">
-        <v>0</v>
-      </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -2688,9 +2626,7 @@
       <c r="F33">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G33" s="1">
-        <v>0</v>
-      </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -2711,9 +2647,7 @@
       <c r="F34">
         <v>4.84</v>
       </c>
-      <c r="G34" s="1">
-        <v>0</v>
-      </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -2734,9 +2668,7 @@
       <c r="F35">
         <v>4.88</v>
       </c>
-      <c r="G35" s="1">
-        <v>0</v>
-      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -2757,9 +2689,7 @@
       <c r="F36">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G36" s="1">
-        <v>0</v>
-      </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -2780,9 +2710,7 @@
       <c r="F37">
         <v>4.88</v>
       </c>
-      <c r="G37" s="1">
-        <v>0</v>
-      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -2803,9 +2731,7 @@
       <c r="F38">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G38" s="1">
-        <v>0</v>
-      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -2826,9 +2752,7 @@
       <c r="F39">
         <v>4.88</v>
       </c>
-      <c r="G39" s="1">
-        <v>0</v>
-      </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -2849,9 +2773,7 @@
       <c r="F40">
         <v>4.8600000000000003</v>
       </c>
-      <c r="G40" s="1">
-        <v>0</v>
-      </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C22116-6AA2-401D-BA75-540A6BF119B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECE796-2893-4A66-8366-A273A7D64CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="1" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,9 +878,6 @@
       <c r="F2">
         <v>278</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -901,9 +898,6 @@
       <c r="F3">
         <v>233</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -924,9 +918,6 @@
       <c r="F4">
         <v>261</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -947,9 +938,6 @@
       <c r="F5">
         <v>347</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -970,9 +958,6 @@
       <c r="F6">
         <v>246</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -993,9 +978,6 @@
       <c r="F7">
         <v>296</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -1016,9 +998,6 @@
       <c r="F8">
         <v>336</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -1039,9 +1018,6 @@
       <c r="F9">
         <v>335</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -1062,9 +1038,6 @@
       <c r="F10">
         <v>285</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1085,9 +1058,6 @@
       <c r="F11">
         <v>272</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1108,9 +1078,6 @@
       <c r="F12">
         <v>308</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1131,9 +1098,6 @@
       <c r="F13">
         <v>355</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
     </row>
     <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1154,9 +1118,6 @@
       <c r="F14">
         <v>281</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
     </row>
     <row r="15" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1177,9 +1138,6 @@
       <c r="F15">
         <v>242</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
     </row>
     <row r="16" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1200,11 +1158,8 @@
       <c r="F16">
         <v>241</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>2024</v>
       </c>
@@ -1223,11 +1178,8 @@
       <c r="F17">
         <v>246</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>2024</v>
       </c>
@@ -1246,11 +1198,8 @@
       <c r="F18">
         <v>225</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>2024</v>
       </c>
@@ -1269,11 +1218,8 @@
       <c r="F19">
         <v>224</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -1292,11 +1238,8 @@
       <c r="F20">
         <v>201</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -1315,11 +1258,8 @@
       <c r="F21">
         <v>225</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -1338,11 +1278,8 @@
       <c r="F22">
         <v>289</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -1361,11 +1298,8 @@
       <c r="F23">
         <v>320</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -1384,11 +1318,8 @@
       <c r="F24">
         <v>279</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -1407,11 +1338,8 @@
       <c r="F25">
         <v>247</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -1430,11 +1358,8 @@
       <c r="F26">
         <v>208</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -1453,11 +1378,8 @@
       <c r="F27">
         <v>300</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -1476,11 +1398,8 @@
       <c r="F28">
         <v>233</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -1499,11 +1418,8 @@
       <c r="F29">
         <v>277</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -1522,11 +1438,8 @@
       <c r="F30">
         <v>323</v>
       </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -1545,11 +1458,8 @@
       <c r="F31">
         <v>309</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -1568,9 +1478,6 @@
       <c r="F32">
         <v>278</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
     </row>
     <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -1591,9 +1498,6 @@
       <c r="F33">
         <v>273</v>
       </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
     </row>
     <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -1614,9 +1518,6 @@
       <c r="F34">
         <v>325</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
@@ -1637,9 +1538,6 @@
       <c r="F35">
         <v>359</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
     </row>
     <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
@@ -1660,9 +1558,6 @@
       <c r="F36">
         <v>327</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
     </row>
     <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
@@ -1683,9 +1578,6 @@
       <c r="F37">
         <v>313</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
     </row>
     <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -1706,9 +1598,6 @@
       <c r="F38">
         <v>352</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
@@ -1729,9 +1618,6 @@
       <c r="F39">
         <v>296</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
@@ -1751,9 +1637,6 @@
       </c>
       <c r="F40">
         <v>304</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -1927,7 +1810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
   <dimension ref="A1:K47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECE796-2893-4A66-8366-A273A7D64CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C19219-F02C-4247-BDA6-41C8F3D1C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,7 +1811,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2830,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
   <dimension ref="A1:L956"/>
   <sheetViews>
-    <sheetView topLeftCell="A952" workbookViewId="0">
-      <selection activeCell="E965" sqref="E965"/>
+    <sheetView topLeftCell="A932" workbookViewId="0">
+      <selection activeCell="D960" sqref="D960"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C19219-F02C-4247-BDA6-41C8F3D1C1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6D917-2DD1-4C2D-8A58-3299399FFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -436,7 +436,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -486,6 +486,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -828,12 +831,12 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
@@ -855,7 +858,7 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1658,7 +1661,7 @@
       <c r="F41">
         <v>328</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="17">
         <v>1</v>
       </c>
     </row>
@@ -1681,7 +1684,7 @@
       <c r="F42">
         <v>349</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="17">
         <v>5</v>
       </c>
     </row>
@@ -1704,7 +1707,7 @@
       <c r="F43">
         <v>318</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="17">
         <v>2</v>
       </c>
     </row>
@@ -1727,7 +1730,7 @@
       <c r="F44">
         <v>291</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="17">
         <v>17</v>
       </c>
     </row>
@@ -1750,7 +1753,7 @@
       <c r="F45">
         <v>196</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="17">
         <v>4</v>
       </c>
     </row>
@@ -1773,7 +1776,7 @@
       <c r="F46">
         <v>361</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="17">
         <v>17</v>
       </c>
     </row>
@@ -1796,7 +1799,7 @@
       <c r="F47">
         <v>365</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="17">
         <v>26</v>
       </c>
     </row>
@@ -1811,7 +1814,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2794,7 +2797,7 @@
         <v>4.87</v>
       </c>
       <c r="G46" s="1">
-        <v>4.7647058823529411</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -2817,7 +2820,7 @@
         <v>4.8</v>
       </c>
       <c r="G47" s="1">
-        <v>4.8461538461538458</v>
+        <v>4.8499999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -2831,7 +2834,7 @@
   <dimension ref="A1:L956"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
-      <selection activeCell="D960" sqref="D960"/>
+      <selection activeCell="F952" sqref="F952"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B6D917-2DD1-4C2D-8A58-3299399FFCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C502ED8-AB67-42E6-A4AA-953F6B24F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="75">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,6 +284,12 @@
   <si>
     <t>스피드랙MAX</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8w</t>
+  </si>
+  <si>
+    <t>스피드랙MAX</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1803,6 +1809,29 @@
         <v>26</v>
       </c>
     </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2025</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>1217</v>
+      </c>
+      <c r="D48">
+        <v>941</v>
+      </c>
+      <c r="E48">
+        <v>255</v>
+      </c>
+      <c r="F48">
+        <v>315</v>
+      </c>
+      <c r="G48" s="17">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1811,7 +1840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K47"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -2823,6 +2852,29 @@
         <v>4.8499999999999996</v>
       </c>
     </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2025</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>4.92</v>
+      </c>
+      <c r="D48">
+        <v>4.91</v>
+      </c>
+      <c r="E48">
+        <v>4.91</v>
+      </c>
+      <c r="F48">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G48">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2831,7 +2883,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L956"/>
+  <dimension ref="A1:L981"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -22007,6 +22059,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A957" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B957" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C957" s="2">
+        <v>5</v>
+      </c>
+      <c r="D957" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E957" s="3">
+        <v>1142</v>
+      </c>
+      <c r="F957" s="9">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A958" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B958" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C958" s="2">
+        <v>4</v>
+      </c>
+      <c r="D958" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E958" s="3">
+        <v>60</v>
+      </c>
+      <c r="F958" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A959" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B959" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C959" s="2">
+        <v>3</v>
+      </c>
+      <c r="D959" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E959" s="3">
+        <v>11</v>
+      </c>
+      <c r="F959" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A960" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B960" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C960" s="2">
+        <v>2</v>
+      </c>
+      <c r="D960" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E960" s="3">
+        <v>3</v>
+      </c>
+      <c r="F960" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A961" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B961" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C961" s="2">
+        <v>1</v>
+      </c>
+      <c r="D961" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E961" s="3">
+        <v>1</v>
+      </c>
+      <c r="F961" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A962" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B962" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C962" s="2">
+        <v>5</v>
+      </c>
+      <c r="D962" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E962" s="3">
+        <v>877</v>
+      </c>
+      <c r="F962" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A963" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B963" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C963" s="2">
+        <v>4</v>
+      </c>
+      <c r="D963" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E963" s="3">
+        <v>51</v>
+      </c>
+      <c r="F963" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A964" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B964" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C964" s="2">
+        <v>3</v>
+      </c>
+      <c r="D964" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E964" s="3">
+        <v>10</v>
+      </c>
+      <c r="F964" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A965" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B965" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C965" s="2">
+        <v>2</v>
+      </c>
+      <c r="D965" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E965" s="3">
+        <v>2</v>
+      </c>
+      <c r="F965" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A966" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B966" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C966" s="2">
+        <v>1</v>
+      </c>
+      <c r="D966" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E966" s="3">
+        <v>1</v>
+      </c>
+      <c r="F966" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A967" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B967" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C967" s="2">
+        <v>5</v>
+      </c>
+      <c r="D967" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E967" s="3">
+        <v>239</v>
+      </c>
+      <c r="F967" s="9">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A968" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B968" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C968" s="2">
+        <v>4</v>
+      </c>
+      <c r="D968" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E968" s="3">
+        <v>10</v>
+      </c>
+      <c r="F968" s="9">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A969" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B969" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C969" s="2">
+        <v>3</v>
+      </c>
+      <c r="D969" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E969" s="3">
+        <v>6</v>
+      </c>
+      <c r="F969" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A970" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B970" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C970" s="2">
+        <v>2</v>
+      </c>
+      <c r="D970" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E970" s="3">
+        <v>0</v>
+      </c>
+      <c r="F970" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A971" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B971" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C971" s="2">
+        <v>1</v>
+      </c>
+      <c r="D971" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E971" s="3">
+        <v>0</v>
+      </c>
+      <c r="F971" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A972" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B972" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C972" s="2">
+        <v>5</v>
+      </c>
+      <c r="D972" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E972" s="3">
+        <v>290</v>
+      </c>
+      <c r="F972" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A973" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B973" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C973" s="2">
+        <v>4</v>
+      </c>
+      <c r="D973" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E973" s="3">
+        <v>18</v>
+      </c>
+      <c r="F973" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A974" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B974" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C974" s="2">
+        <v>3</v>
+      </c>
+      <c r="D974" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E974" s="3">
+        <v>6</v>
+      </c>
+      <c r="F974" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A975" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B975" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C975" s="2">
+        <v>2</v>
+      </c>
+      <c r="D975" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E975" s="3">
+        <v>1</v>
+      </c>
+      <c r="F975" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A976" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B976" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C976" s="2">
+        <v>1</v>
+      </c>
+      <c r="D976" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E976" s="3">
+        <v>0</v>
+      </c>
+      <c r="F976" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A977" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B977" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C977" s="2">
+        <v>5</v>
+      </c>
+      <c r="D977" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E977" s="3">
+        <v>25</v>
+      </c>
+      <c r="F977" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A978" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B978" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C978" s="2">
+        <v>4</v>
+      </c>
+      <c r="D978" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E978" s="3">
+        <v>1</v>
+      </c>
+      <c r="F978" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A979" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B979" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C979" s="2">
+        <v>3</v>
+      </c>
+      <c r="D979" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E979" s="3">
+        <v>1</v>
+      </c>
+      <c r="F979" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A980" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B980" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C980" s="2">
+        <v>2</v>
+      </c>
+      <c r="D980" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E980" s="3">
+        <v>0</v>
+      </c>
+      <c r="F980" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A981" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B981" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C981" s="2">
+        <v>1</v>
+      </c>
+      <c r="D981" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E981" s="3">
+        <v>0</v>
+      </c>
+      <c r="F981" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C502ED8-AB67-42E6-A4AA-953F6B24F79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9CB56-2B75-4754-8F30-A62F2380E98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2074" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="76">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>스피드랙MAX</t>
+  </si>
+  <si>
+    <t>9w</t>
   </si>
 </sst>
 </file>
@@ -834,7 +837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1832,6 +1835,29 @@
         <v>27</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2025</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>1245</v>
+      </c>
+      <c r="D49">
+        <v>752</v>
+      </c>
+      <c r="E49">
+        <v>255</v>
+      </c>
+      <c r="F49">
+        <v>314</v>
+      </c>
+      <c r="G49" s="17">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1840,7 +1866,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -2875,6 +2901,29 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2025</v>
+      </c>
+      <c r="B49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D49">
+        <v>4.91</v>
+      </c>
+      <c r="E49">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F49">
+        <v>4.88</v>
+      </c>
+      <c r="G49">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2883,7 +2932,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L981"/>
+  <dimension ref="A1:L1006"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -22559,6 +22608,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A982" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B982" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C982" s="2">
+        <v>5</v>
+      </c>
+      <c r="D982" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E982" s="3">
+        <v>1131</v>
+      </c>
+      <c r="F982" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A983" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B983" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C983" s="2">
+        <v>4</v>
+      </c>
+      <c r="D983" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E983" s="3">
+        <v>91</v>
+      </c>
+      <c r="F983" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A984" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B984" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C984" s="2">
+        <v>3</v>
+      </c>
+      <c r="D984" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E984" s="3">
+        <v>22</v>
+      </c>
+      <c r="F984" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A985" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B985" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C985" s="2">
+        <v>2</v>
+      </c>
+      <c r="D985" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E985" s="3">
+        <v>1</v>
+      </c>
+      <c r="F985" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A986" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B986" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C986" s="2">
+        <v>1</v>
+      </c>
+      <c r="D986" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E986" s="3">
+        <v>0</v>
+      </c>
+      <c r="F986" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A987" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B987" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C987" s="2">
+        <v>5</v>
+      </c>
+      <c r="D987" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E987" s="3">
+        <v>702</v>
+      </c>
+      <c r="F987" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A988" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B988" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C988" s="2">
+        <v>4</v>
+      </c>
+      <c r="D988" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E988" s="3">
+        <v>41</v>
+      </c>
+      <c r="F988" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A989" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B989" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C989" s="2">
+        <v>3</v>
+      </c>
+      <c r="D989" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E989" s="3">
+        <v>6</v>
+      </c>
+      <c r="F989" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A990" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B990" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C990" s="2">
+        <v>2</v>
+      </c>
+      <c r="D990" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E990" s="3">
+        <v>0</v>
+      </c>
+      <c r="F990" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A991" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B991" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C991" s="2">
+        <v>1</v>
+      </c>
+      <c r="D991" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E991" s="3">
+        <v>3</v>
+      </c>
+      <c r="F991" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A992" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B992" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C992" s="2">
+        <v>5</v>
+      </c>
+      <c r="D992" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E992" s="3">
+        <v>220</v>
+      </c>
+      <c r="F992" s="9">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A993" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B993" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C993" s="2">
+        <v>4</v>
+      </c>
+      <c r="D993" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E993" s="3">
+        <v>34</v>
+      </c>
+      <c r="F993" s="9">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A994" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B994" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C994" s="2">
+        <v>3</v>
+      </c>
+      <c r="D994" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E994" s="3">
+        <v>1</v>
+      </c>
+      <c r="F994" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A995" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B995" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C995" s="2">
+        <v>2</v>
+      </c>
+      <c r="D995" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E995" s="3">
+        <v>0</v>
+      </c>
+      <c r="F995" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A996" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B996" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C996" s="2">
+        <v>1</v>
+      </c>
+      <c r="D996" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E996" s="3">
+        <v>0</v>
+      </c>
+      <c r="F996" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A997" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B997" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C997" s="2">
+        <v>5</v>
+      </c>
+      <c r="D997" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E997" s="3">
+        <v>284</v>
+      </c>
+      <c r="F997" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A998" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B998" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C998" s="2">
+        <v>4</v>
+      </c>
+      <c r="D998" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E998" s="3">
+        <v>23</v>
+      </c>
+      <c r="F998" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A999" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B999" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C999" s="2">
+        <v>3</v>
+      </c>
+      <c r="D999" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E999" s="3">
+        <v>7</v>
+      </c>
+      <c r="F999" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1000" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1000" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1000" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1000" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1000" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1000" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1001" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1001" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1001" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1001" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1001" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1001" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1002" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1002" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1002" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1002" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1002" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1002" s="9">
+        <v>0.97899999999999998</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1003" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1003" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1003" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1003" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1003" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1003" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1004" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1004" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1004" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1004" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1004" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1004" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1005" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1005" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1005" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1005" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1005" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1005" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1006" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1006" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1006" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1006" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1006" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1006" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F9CB56-2B75-4754-8F30-A62F2380E98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B4595-ADC4-4C1C-93D1-FE3F0E94D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="77">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>9w</t>
+  </si>
+  <si>
+    <t>10w</t>
   </si>
 </sst>
 </file>
@@ -837,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1858,6 +1861,29 @@
         <v>48</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>1184</v>
+      </c>
+      <c r="D50">
+        <v>832</v>
+      </c>
+      <c r="E50">
+        <v>237</v>
+      </c>
+      <c r="F50">
+        <v>338</v>
+      </c>
+      <c r="G50" s="17">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1866,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -2924,6 +2950,29 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50">
+        <v>4.91</v>
+      </c>
+      <c r="D50">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E50">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F50">
+        <v>4.87</v>
+      </c>
+      <c r="G50">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2932,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1006"/>
+  <dimension ref="A1:L1031"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -23108,6 +23157,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1007" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1007" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1007" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1007" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1007" s="3">
+        <v>1095</v>
+      </c>
+      <c r="F1007" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1008" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1008" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1008" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1008" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1008" s="3">
+        <v>77</v>
+      </c>
+      <c r="F1008" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1009" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1009" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1009" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1009" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1009" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1009" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1010" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1010" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1010" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1010" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1010" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1010" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1011" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1011" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1011" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1011" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1011" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1011" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1012" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1012" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1012" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1012" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1012" s="3">
+        <v>763</v>
+      </c>
+      <c r="F1012" s="9">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1013" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1013" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1013" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1013" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1013" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1013" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1014" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1014" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1014" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1014" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1014" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1014" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1015" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1015" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1015" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1015" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1015" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1015" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1016" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1016" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1016" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1016" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1016" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1016" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1017" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1017" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1017" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1017" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1017" s="3">
+        <v>217</v>
+      </c>
+      <c r="F1017" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1018" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1018" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1018" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1018" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1018" s="3">
+        <v>16</v>
+      </c>
+      <c r="F1018" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1019" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1019" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1019" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1019" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1019" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1019" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1020" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1020" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1020" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1020" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1020" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1020" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1021" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1021" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1021" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1021" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1021" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1022" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1022" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1022" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1022" s="3">
+        <v>306</v>
+      </c>
+      <c r="F1022" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1023" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1023" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1023" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1023" s="3">
+        <v>24</v>
+      </c>
+      <c r="F1023" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1024" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1024" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1024" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1024" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1024" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1025" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1025" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1025" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1025" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1025" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1026" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1026" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1026" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1026" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1026" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1027" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1027" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1027" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1027" s="3">
+        <v>38</v>
+      </c>
+      <c r="F1027" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1028" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1028" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1028" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1028" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1028" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1029" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1029" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1029" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1029" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1029" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1030" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1030" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1030" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1030" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1030" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1031" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1031" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1031" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1031" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1031" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30B4595-ADC4-4C1C-93D1-FE3F0E94D802}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A224A-D9F1-4746-A40A-E71F3EBC7981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="78">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,9 @@
   </si>
   <si>
     <t>10w</t>
+  </si>
+  <si>
+    <t>11w</t>
   </si>
 </sst>
 </file>
@@ -840,7 +843,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1884,6 +1887,29 @@
         <v>41</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2025</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>1148</v>
+      </c>
+      <c r="D51">
+        <v>799</v>
+      </c>
+      <c r="E51">
+        <v>268</v>
+      </c>
+      <c r="F51">
+        <v>348</v>
+      </c>
+      <c r="G51" s="17">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1892,7 +1918,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -2973,6 +2999,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2025</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51">
+        <v>4.92</v>
+      </c>
+      <c r="D51">
+        <v>4.88</v>
+      </c>
+      <c r="E51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F51">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G51">
+        <v>4.79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2981,7 +3030,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1031"/>
+  <dimension ref="A1:L1056"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -23657,6 +23706,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1032" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1032" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1032" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1032" s="3">
+        <v>1064</v>
+      </c>
+      <c r="F1032" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1033" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1033" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1033" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1033" s="3">
+        <v>74</v>
+      </c>
+      <c r="F1033" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1034" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1034" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1034" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1034" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1034" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1035" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1035" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1035" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1035" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1035" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1036" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1036" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1036" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1036" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1036" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1037" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1037" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1037" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1037" s="3">
+        <v>730</v>
+      </c>
+      <c r="F1037" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1038" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1038" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1038" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1038" s="3">
+        <v>49</v>
+      </c>
+      <c r="F1038" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1039" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1039" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1039" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1039" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1039" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1040" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1040" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1040" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1040" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1040" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1041" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1041" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1041" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1041" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1041" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1042" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1042" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1042" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1042" s="3">
+        <v>242</v>
+      </c>
+      <c r="F1042" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1043" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1043" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1043" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1043" s="3">
+        <v>24</v>
+      </c>
+      <c r="F1043" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1044" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1044" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1044" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1044" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1044" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1045" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1045" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1045" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1045" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1045" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1046" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1046" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1046" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1046" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1046" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1047" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1047" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1047" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1047" s="3">
+        <v>315</v>
+      </c>
+      <c r="F1047" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1048" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1048" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1048" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1048" s="3">
+        <v>30</v>
+      </c>
+      <c r="F1048" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1049" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1049" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1049" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1049" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1049" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1050" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1050" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1050" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1050" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1050" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1051" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1051" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1051" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1051" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1051" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1052" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1052" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1052" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1052" s="3">
+        <v>49</v>
+      </c>
+      <c r="F1052" s="9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1053" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1053" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1053" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1053" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1053" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1054" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1054" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1054" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1054" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1054" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1055" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1055" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1055" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1055" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1055" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1056" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1056" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1056" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1056" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1056" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A224A-D9F1-4746-A40A-E71F3EBC7981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782FC62-4B77-44E7-BF75-6BF97CD88CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="79">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>11w</t>
+  </si>
+  <si>
+    <t>12w</t>
   </si>
 </sst>
 </file>
@@ -843,7 +846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1910,6 +1913,29 @@
         <v>57</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>1109</v>
+      </c>
+      <c r="D52">
+        <v>848</v>
+      </c>
+      <c r="E52">
+        <v>257</v>
+      </c>
+      <c r="F52">
+        <v>296</v>
+      </c>
+      <c r="G52" s="17">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1918,7 +1944,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3022,6 +3048,29 @@
         <v>4.79</v>
       </c>
     </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2025</v>
+      </c>
+      <c r="B52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52">
+        <v>4.91</v>
+      </c>
+      <c r="D52">
+        <v>4.88</v>
+      </c>
+      <c r="E52">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F52">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G52">
+        <v>4.78</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3030,7 +3079,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1056"/>
+  <dimension ref="A1:L1081"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -24206,6 +24255,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1057" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1057" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1057" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1057" s="3">
+        <v>1038</v>
+      </c>
+      <c r="F1057" s="9">
+        <v>0.93600000000000005</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1058" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1058" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1058" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1058" s="3">
+        <v>44</v>
+      </c>
+      <c r="F1058" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1059" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1059" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1059" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1059" s="3">
+        <v>25</v>
+      </c>
+      <c r="F1059" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1060" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1060" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1060" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1060" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1060" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1061" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1061" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1061" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1061" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1061" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1062" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1062" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1062" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1062" s="3">
+        <v>764</v>
+      </c>
+      <c r="F1062" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1063" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1063" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1063" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1063" s="3">
+        <v>71</v>
+      </c>
+      <c r="F1063" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1064" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1064" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1064" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1064" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1064" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1065" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1065" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1065" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1065" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1065" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1066" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1066" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1066" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1066" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1066" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1067" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1067" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1067" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1067" s="3">
+        <v>228</v>
+      </c>
+      <c r="F1067" s="9">
+        <v>0.88700000000000001</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1068" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1068" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1068" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1068" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1068" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1069" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1069" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1069" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1069" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1069" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1070" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1070" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1070" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1070" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1070" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1071" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1071" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1071" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1071" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1071" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1072" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1072" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1072" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1072" s="3">
+        <v>259</v>
+      </c>
+      <c r="F1072" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1073" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1073" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1073" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1073" s="3">
+        <v>32</v>
+      </c>
+      <c r="F1073" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1074" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1074" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1074" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1074" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1074" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1075" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1075" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1075" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1075" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1075" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1076" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1076" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1076" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1076" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1076" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1077" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1077" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1077" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1077" s="3">
+        <v>46</v>
+      </c>
+      <c r="F1077" s="9">
+        <v>0.85199999999999998</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1078" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1078" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1078" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1078" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1078" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1079" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1079" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1079" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1079" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1079" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1080" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1080" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1080" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1080" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1080" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1081" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1081" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1081" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1081" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1081" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782FC62-4B77-44E7-BF75-6BF97CD88CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BB7C3D-1FB7-4B6A-B7C1-489289FD2DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="80">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>12w</t>
+  </si>
+  <si>
+    <t>13w</t>
   </si>
 </sst>
 </file>
@@ -846,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1936,6 +1939,29 @@
         <v>54</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2025</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>1156</v>
+      </c>
+      <c r="D53">
+        <v>817</v>
+      </c>
+      <c r="E53">
+        <v>225</v>
+      </c>
+      <c r="F53">
+        <v>307</v>
+      </c>
+      <c r="G53" s="17">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,7 +1970,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3071,6 +3097,29 @@
         <v>4.78</v>
       </c>
     </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2025</v>
+      </c>
+      <c r="B53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D53">
+        <v>4.93</v>
+      </c>
+      <c r="E53">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F53">
+        <v>4.91</v>
+      </c>
+      <c r="G53">
+        <v>4.55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3079,7 +3128,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1081"/>
+  <dimension ref="A1:L1106"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -24755,6 +24804,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1082" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1082" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1082" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1082" s="3">
+        <v>1051</v>
+      </c>
+      <c r="F1082" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1083" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1083" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1083" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1083" s="3">
+        <v>89</v>
+      </c>
+      <c r="F1083" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1084" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1084" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1084" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1084" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1084" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1085" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1085" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1085" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1085" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1085" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1086" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1086" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1086" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1086" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1086" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1087" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1087" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1087" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1087" s="3">
+        <v>769</v>
+      </c>
+      <c r="F1087" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1088" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1088" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1088" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1088" s="3">
+        <v>40</v>
+      </c>
+      <c r="F1088" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1089" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1089" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1089" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1089" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1089" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1090" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1090" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1090" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1090" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1090" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1090" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1091" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1091" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1091" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1091" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1091" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1091" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1092" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1092" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1092" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1092" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1092" s="3">
+        <v>206</v>
+      </c>
+      <c r="F1092" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1093" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1093" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1093" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1093" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1093" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1093" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1094" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1094" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1094" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1094" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1094" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1094" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1095" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1095" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1095" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1095" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1095" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1095" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1096" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1096" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1096" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1096" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1096" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1096" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1097" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1097" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1097" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1097" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1097" s="3">
+        <v>286</v>
+      </c>
+      <c r="F1097" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1098" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1098" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1098" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1098" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1098" s="3">
+        <v>18</v>
+      </c>
+      <c r="F1098" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1099" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1099" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1099" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1099" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1099" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1099" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1100" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1100" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1101" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1101" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1101" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1102" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1102" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1102" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1102" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1102" s="3">
+        <v>46</v>
+      </c>
+      <c r="F1102" s="9">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1103" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1103" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1103" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1103" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1103" s="9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1104" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1104" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1104" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1104" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1104" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1105" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1106" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1106" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1106" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1106" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BB7C3D-1FB7-4B6A-B7C1-489289FD2DF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C45D4-A4E8-4715-843D-5903D10E3942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>13w</t>
+  </si>
+  <si>
+    <t>14w</t>
   </si>
 </sst>
 </file>
@@ -849,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1962,6 +1965,29 @@
         <v>60</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2025</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>1181</v>
+      </c>
+      <c r="D54">
+        <v>782</v>
+      </c>
+      <c r="E54">
+        <v>222</v>
+      </c>
+      <c r="F54">
+        <v>293</v>
+      </c>
+      <c r="G54" s="17">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1970,7 +1996,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K54"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3120,6 +3146,29 @@
         <v>4.55</v>
       </c>
     </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2025</v>
+      </c>
+      <c r="B54" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54">
+        <v>4.88</v>
+      </c>
+      <c r="D54">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E54">
+        <v>4.83</v>
+      </c>
+      <c r="F54">
+        <v>4.83</v>
+      </c>
+      <c r="G54">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3128,7 +3177,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1106"/>
+  <dimension ref="A1:L1131"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -25304,6 +25353,506 @@
         <v>6.7000000000000004E-2</v>
       </c>
     </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1107" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1107" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1107" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1107" s="3">
+        <v>1077</v>
+      </c>
+      <c r="F1107" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1108" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1108" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1108" s="3">
+        <v>85</v>
+      </c>
+      <c r="F1108" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1109" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1109" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1109" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1110" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1110" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1111" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1111" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1111" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1112" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1112" s="3">
+        <v>718</v>
+      </c>
+      <c r="F1112" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1113" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1113" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1113" s="3">
+        <v>48</v>
+      </c>
+      <c r="F1113" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1114" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1114" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1114" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1114" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1115" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1115" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1115" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1116" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1116" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1116" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1117" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1117" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1117" s="3">
+        <v>194</v>
+      </c>
+      <c r="F1117" s="9">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1118" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1118" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1118" s="3">
+        <v>24</v>
+      </c>
+      <c r="F1118" s="9">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1119" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1119" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1119" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1119" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1120" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1120" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1120" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1121" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1121" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1121" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1122" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1122" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1122" s="3">
+        <v>261</v>
+      </c>
+      <c r="F1122" s="9">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1123" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1123" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1123" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1124" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1124" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1124" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1124" s="9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1125" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1125" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1125" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1126" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1126" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1126" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1127" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1127" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1127" s="3">
+        <v>84</v>
+      </c>
+      <c r="F1127" s="9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1128" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1128" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1128" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1128" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1129" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1129" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1130" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1130" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1130" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1131" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1131" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E4C45D4-A4E8-4715-843D-5903D10E3942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC54417-7186-48F5-A796-20D41A8C68CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -1988,6 +1988,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2025</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>1145</v>
+      </c>
+      <c r="D55">
+        <v>734</v>
+      </c>
+      <c r="E55">
+        <v>223</v>
+      </c>
+      <c r="F55">
+        <v>272</v>
+      </c>
+      <c r="G55" s="17">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1996,7 +2019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3169,6 +3192,29 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2025</v>
+      </c>
+      <c r="B55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55">
+        <v>4.92</v>
+      </c>
+      <c r="D55">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E55">
+        <v>4.83</v>
+      </c>
+      <c r="F55">
+        <v>4.91</v>
+      </c>
+      <c r="G55">
+        <v>4.8600000000000003</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3177,7 +3223,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1131"/>
+  <dimension ref="A1:L1156"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -25853,6 +25899,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1132" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1132" s="3">
+        <v>1069</v>
+      </c>
+      <c r="F1132" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1133" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1133" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1133" s="3">
+        <v>64</v>
+      </c>
+      <c r="F1133" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1134" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1134" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1134" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1135" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1135" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1135" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1135" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1136" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1136" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1136" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1137" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1137" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1137" s="3">
+        <v>673</v>
+      </c>
+      <c r="F1137" s="9">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1138" s="3">
+        <v>51</v>
+      </c>
+      <c r="F1138" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1139" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1139" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1140" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1140" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1141" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1141" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1142" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1142" s="3">
+        <v>194</v>
+      </c>
+      <c r="F1142" s="9">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1143" s="3">
+        <v>23</v>
+      </c>
+      <c r="F1143" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1144" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1144" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1144" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1145" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1145" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1147" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1147" s="3">
+        <v>250</v>
+      </c>
+      <c r="F1147" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1148" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1148" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1148" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1149" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1149" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1150" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1150" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1151" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1152" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1152" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1152" s="3">
+        <v>77</v>
+      </c>
+      <c r="F1152" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1153" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1153" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1153" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1153" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1154" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1154" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1155" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1156" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1156" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC54417-7186-48F5-A796-20D41A8C68CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE60CC-E5B2-4B4B-B7BF-0662D529000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2438" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2011,6 +2011,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2025</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>1064</v>
+      </c>
+      <c r="D56">
+        <v>745</v>
+      </c>
+      <c r="E56">
+        <v>195</v>
+      </c>
+      <c r="F56">
+        <v>269</v>
+      </c>
+      <c r="G56" s="17">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2019,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3215,6 +3238,29 @@
         <v>4.8600000000000003</v>
       </c>
     </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2025</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D56">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E56">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F56">
+        <v>4.82</v>
+      </c>
+      <c r="G56">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3223,7 +3269,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1156"/>
+  <dimension ref="A1:L1181"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -26399,6 +26445,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1157" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1157" s="3">
+        <v>974</v>
+      </c>
+      <c r="F1157" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1158" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1158" s="3">
+        <v>73</v>
+      </c>
+      <c r="F1158" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1159" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1159" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1159" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1160" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1160" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1160" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1161" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1161" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1162" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1162" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1162" s="3">
+        <v>684</v>
+      </c>
+      <c r="F1162" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1163" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1163" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1163" s="3">
+        <v>48</v>
+      </c>
+      <c r="F1163" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1164" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1164" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1164" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1165" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1166" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1166" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1167" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1167" s="3">
+        <v>170</v>
+      </c>
+      <c r="F1167" s="9">
+        <v>0.872</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1168" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1168" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1168" s="3">
+        <v>23</v>
+      </c>
+      <c r="F1168" s="9">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1169" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1170" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1170" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1171" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1171" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1172" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1172" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1172" s="3">
+        <v>235</v>
+      </c>
+      <c r="F1172" s="9">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1173" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1173" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1173" s="3">
+        <v>24</v>
+      </c>
+      <c r="F1173" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1174" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1174" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1174" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1174" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1175" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1175" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1176" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1176" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1176" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1177" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1177" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1177" s="3">
+        <v>100</v>
+      </c>
+      <c r="F1177" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1178" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1178" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1178" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1178" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1179" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1179" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1179" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1180" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1180" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1180" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1181" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1181" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DE60CC-E5B2-4B4B-B7BF-0662D529000B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C351B-AE5F-46EC-A19E-FB7CFEC2804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2490" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2034,6 +2034,29 @@
         <v>111</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2025</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>1099</v>
+      </c>
+      <c r="D57">
+        <v>652</v>
+      </c>
+      <c r="E57">
+        <v>204</v>
+      </c>
+      <c r="F57">
+        <v>260</v>
+      </c>
+      <c r="G57" s="17">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2042,7 +2065,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3261,6 +3284,29 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2025</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D57">
+        <v>4.91</v>
+      </c>
+      <c r="E57">
+        <v>4.84</v>
+      </c>
+      <c r="F57">
+        <v>4.88</v>
+      </c>
+      <c r="G57">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3269,7 +3315,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1181"/>
+  <dimension ref="A1:L1206"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -26945,6 +26991,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1182" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1182" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1182" s="3">
+        <v>1012</v>
+      </c>
+      <c r="F1182" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1183" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1183" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1183" s="3">
+        <v>70</v>
+      </c>
+      <c r="F1183" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1184" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1184" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1184" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1184" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1185" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1185" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1186" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1186" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1186" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1186" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1187" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1187" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1187" s="3">
+        <v>605</v>
+      </c>
+      <c r="F1187" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1188" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1188" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1188" s="3">
+        <v>42</v>
+      </c>
+      <c r="F1188" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1189" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1189" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1189" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1189" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1190" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1190" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1190" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1190" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1191" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1191" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1191" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1191" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1192" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1192" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1192" s="3">
+        <v>175</v>
+      </c>
+      <c r="F1192" s="9">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1193" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1193" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1193" s="3">
+        <v>25</v>
+      </c>
+      <c r="F1193" s="9">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1194" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1194" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1194" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1194" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1195" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1195" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1195" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1196" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1196" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1197" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1197" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1197" s="3">
+        <v>235</v>
+      </c>
+      <c r="F1197" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1198" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1198" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1198" s="3">
+        <v>19</v>
+      </c>
+      <c r="F1198" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1199" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1199" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1199" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1199" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1200" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1200" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1200" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1201" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1201" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1201" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1202" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1202" s="3">
+        <v>100</v>
+      </c>
+      <c r="F1202" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1203" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1203" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1203" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1204" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1204" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1204" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1205" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1205" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1205" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1206" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1206" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1206" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0C351B-AE5F-46EC-A19E-FB7CFEC2804F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644BB06B-7916-4723-8C42-8A63ED07489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2542" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G57"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2057,6 +2057,29 @@
         <v>110</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2025</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>1045</v>
+      </c>
+      <c r="D58">
+        <v>654</v>
+      </c>
+      <c r="E58">
+        <v>190</v>
+      </c>
+      <c r="F58">
+        <v>241</v>
+      </c>
+      <c r="G58" s="17">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2065,7 +2088,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K58"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3307,6 +3330,29 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2025</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>4.92</v>
+      </c>
+      <c r="D58">
+        <v>4.93</v>
+      </c>
+      <c r="E58">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F58">
+        <v>4.88</v>
+      </c>
+      <c r="G58">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3315,7 +3361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1206"/>
+  <dimension ref="A1:L1231"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -27491,6 +27537,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1207" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1207" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1207" s="3">
+        <v>979</v>
+      </c>
+      <c r="F1207" s="9">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1208" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1208" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1208" s="3">
+        <v>53</v>
+      </c>
+      <c r="F1208" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1209" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1209" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1209" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1209" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1210" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1210" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1210" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1210" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1211" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1211" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1211" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1211" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1212" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1212" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1212" s="3">
+        <v>618</v>
+      </c>
+      <c r="F1212" s="9">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1213" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1213" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1213" s="3">
+        <v>31</v>
+      </c>
+      <c r="F1213" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1214" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1214" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1214" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1214" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1215" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1215" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1215" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1215" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1215" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1216" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1216" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1216" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1216" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1216" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1217" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1217" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1217" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1217" s="3">
+        <v>167</v>
+      </c>
+      <c r="F1217" s="9">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1218" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1218" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1218" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1218" s="3">
+        <v>19</v>
+      </c>
+      <c r="F1218" s="9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1219" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1219" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1219" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1219" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1219" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1220" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1220" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1220" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1220" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1221" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1221" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1221" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1222" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1222" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1222" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1222" s="3">
+        <v>218</v>
+      </c>
+      <c r="F1222" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1223" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1223" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1223" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1223" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1223" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1224" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1224" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1224" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1224" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1224" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1225" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1225" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1226" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1226" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1226" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1227" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1227" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1227" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1227" s="3">
+        <v>80</v>
+      </c>
+      <c r="F1227" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1228" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1228" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1228" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1228" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1228" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1228" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1229" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1229" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1229" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1229" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1229" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1230" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1230" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1230" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1230" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1230" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1231" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1231" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1231" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1231" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644BB06B-7916-4723-8C42-8A63ED07489E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE8894-0EC3-41D2-96CB-978FF44513F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2080,6 +2080,29 @@
         <v>87</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>1047</v>
+      </c>
+      <c r="D59">
+        <v>663</v>
+      </c>
+      <c r="E59">
+        <v>172</v>
+      </c>
+      <c r="F59">
+        <v>223</v>
+      </c>
+      <c r="G59" s="17">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2088,7 +2111,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3353,6 +3376,29 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2025</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D59">
+        <v>4.87</v>
+      </c>
+      <c r="E59">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F59">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G59">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3361,7 +3407,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1231"/>
+  <dimension ref="A1:L1256"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -28037,6 +28083,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1232" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1232" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1232" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1232" s="3">
+        <v>963</v>
+      </c>
+      <c r="F1232" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1233" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1233" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1233" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1233" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1233" s="3">
+        <v>67</v>
+      </c>
+      <c r="F1233" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1234" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1234" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1234" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1234" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1234" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1235" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1235" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1235" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1235" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1235" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1236" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1236" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1236" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1236" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1236" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1237" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1237" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1237" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1237" s="3">
+        <v>600</v>
+      </c>
+      <c r="F1237" s="9">
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1238" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1238" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1238" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1238" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1238" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1239" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1239" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1239" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1239" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1239" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1239" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1240" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1240" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1240" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1240" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1240" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1241" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1241" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1241" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1241" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1241" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1242" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1242" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1242" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1242" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1242" s="3">
+        <v>144</v>
+      </c>
+      <c r="F1242" s="9">
+        <v>0.83699999999999997</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1243" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1243" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1243" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1243" s="3">
+        <v>26</v>
+      </c>
+      <c r="F1243" s="9">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1244" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1244" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1244" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1244" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1244" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1245" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1245" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1245" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1245" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1246" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1246" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1246" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1247" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1247" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1247" s="3">
+        <v>202</v>
+      </c>
+      <c r="F1247" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1248" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1248" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1248" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1248" s="3">
+        <v>18</v>
+      </c>
+      <c r="F1248" s="9">
+        <v>8.1000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1249" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1249" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1249" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1249" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1249" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1250" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1250" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1250" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1250" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1250" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1251" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1251" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1251" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1251" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1252" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1252" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1252" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1252" s="3">
+        <v>114</v>
+      </c>
+      <c r="F1252" s="9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1253" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1253" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1253" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1253" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1253" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1253" s="9">
+        <v>4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1254" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1254" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1254" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1254" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1254" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1254" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1255" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1255" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1255" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1255" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1256" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1256" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1256" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1256" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1256" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1256" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DE8894-0EC3-41D2-96CB-978FF44513F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB978C9-E574-4299-9653-853C461BE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2103,6 +2103,29 @@
         <v>120</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2025</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>1078</v>
+      </c>
+      <c r="D60">
+        <v>756</v>
+      </c>
+      <c r="E60">
+        <v>233</v>
+      </c>
+      <c r="F60">
+        <v>270</v>
+      </c>
+      <c r="G60" s="17">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,7 +2134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3399,6 +3422,29 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2025</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>4.91</v>
+      </c>
+      <c r="D60">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E60">
+        <v>4.84</v>
+      </c>
+      <c r="F60">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G60">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3407,7 +3453,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1256"/>
+  <dimension ref="A1:L1281"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -28583,6 +28629,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1257" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1257" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1257" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1257" s="3">
+        <v>1003</v>
+      </c>
+      <c r="F1257" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1258" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1258" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1258" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1258" s="3">
+        <v>60</v>
+      </c>
+      <c r="F1258" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1259" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1259" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1259" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1259" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1259" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1260" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1260" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1260" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1260" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1260" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1260" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1261" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1261" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1261" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1261" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1261" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1262" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1262" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1262" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1262" s="3">
+        <v>693</v>
+      </c>
+      <c r="F1262" s="9">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1263" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1263" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1263" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1263" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1263" s="3">
+        <v>44</v>
+      </c>
+      <c r="F1263" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1264" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1264" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1264" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1264" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1264" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1265" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1265" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1265" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1265" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1266" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1266" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1266" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1266" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1266" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1267" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1267" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1267" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1267" s="3">
+        <v>203</v>
+      </c>
+      <c r="F1267" s="9">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1268" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1268" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1268" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1268" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1268" s="3">
+        <v>26</v>
+      </c>
+      <c r="F1268" s="9">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1269" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1269" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1269" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1269" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1269" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1269" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1270" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1270" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1270" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1270" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1270" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1271" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1271" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1271" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1271" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1271" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1271" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1272" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1272" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1272" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1272" s="3">
+        <v>242</v>
+      </c>
+      <c r="F1272" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1273" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1273" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1273" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1273" s="3">
+        <v>23</v>
+      </c>
+      <c r="F1273" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1274" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1274" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1274" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1274" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1274" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1275" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1275" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1275" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1275" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1275" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1276" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1276" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1276" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1276" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1276" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1277" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1277" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1277" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1277" s="3">
+        <v>129</v>
+      </c>
+      <c r="F1277" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1278" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1278" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1278" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1278" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1278" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1278" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1279" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1279" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1279" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1279" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1279" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1279" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1280" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1280" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1280" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1280" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1280" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1281" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1281" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1281" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1281" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1281" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB978C9-E574-4299-9653-853C461BE679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894AA95-6FBC-409E-920E-DE17AA473E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2126,6 +2126,29 @@
         <v>142</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2025</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>973</v>
+      </c>
+      <c r="D61">
+        <v>787</v>
+      </c>
+      <c r="E61">
+        <v>182</v>
+      </c>
+      <c r="F61">
+        <v>247</v>
+      </c>
+      <c r="G61" s="17">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,7 +2157,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K60"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3445,6 +3468,29 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2025</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D61">
+        <v>4.91</v>
+      </c>
+      <c r="E61">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F61">
+        <v>4.91</v>
+      </c>
+      <c r="G61">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3453,7 +3499,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1281"/>
+  <dimension ref="A1:L1306"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -29129,6 +29175,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1282" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1282" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1282" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1282" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1282" s="3">
+        <v>898</v>
+      </c>
+      <c r="F1282" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1283" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1283" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1283" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1283" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1283" s="3">
+        <v>63</v>
+      </c>
+      <c r="F1283" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1284" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1284" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1284" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1284" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1284" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1284" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1285" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1285" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1285" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1285" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1285" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1285" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1286" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1286" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1286" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1286" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1286" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1286" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1287" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1287" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1287" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1287" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1287" s="3">
+        <v>724</v>
+      </c>
+      <c r="F1287" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1288" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1288" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1288" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1288" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1288" s="3">
+        <v>55</v>
+      </c>
+      <c r="F1288" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1289" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1289" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1289" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1289" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1289" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1289" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1290" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1290" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1290" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1290" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1290" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1290" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1291" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1291" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1291" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1291" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1291" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1291" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1292" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1292" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1292" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1292" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1292" s="3">
+        <v>156</v>
+      </c>
+      <c r="F1292" s="9">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1293" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1293" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1293" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1293" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1293" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1293" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1294" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1294" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1294" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1294" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1294" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1294" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1295" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1295" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1295" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1295" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1295" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1295" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1296" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1296" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1296" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1296" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1296" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1297" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1297" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1297" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1297" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1297" s="3">
+        <v>232</v>
+      </c>
+      <c r="F1297" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1298" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1298" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1298" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1298" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1298" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1298" s="9">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1299" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1299" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1299" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1299" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1299" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1299" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1300" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1300" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1300" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1300" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1300" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1300" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1301" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1301" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1301" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1301" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1301" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1302" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1302" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1302" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1302" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1302" s="3">
+        <v>108</v>
+      </c>
+      <c r="F1302" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1303" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1303" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1303" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1303" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1303" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1303" s="9">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1304" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1304" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1304" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1304" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1304" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1304" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1305" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1305" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1305" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1305" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1305" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1305" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1306" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1306" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1306" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1306" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1306" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1306" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B894AA95-6FBC-409E-920E-DE17AA473E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312BF94A-F681-4F3D-A67C-142F11188A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2750" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2149,6 +2149,29 @@
         <v>122</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2025</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>909</v>
+      </c>
+      <c r="D62">
+        <v>845</v>
+      </c>
+      <c r="E62">
+        <v>177</v>
+      </c>
+      <c r="F62">
+        <v>248</v>
+      </c>
+      <c r="G62" s="17">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2157,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3491,6 +3514,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2025</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D62">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E62">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="F62">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G62">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3499,7 +3545,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1306"/>
+  <dimension ref="A1:L1331"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -29675,6 +29721,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1307" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1307" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1307" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1307" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1307" s="3">
+        <v>836</v>
+      </c>
+      <c r="F1307" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1308" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1308" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1308" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1308" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1308" s="3">
+        <v>57</v>
+      </c>
+      <c r="F1308" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1309" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1309" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1309" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1309" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1309" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1309" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1310" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1310" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1310" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1310" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1310" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1310" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1311" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1311" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1311" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1311" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1311" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1311" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1312" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1312" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1312" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1312" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1312" s="3">
+        <v>780</v>
+      </c>
+      <c r="F1312" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1313" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1313" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1313" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1313" s="3">
+        <v>54</v>
+      </c>
+      <c r="F1313" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1314" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1314" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1314" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1314" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1314" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1314" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1315" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1315" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1315" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1315" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1315" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1316" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1316" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1316" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1316" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1316" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1316" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1317" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1317" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1317" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1317" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1317" s="3">
+        <v>152</v>
+      </c>
+      <c r="F1317" s="9">
+        <v>0.85899999999999999</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1318" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1318" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1318" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1318" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1318" s="3">
+        <v>21</v>
+      </c>
+      <c r="F1318" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1319" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1319" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1319" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1319" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1319" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1319" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1320" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1320" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1320" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1320" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1320" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1320" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1321" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1321" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1321" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1321" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1321" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1321" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1322" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1322" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1322" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1322" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1322" s="3">
+        <v>227</v>
+      </c>
+      <c r="F1322" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1323" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1323" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1323" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1323" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1323" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1323" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1324" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1324" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1324" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1324" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1324" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1324" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1325" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1325" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1325" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1325" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1325" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1325" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1326" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1326" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1326" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1326" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1326" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1327" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1327" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1327" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1327" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1327" s="3">
+        <v>96</v>
+      </c>
+      <c r="F1327" s="9">
+        <v>0.84199999999999997</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1328" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1328" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1328" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1328" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1328" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1328" s="9">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1329" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1329" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1329" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1329" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1329" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1329" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1330" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1330" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1330" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1330" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1330" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1330" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1331" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1331" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1331" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1331" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1331" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1331" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312BF94A-F681-4F3D-A67C-142F11188A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10ED9E-6AA3-4BCD-A40C-FFDA98462AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2802" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2172,6 +2172,29 @@
         <v>114</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2025</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>994</v>
+      </c>
+      <c r="D63">
+        <v>738</v>
+      </c>
+      <c r="E63">
+        <v>190</v>
+      </c>
+      <c r="F63">
+        <v>231</v>
+      </c>
+      <c r="G63" s="17">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2180,7 +2203,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3537,6 +3560,29 @@
         <v>4.7699999999999996</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2025</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>4.91</v>
+      </c>
+      <c r="D63">
+        <v>4.91</v>
+      </c>
+      <c r="E63">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F63">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G63">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3545,7 +3591,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1331"/>
+  <dimension ref="A1:L1356"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -30221,6 +30267,506 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
+    <row r="1332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1332" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1332" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1332" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1332" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1332" s="3">
+        <v>919</v>
+      </c>
+      <c r="F1332" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1333" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1333" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1333" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1333" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1333" s="3">
+        <v>66</v>
+      </c>
+      <c r="F1333" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1334" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1334" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1334" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1334" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1334" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1334" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1335" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1335" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1335" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1335" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1335" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1335" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1336" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1336" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1336" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1336" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1336" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1336" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1337" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1337" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1337" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1337" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1337" s="3">
+        <v>690</v>
+      </c>
+      <c r="F1337" s="9">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1338" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1338" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1338" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1338" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1338" s="3">
+        <v>37</v>
+      </c>
+      <c r="F1338" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1339" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1339" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1339" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1339" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1339" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1339" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1340" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1340" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1340" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1340" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1340" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1340" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1341" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1341" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1341" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1341" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1341" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1341" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1342" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1342" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1342" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1342" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1342" s="3">
+        <v>170</v>
+      </c>
+      <c r="F1342" s="9">
+        <v>0.89500000000000002</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1343" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1343" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1343" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1343" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1343" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1343" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1344" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1344" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1344" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1344" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1344" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1345" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1345" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1345" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1345" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1345" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1345" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1346" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1346" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1346" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1346" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1346" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1346" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1347" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1347" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1347" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1347" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1347" s="3">
+        <v>210</v>
+      </c>
+      <c r="F1347" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1348" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1348" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1348" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1348" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1348" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1348" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1349" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1349" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1349" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1349" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1349" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1349" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1350" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1350" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1350" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1350" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1350" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1350" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1351" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1351" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1351" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1351" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1351" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1351" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1352" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1352" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1352" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1352" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1352" s="3">
+        <v>100</v>
+      </c>
+      <c r="F1352" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1353" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1353" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1353" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1353" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1353" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1353" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1354" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1354" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1354" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1354" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1354" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1354" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1355" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1355" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1355" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1355" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1355" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1355" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1356" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1356" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1356" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1356" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1356" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1356" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB10ED9E-6AA3-4BCD-A40C-FFDA98462AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B710EA6-0BF9-42E9-AE22-61572CD5FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2854" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2195,6 +2195,29 @@
         <v>108</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2025</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>1062</v>
+      </c>
+      <c r="D64">
+        <v>830</v>
+      </c>
+      <c r="E64">
+        <v>178</v>
+      </c>
+      <c r="F64">
+        <v>246</v>
+      </c>
+      <c r="G64" s="17">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2203,7 +2226,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K64"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3583,6 +3606,29 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2025</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>4.92</v>
+      </c>
+      <c r="D64">
+        <v>4.93</v>
+      </c>
+      <c r="E64">
+        <v>4.79</v>
+      </c>
+      <c r="F64">
+        <v>4.88</v>
+      </c>
+      <c r="G64">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3591,7 +3637,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1356"/>
+  <dimension ref="A1:L1381"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -30767,6 +30813,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1357" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1357" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1357" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1357" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1357" s="3">
+        <v>996</v>
+      </c>
+      <c r="F1357" s="9">
+        <v>0.93799999999999994</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1358" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1358" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1358" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1358" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1358" s="3">
+        <v>50</v>
+      </c>
+      <c r="F1358" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1359" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1359" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1359" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1359" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1359" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1359" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1360" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1360" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1360" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1360" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1360" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1360" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1361" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1361" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1361" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1361" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1361" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1361" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1362" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1362" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1362" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1362" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1362" s="3">
+        <v>785</v>
+      </c>
+      <c r="F1362" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1363" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1363" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1363" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1363" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1363" s="3">
+        <v>34</v>
+      </c>
+      <c r="F1363" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1364" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1364" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1364" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1364" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1364" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1364" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1365" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1365" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1365" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1365" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1365" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1365" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1366" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1366" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1366" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1366" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1366" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1366" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1367" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1367" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1367" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1367" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1367" s="3">
+        <v>156</v>
+      </c>
+      <c r="F1367" s="9">
+        <v>0.876</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1368" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1368" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1368" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1368" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1368" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1368" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1369" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1369" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1369" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1369" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1369" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1369" s="9">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1370" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1370" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1370" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1370" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1370" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1370" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1371" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1371" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1371" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1371" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1371" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1371" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1372" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1372" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1372" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1372" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1372" s="3">
+        <v>219</v>
+      </c>
+      <c r="F1372" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1373" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1373" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1373" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1373" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1373" s="3">
+        <v>24</v>
+      </c>
+      <c r="F1373" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1374" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1374" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1374" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1374" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1374" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1374" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1375" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1375" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1375" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1375" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1375" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1375" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1376" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1376" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1376" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1376" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1376" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1376" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1377" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1377" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1377" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1377" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1377" s="3">
+        <v>123</v>
+      </c>
+      <c r="F1377" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1378" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1378" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1378" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1378" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1378" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1378" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1379" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1379" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1379" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1379" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1379" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1379" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1380" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1380" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1380" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1380" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1380" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1380" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1381" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1381" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1381" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1381" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1381" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1381" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B710EA6-0BF9-42E9-AE22-61572CD5FC6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC80D7-D74D-4132-B0E9-3DA2E4252C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,18 +852,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -2216,6 +2216,29 @@
       </c>
       <c r="G64" s="17">
         <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2025</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>1025</v>
+      </c>
+      <c r="D65">
+        <v>808</v>
+      </c>
+      <c r="E65">
+        <v>170</v>
+      </c>
+      <c r="F65">
+        <v>214</v>
+      </c>
+      <c r="G65" s="17">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2226,15 +2249,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K64"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -2635,7 +2658,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -2656,7 +2679,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -2677,7 +2700,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -2698,7 +2721,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -2719,7 +2742,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -2740,7 +2763,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -2761,7 +2784,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -2782,7 +2805,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -2803,7 +2826,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -2824,7 +2847,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -2845,7 +2868,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -2866,7 +2889,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -2887,7 +2910,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -2908,7 +2931,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -2929,7 +2952,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -2950,7 +2973,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -2971,7 +2994,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -2992,7 +3015,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -3013,7 +3036,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -3034,7 +3057,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -3055,7 +3078,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -3076,7 +3099,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -3627,6 +3650,29 @@
       </c>
       <c r="G64">
         <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2025</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D65">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E65">
+        <v>4.84</v>
+      </c>
+      <c r="F65">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G65">
+        <v>4.96</v>
       </c>
     </row>
   </sheetData>
@@ -3637,19 +3683,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1381"/>
+  <dimension ref="A1:L1406"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="3"/>
-    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="3" width="8.90625" style="2"/>
+    <col min="4" max="4" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" style="3"/>
+    <col min="6" max="6" width="9.6328125" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -31310,6 +31356,506 @@
         <v>0</v>
       </c>
       <c r="F1381" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1382" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1382" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1382" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1382" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1382" s="3">
+        <v>939</v>
+      </c>
+      <c r="F1382" s="9">
+        <v>0.91600000000000004</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1383" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1383" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1383" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1383" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1383" s="3">
+        <v>66</v>
+      </c>
+      <c r="F1383" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1384" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1384" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1384" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1384" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1384" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1384" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1385" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1385" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1385" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1385" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1385" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1385" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1386" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1386" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1386" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1386" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1386" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1386" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1387" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1387" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1387" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1387" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1387" s="3">
+        <v>748</v>
+      </c>
+      <c r="F1387" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1388" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1388" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1388" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1388" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1388" s="3">
+        <v>45</v>
+      </c>
+      <c r="F1388" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1389" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1389" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1389" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1389" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1389" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1389" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1390" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1390" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1390" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1390" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1390" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1390" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1391" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1391" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1391" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1391" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1391" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1391" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1392" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1392" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1392" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1392" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1392" s="3">
+        <v>145</v>
+      </c>
+      <c r="F1392" s="9">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1393" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1393" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1393" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1393" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1393" s="3">
+        <v>23</v>
+      </c>
+      <c r="F1393" s="9">
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1394" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1394" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1394" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1394" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1394" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1394" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1395" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1395" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1395" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1395" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1395" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1395" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1396" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1396" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1396" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1396" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1396" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1396" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1397" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1397" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1397" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1397" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1397" s="3">
+        <v>190</v>
+      </c>
+      <c r="F1397" s="9">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1398" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1398" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1398" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1398" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1398" s="3">
+        <v>19</v>
+      </c>
+      <c r="F1398" s="9">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1399" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1399" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1399" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1399" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1399" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1399" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1400" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1400" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1400" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1400" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1400" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1400" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1401" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1401" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1401" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1401" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1401" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1401" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1402" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1402" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1402" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1402" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1402" s="3">
+        <v>106</v>
+      </c>
+      <c r="F1402" s="9">
+        <v>0.96399999999999997</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1403" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1403" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1403" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1403" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1403" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1403" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1404" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1404" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1404" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1404" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1404" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1404" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1405" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1405" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1405" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1405" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1405" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1405" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1406" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1406" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1406" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1406" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1406" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1406" s="9">
         <v>0</v>
       </c>
     </row>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC80D7-D74D-4132-B0E9-3DA2E4252C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60188087-85E4-4CA4-8332-B48BCD24F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2958" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,18 +852,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="11" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -1546,7 +1546,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -2239,6 +2239,29 @@
       </c>
       <c r="G65" s="17">
         <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2025</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>1010</v>
+      </c>
+      <c r="D66">
+        <v>847</v>
+      </c>
+      <c r="E66">
+        <v>135</v>
+      </c>
+      <c r="F66">
+        <v>241</v>
+      </c>
+      <c r="G66" s="17">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2249,15 +2272,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
@@ -2658,7 +2681,7 @@
       </c>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>2024</v>
       </c>
@@ -2679,7 +2702,7 @@
       </c>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>2024</v>
       </c>
@@ -2700,7 +2723,7 @@
       </c>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>2024</v>
       </c>
@@ -2721,7 +2744,7 @@
       </c>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>2024</v>
       </c>
@@ -2742,7 +2765,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>2024</v>
       </c>
@@ -2763,7 +2786,7 @@
       </c>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2024</v>
       </c>
@@ -2784,7 +2807,7 @@
       </c>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2024</v>
       </c>
@@ -2805,7 +2828,7 @@
       </c>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2024</v>
       </c>
@@ -2826,7 +2849,7 @@
       </c>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>2024</v>
       </c>
@@ -2847,7 +2870,7 @@
       </c>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>2024</v>
       </c>
@@ -2868,7 +2891,7 @@
       </c>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>2024</v>
       </c>
@@ -2889,7 +2912,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>2024</v>
       </c>
@@ -2910,7 +2933,7 @@
       </c>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>2024</v>
       </c>
@@ -2931,7 +2954,7 @@
       </c>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>2024</v>
       </c>
@@ -2952,7 +2975,7 @@
       </c>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>2024</v>
       </c>
@@ -2973,7 +2996,7 @@
       </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>2024</v>
       </c>
@@ -2994,7 +3017,7 @@
       </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>2024</v>
       </c>
@@ -3015,7 +3038,7 @@
       </c>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2024</v>
       </c>
@@ -3036,7 +3059,7 @@
       </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>2024</v>
       </c>
@@ -3057,7 +3080,7 @@
       </c>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2024</v>
       </c>
@@ -3078,7 +3101,7 @@
       </c>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>2024</v>
       </c>
@@ -3099,7 +3122,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>2025</v>
       </c>
@@ -3672,6 +3695,29 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="G65">
+        <v>4.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2025</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D66">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E66">
+        <v>4.88</v>
+      </c>
+      <c r="F66">
+        <v>4.88</v>
+      </c>
+      <c r="G66">
         <v>4.96</v>
       </c>
     </row>
@@ -3683,19 +3729,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1406"/>
+  <dimension ref="A1:L1431"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.90625" style="2"/>
-    <col min="4" max="4" width="11.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.90625" style="3"/>
-    <col min="6" max="6" width="9.6328125" style="9" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="2"/>
+    <col min="1" max="3" width="8.88671875" style="2"/>
+    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3"/>
+    <col min="6" max="6" width="9.6640625" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -31856,6 +31902,506 @@
         <v>0</v>
       </c>
       <c r="F1406" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1407" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1407" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1407" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1407" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1407" s="3">
+        <v>911</v>
+      </c>
+      <c r="F1407" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1408" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1408" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1408" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1408" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1408" s="3">
+        <v>89</v>
+      </c>
+      <c r="F1408" s="9">
+        <v>8.7999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1409" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1409" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1409" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1409" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1409" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1409" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1410" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1410" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1410" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1410" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1410" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1410" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1411" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1411" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1411" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1411" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1411" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1411" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1412" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1412" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1412" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1412" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1412" s="3">
+        <v>769</v>
+      </c>
+      <c r="F1412" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1413" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1413" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1413" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1413" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1413" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1413" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1414" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1414" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1414" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1414" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1414" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1415" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1415" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1415" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1415" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1415" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1415" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1416" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1416" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1416" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1416" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1416" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1416" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1417" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1417" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1417" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1417" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1417" s="3">
+        <v>119</v>
+      </c>
+      <c r="F1417" s="9">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1418" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1418" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1418" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1418" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1418" s="3">
+        <v>16</v>
+      </c>
+      <c r="F1418" s="9">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1419" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1419" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1419" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1419" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1419" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1419" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1420" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1420" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1420" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1420" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1420" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1420" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1421" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1421" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1421" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1421" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1421" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1421" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1422" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1422" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1422" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1422" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1422" s="3">
+        <v>217</v>
+      </c>
+      <c r="F1422" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1423" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1423" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1423" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1423" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1423" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1423" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1424" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1424" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1424" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1424" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1424" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1424" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1425" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1425" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1425" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1425" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1425" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1425" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1426" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1426" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1426" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1426" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1426" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1426" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1427" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1427" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1427" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1427" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1427" s="3">
+        <v>113</v>
+      </c>
+      <c r="F1427" s="9">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1428" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1428" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1428" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1428" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1428" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1428" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1429" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1429" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1429" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1429" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1429" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1429" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1430" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1430" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1430" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1430" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1430" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1430" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1431" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1431" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1431" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1431" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1431" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1431" s="9">
         <v>0</v>
       </c>
     </row>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60188087-85E4-4CA4-8332-B48BCD24F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17695C-6A12-45C2-9F96-A5C8F779B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3010" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G66"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2264,6 +2264,29 @@
         <v>117</v>
       </c>
     </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <v>991</v>
+      </c>
+      <c r="D67">
+        <v>934</v>
+      </c>
+      <c r="E67">
+        <v>149</v>
+      </c>
+      <c r="F67">
+        <v>214</v>
+      </c>
+      <c r="G67" s="17">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2272,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K66"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3721,6 +3744,29 @@
         <v>4.96</v>
       </c>
     </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2025</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D67">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E67">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F67">
+        <v>4.91</v>
+      </c>
+      <c r="G67">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3729,7 +3775,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1431"/>
+  <dimension ref="A1:L1456"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -32405,6 +32451,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1432" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1432" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1432" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1432" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1432" s="3">
+        <v>914</v>
+      </c>
+      <c r="F1432" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1433" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1433" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1433" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1433" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1433" s="3">
+        <v>61</v>
+      </c>
+      <c r="F1433" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1434" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1434" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1434" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1434" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1434" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1434" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1435" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1435" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1435" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1435" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1435" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1435" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1436" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1436" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1436" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1436" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1436" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1436" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1437" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1437" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1437" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1437" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1437" s="3">
+        <v>855</v>
+      </c>
+      <c r="F1437" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1438" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1438" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1438" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1438" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1438" s="3">
+        <v>62</v>
+      </c>
+      <c r="F1438" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1439" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1439" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1439" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1439" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1439" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1439" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1440" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1440" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1440" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1440" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1440" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1440" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1441" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1441" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1441" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1441" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1441" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1441" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1442" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1442" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1442" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1442" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1442" s="3">
+        <v>138</v>
+      </c>
+      <c r="F1442" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1443" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1443" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1443" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1443" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1443" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1443" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1444" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1444" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1444" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1444" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1444" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1444" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1445" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1445" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1445" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1445" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1445" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1445" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1446" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1446" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1446" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1446" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1446" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1446" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1447" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1447" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1447" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1447" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1447" s="3">
+        <v>198</v>
+      </c>
+      <c r="F1447" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1448" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1448" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1448" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1448" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1448" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1448" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1449" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1449" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1449" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1449" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1449" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1449" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1450" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1450" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1450" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1450" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1450" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1450" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1451" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1451" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1451" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1451" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1451" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1451" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1452" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1452" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1452" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1452" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1452" s="3">
+        <v>115</v>
+      </c>
+      <c r="F1452" s="9">
+        <v>0.90600000000000003</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1453" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1453" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1453" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1453" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1453" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1453" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1454" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1454" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1454" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1454" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1454" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1454" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1455" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1455" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1455" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1455" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1455" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1455" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1456" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1456" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1456" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1456" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1456" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1456" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B17695C-6A12-45C2-9F96-A5C8F779B680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F34F6A-2240-4878-ACF4-0F55D574676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2287,6 +2287,29 @@
         <v>127</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2025</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>1006</v>
+      </c>
+      <c r="D68">
+        <v>861</v>
+      </c>
+      <c r="E68">
+        <v>161</v>
+      </c>
+      <c r="F68">
+        <v>230</v>
+      </c>
+      <c r="G68" s="17">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,7 +2318,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K68"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3767,6 +3790,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2025</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68">
+        <v>4.91</v>
+      </c>
+      <c r="D68">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E68">
+        <v>4.91</v>
+      </c>
+      <c r="F68">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G68">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3775,7 +3821,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1456"/>
+  <dimension ref="A1:L1481"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -32951,6 +32997,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1457" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1457" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1457" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1457" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1457" s="3">
+        <v>930</v>
+      </c>
+      <c r="F1457" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1458" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1458" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1458" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1458" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1458" s="3">
+        <v>66</v>
+      </c>
+      <c r="F1458" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1459" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1459" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1459" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1459" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1459" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1459" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1460" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1460" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1460" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1460" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1460" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1460" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1461" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1461" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1461" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1461" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1461" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1461" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1462" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1462" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1462" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1462" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1462" s="3">
+        <v>785</v>
+      </c>
+      <c r="F1462" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1463" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1463" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1463" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1463" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1463" s="3">
+        <v>64</v>
+      </c>
+      <c r="F1463" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1464" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1464" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1464" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1464" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1464" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1464" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1465" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1465" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1465" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1465" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1465" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1465" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1466" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1466" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1466" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1466" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1466" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1466" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1467" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1467" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1467" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1467" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1467" s="3">
+        <v>148</v>
+      </c>
+      <c r="F1467" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1468" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1468" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1468" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1468" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1468" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1468" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1469" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1469" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1469" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1469" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1469" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1469" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1470" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1470" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1470" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1470" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1470" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1470" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1471" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1471" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1471" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1471" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1471" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1471" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1472" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1472" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1472" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1472" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1472" s="3">
+        <v>208</v>
+      </c>
+      <c r="F1472" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1473" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1473" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1473" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1473" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1473" s="3">
+        <v>19</v>
+      </c>
+      <c r="F1473" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1474" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1474" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1474" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1474" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1474" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1474" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1475" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1475" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1475" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1475" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1475" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1475" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1476" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1476" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1476" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1476" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1476" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1476" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1477" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1477" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1477" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1477" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1477" s="3">
+        <v>137</v>
+      </c>
+      <c r="F1477" s="9">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1478" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1478" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1478" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1478" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1478" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1478" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1479" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1479" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1479" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1479" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1479" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1479" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1480" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1480" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1480" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1480" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1480" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1480" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1481" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1481" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1481" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1481" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1481" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1481" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F34F6A-2240-4878-ACF4-0F55D574676B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9509BDE6-C5D2-457D-8862-37F72F069BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G68"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2310,6 +2310,29 @@
         <v>145</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2025</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69">
+        <v>1020</v>
+      </c>
+      <c r="D69">
+        <v>895</v>
+      </c>
+      <c r="E69">
+        <v>185</v>
+      </c>
+      <c r="F69">
+        <v>235</v>
+      </c>
+      <c r="G69" s="17">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2318,7 +2341,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K68"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3813,6 +3836,29 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2025</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69">
+        <v>4.91</v>
+      </c>
+      <c r="D69">
+        <v>4.88</v>
+      </c>
+      <c r="E69">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F69">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G69">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3821,7 +3867,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1481"/>
+  <dimension ref="A1:L1506"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -33497,6 +33543,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1482" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1482" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1482" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1482" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1482" s="3">
+        <v>948</v>
+      </c>
+      <c r="F1482" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1483" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1483" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1483" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1483" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1483" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1483" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1484" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1484" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1484" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1484" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1484" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1484" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1485" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1485" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1485" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1485" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1485" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1485" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1486" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1486" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1486" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1486" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1486" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1486" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1487" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1487" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1487" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1487" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1487" s="3">
+        <v>818</v>
+      </c>
+      <c r="F1487" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1488" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1488" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1488" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1488" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1488" s="3">
+        <v>60</v>
+      </c>
+      <c r="F1488" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1489" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1489" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1489" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1489" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1489" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1489" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1490" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1490" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1490" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1490" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1490" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1490" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1491" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1491" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1491" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1491" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1491" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1491" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1492" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1492" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1492" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1492" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1492" s="3">
+        <v>157</v>
+      </c>
+      <c r="F1492" s="9">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1493" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1493" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1493" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1493" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1493" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1493" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1494" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1494" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1494" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1494" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1494" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1494" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1495" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1495" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1495" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1495" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1495" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1495" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1496" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1496" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1496" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1496" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1496" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1496" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1497" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1497" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1497" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1497" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1497" s="3">
+        <v>211</v>
+      </c>
+      <c r="F1497" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1498" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1498" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1498" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1498" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1498" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1498" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1499" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1499" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1499" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1499" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1499" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1499" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1500" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1500" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1500" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1500" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1500" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1500" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1501" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1501" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1501" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1501" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1501" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1501" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1502" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1502" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1502" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1502" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1502" s="3">
+        <v>124</v>
+      </c>
+      <c r="F1502" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1503" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1503" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1503" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1503" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1503" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1503" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1504" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1504" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1504" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1504" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1504" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1504" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1505" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1505" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1505" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1505" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1505" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1505" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1506" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1506" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1506" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1506" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1506" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1506" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9509BDE6-C5D2-457D-8862-37F72F069BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD93A14-7635-43EE-BE71-960813FF7E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3166" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2333,6 +2333,29 @@
         <v>132</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2025</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>941</v>
+      </c>
+      <c r="D70">
+        <v>870</v>
+      </c>
+      <c r="E70">
+        <v>158</v>
+      </c>
+      <c r="F70">
+        <v>223</v>
+      </c>
+      <c r="G70" s="17">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3859,6 +3882,29 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2025</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D70">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E70">
+        <v>4.82</v>
+      </c>
+      <c r="F70">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G70">
+        <v>4.83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3867,7 +3913,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1506"/>
+  <dimension ref="A1:L1531"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -34043,6 +34089,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1507" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1507" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1507" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1507" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1507" s="3">
+        <v>860</v>
+      </c>
+      <c r="F1507" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1508" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1508" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1508" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1508" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1508" s="3">
+        <v>67</v>
+      </c>
+      <c r="F1508" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1509" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1509" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1509" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1509" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1509" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1509" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1510" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1510" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1510" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1510" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1510" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1510" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1511" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1511" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1511" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1511" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1511" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1511" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1512" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1512" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1512" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1512" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1512" s="3">
+        <v>800</v>
+      </c>
+      <c r="F1512" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1513" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1513" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1513" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1513" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1513" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1513" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1514" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1514" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1514" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1514" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1514" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1514" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1515" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1515" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1515" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1515" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1515" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1515" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1516" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1516" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1516" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1516" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1516" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1516" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1517" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1517" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1517" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1517" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1517" s="3">
+        <v>138</v>
+      </c>
+      <c r="F1517" s="9">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1518" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1518" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1518" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1518" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1518" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1518" s="9">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1519" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1519" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1519" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1519" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1519" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1519" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1520" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1520" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1520" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1520" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1520" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1520" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1521" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1521" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1521" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1521" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1521" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1521" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1522" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1522" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1522" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1522" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1522" s="3">
+        <v>195</v>
+      </c>
+      <c r="F1522" s="9">
+        <v>0.874</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1523" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1523" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1523" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1523" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1523" s="3">
+        <v>26</v>
+      </c>
+      <c r="F1523" s="9">
+        <v>0.11700000000000001</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1524" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1524" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1524" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1524" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1524" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1524" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1525" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1525" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1525" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1525" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1525" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1525" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1526" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1526" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1526" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1526" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1526" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1526" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1527" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1527" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1527" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1527" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1527" s="3">
+        <v>114</v>
+      </c>
+      <c r="F1527" s="9">
+        <v>0.86399999999999999</v>
+      </c>
+    </row>
+    <row r="1528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1528" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1528" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1528" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1528" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1528" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1528" s="9">
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="1529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1529" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1529" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1529" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1529" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1529" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1529" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="1530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1530" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1530" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1530" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1530" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1530" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1530" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1531" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1531" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1531" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1531" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1531" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1531" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD93A14-7635-43EE-BE71-960813FF7E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86904D95-50F4-4130-A484-83A463333995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3218" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
@@ -2356,6 +2356,29 @@
         <v>132</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2025</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>940</v>
+      </c>
+      <c r="D71">
+        <v>811</v>
+      </c>
+      <c r="E71">
+        <v>156</v>
+      </c>
+      <c r="F71">
+        <v>243</v>
+      </c>
+      <c r="G71" s="17">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2364,7 +2387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3905,6 +3928,29 @@
         <v>4.83</v>
       </c>
     </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2025</v>
+      </c>
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C71">
+        <v>4.91</v>
+      </c>
+      <c r="D71">
+        <v>4.93</v>
+      </c>
+      <c r="E71">
+        <v>4.83</v>
+      </c>
+      <c r="F71">
+        <v>4.84</v>
+      </c>
+      <c r="G71">
+        <v>4.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3913,7 +3959,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1531"/>
+  <dimension ref="A1:L1556"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -34589,6 +34635,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1532" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1532" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1532" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1532" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1532" s="3">
+        <v>872</v>
+      </c>
+      <c r="F1532" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="1533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1533" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1533" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1533" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1533" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1533" s="3">
+        <v>55</v>
+      </c>
+      <c r="F1533" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1534" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1534" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1534" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1534" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1534" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1534" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1535" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1535" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1535" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1535" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1535" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1535" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1536" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1536" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1536" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1536" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1536" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1536" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1537" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1537" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1537" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1537" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1537" s="3">
+        <v>767</v>
+      </c>
+      <c r="F1537" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1538" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1538" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1538" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1538" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1538" s="3">
+        <v>35</v>
+      </c>
+      <c r="F1538" s="9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1539" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1539" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1539" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1539" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1539" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1539" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1540" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1540" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1540" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1540" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1540" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1540" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1541" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1541" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1541" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1541" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1541" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1541" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1542" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1542" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1542" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1542" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1542" s="3">
+        <v>138</v>
+      </c>
+      <c r="F1542" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1543" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1543" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1543" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1543" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1543" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1543" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1544" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1544" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1544" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1544" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1544" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1544" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1545" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1545" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1545" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1545" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1545" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1545" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1546" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1546" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1546" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1546" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1546" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1546" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1547" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1547" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1547" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1547" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1547" s="3">
+        <v>216</v>
+      </c>
+      <c r="F1547" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1548" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1548" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1548" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1548" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1548" s="3">
+        <v>19</v>
+      </c>
+      <c r="F1548" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1549" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1549" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1549" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1549" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1549" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1549" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1550" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1550" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1550" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1550" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1550" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1550" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1551" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1551" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1551" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1551" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1551" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1551" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1552" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1552" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1552" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1552" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1552" s="3">
+        <v>125</v>
+      </c>
+      <c r="F1552" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1553" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1553" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1553" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1553" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1553" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1553" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1554" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1554" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1554" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1554" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1554" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1554" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1555" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1555" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1555" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1555" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1555" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1555" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1556" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1556" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1556" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1556" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1556" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1556" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86904D95-50F4-4130-A484-83A463333995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F19822-9FE9-453E-9637-B1E33D09CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="7560" yWindow="2655" windowWidth="28800" windowHeight="11325" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,10 +852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:XFD72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2379,6 +2379,29 @@
         <v>142</v>
       </c>
     </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2025</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <v>1008</v>
+      </c>
+      <c r="D72">
+        <v>924</v>
+      </c>
+      <c r="E72">
+        <v>104</v>
+      </c>
+      <c r="F72">
+        <v>214</v>
+      </c>
+      <c r="G72" s="17">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2387,7 +2410,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3951,6 +3974,29 @@
         <v>4.82</v>
       </c>
     </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2025</v>
+      </c>
+      <c r="B72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C72">
+        <v>4.93</v>
+      </c>
+      <c r="D72">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E72">
+        <v>4.88</v>
+      </c>
+      <c r="F72">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G72">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3959,7 +4005,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1556"/>
+  <dimension ref="A1:L1581"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -35135,6 +35181,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1557" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1557" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1557" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1557" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1557" s="3">
+        <v>950</v>
+      </c>
+      <c r="F1557" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1558" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1558" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1558" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1558" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1558" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1558" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1559" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1559" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1559" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1559" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1559" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1559" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1560" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1560" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1560" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1560" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1560" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1560" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1561" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1561" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1561" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1561" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1561" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1561" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1562" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1562" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1562" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1562" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1562" s="3">
+        <v>845</v>
+      </c>
+      <c r="F1562" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1563" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1563" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1563" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1563" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1563" s="3">
+        <v>64</v>
+      </c>
+      <c r="F1563" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1564" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1564" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1564" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1564" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1564" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1564" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1565" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1565" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1565" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1565" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1565" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1565" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1566" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1566" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1566" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1566" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1566" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1566" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1567" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1567" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1567" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1567" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1567" s="3">
+        <v>92</v>
+      </c>
+      <c r="F1567" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="1568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1568" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1568" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1568" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1568" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1568" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1568" s="9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="1569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1569" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1569" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1569" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1569" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1569" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1569" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1570" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1570" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1570" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1570" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1570" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1570" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1571" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1571" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1571" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1571" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1571" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1571" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1572" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1572" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1572" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1572" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1572" s="3">
+        <v>194</v>
+      </c>
+      <c r="F1572" s="9">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="1573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1573" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1573" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1573" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1573" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1573" s="3">
+        <v>18</v>
+      </c>
+      <c r="F1573" s="9">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1574" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1574" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1574" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1574" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1574" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1574" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1575" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1575" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1575" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1575" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1575" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1575" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1576" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1576" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1576" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1576" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1576" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1576" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1577" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1577" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1577" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1577" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1577" s="3">
+        <v>118</v>
+      </c>
+      <c r="F1577" s="9">
+        <v>0.90800000000000003</v>
+      </c>
+    </row>
+    <row r="1578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1578" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1578" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1578" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1578" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1578" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1578" s="9">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1579" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1579" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1579" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1579" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1579" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1579" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1580" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1580" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1580" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1580" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1580" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1580" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1581" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1581" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1581" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1581" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1581" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1581" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F19822-9FE9-453E-9637-B1E33D09CE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C054707-0AAA-4D19-B480-E6F5E9686BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7560" yWindow="2655" windowWidth="28800" windowHeight="11325" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3322" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2402,6 +2402,29 @@
         <v>130</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>873</v>
+      </c>
+      <c r="D73">
+        <v>758</v>
+      </c>
+      <c r="E73">
+        <v>121</v>
+      </c>
+      <c r="F73">
+        <v>190</v>
+      </c>
+      <c r="G73" s="17">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2410,7 +2433,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -3997,6 +4020,29 @@
         <v>4.8899999999999997</v>
       </c>
     </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>43</v>
+      </c>
+      <c r="C73">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D73">
+        <v>4.92</v>
+      </c>
+      <c r="E73">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F73">
+        <v>4.84</v>
+      </c>
+      <c r="G73">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4005,7 +4051,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1581"/>
+  <dimension ref="A1:L1606"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -35681,6 +35727,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1582" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1582" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1582" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1582" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1582" s="3">
+        <v>806</v>
+      </c>
+      <c r="F1582" s="9">
+        <v>0.92300000000000004</v>
+      </c>
+    </row>
+    <row r="1583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1583" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1583" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1583" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1583" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1583" s="3">
+        <v>50</v>
+      </c>
+      <c r="F1583" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1584" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1584" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1584" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1584" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1584" s="3">
+        <v>12</v>
+      </c>
+      <c r="F1584" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1585" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1585" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1585" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1585" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1585" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1585" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1586" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1586" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1586" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1586" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1586" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1586" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1587" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1587" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1587" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1587" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1587" s="3">
+        <v>708</v>
+      </c>
+      <c r="F1587" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="1588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1588" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1588" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1588" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1588" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1588" s="3">
+        <v>43</v>
+      </c>
+      <c r="F1588" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1589" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1589" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1589" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1589" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1589" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1589" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1590" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1590" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1590" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1590" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1590" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1590" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1591" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1591" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1591" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1591" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1591" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1591" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1592" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1592" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1592" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1592" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1592" s="3">
+        <v>109</v>
+      </c>
+      <c r="F1592" s="9">
+        <v>0.90100000000000002</v>
+      </c>
+    </row>
+    <row r="1593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1593" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1593" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1593" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1593" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1593" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1593" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1594" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1594" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1594" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1594" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1594" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1594" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1595" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1595" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1595" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1595" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1595" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1595" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1596" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1596" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1596" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1596" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1596" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1596" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1597" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1597" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1597" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1597" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1597" s="3">
+        <v>163</v>
+      </c>
+      <c r="F1597" s="9">
+        <v>0.85799999999999998</v>
+      </c>
+    </row>
+    <row r="1598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1598" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1598" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1598" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1598" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1598" s="3">
+        <v>23</v>
+      </c>
+      <c r="F1598" s="9">
+        <v>0.121</v>
+      </c>
+    </row>
+    <row r="1599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1599" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1599" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1599" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1599" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1599" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1599" s="9">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1600" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1600" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1600" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1600" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1600" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1600" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1601" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1601" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1601" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1601" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1601" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1601" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1602" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1602" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1602" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1602" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1602" s="3">
+        <v>135</v>
+      </c>
+      <c r="F1602" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="1603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1603" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1603" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1603" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1603" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1603" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1603" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="1604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1604" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1604" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1604" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1604" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1604" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1604" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1605" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1605" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1605" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1605" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1605" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1605" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1606" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1606" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1606" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1606" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1606" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1606" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C054707-0AAA-4D19-B480-E6F5E9686BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B6076A-607C-47D7-B886-33A978086C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2425,6 +2425,29 @@
         <v>146</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2025</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>1052</v>
+      </c>
+      <c r="D74">
+        <v>894</v>
+      </c>
+      <c r="E74">
+        <v>122</v>
+      </c>
+      <c r="F74">
+        <v>236</v>
+      </c>
+      <c r="G74" s="17">
+        <v>151</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2433,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4043,6 +4066,29 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2025</v>
+      </c>
+      <c r="B74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C74">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D74">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E74">
+        <v>4.93</v>
+      </c>
+      <c r="F74">
+        <v>4.84</v>
+      </c>
+      <c r="G74">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4051,7 +4097,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1606"/>
+  <dimension ref="A1:L1631"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -36227,6 +36273,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1607" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1607" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1607" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1607" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1607" s="3">
+        <v>963</v>
+      </c>
+      <c r="F1607" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1608" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1608" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1608" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1608" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1608" s="3">
+        <v>69</v>
+      </c>
+      <c r="F1608" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1609" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1609" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1609" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1609" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1609" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1609" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1610" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1610" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1610" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1610" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1610" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1610" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1611" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1611" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1611" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1611" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1611" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1611" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1612" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1612" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1612" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1612" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1612" s="3">
+        <v>826</v>
+      </c>
+      <c r="F1612" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1613" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1613" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1613" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1613" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1613" s="3">
+        <v>55</v>
+      </c>
+      <c r="F1613" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1614" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1614" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1614" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1614" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1614" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1614" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1615" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1615" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1615" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1615" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1615" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1615" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1616" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1616" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1616" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1616" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1616" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1616" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1617" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1617" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1617" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1617" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1617" s="3">
+        <v>113</v>
+      </c>
+      <c r="F1617" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1618" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1618" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1618" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1618" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1618" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1618" s="9">
+        <v>7.3999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1619" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1619" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1619" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1619" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1619" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1619" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1620" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1620" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1620" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1620" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1620" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1620" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1621" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1621" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1621" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1621" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1621" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1621" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1622" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1622" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1622" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1622" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1622" s="3">
+        <v>213</v>
+      </c>
+      <c r="F1622" s="9">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1623" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1623" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1623" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1623" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1623" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1623" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1624" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1624" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1624" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1624" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1624" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1624" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1625" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1625" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1625" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1625" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1625" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1625" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1626" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1626" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1626" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1626" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1626" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1626" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1627" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1627" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1627" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1627" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1627" s="3">
+        <v>139</v>
+      </c>
+      <c r="F1627" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1628" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1628" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1628" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1628" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1628" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1628" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1629" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1629" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1629" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1629" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1629" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1629" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1630" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1630" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1630" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1630" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1630" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1630" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1631" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1631" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1631" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1631" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1631" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1631" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B6076A-607C-47D7-B886-33A978086C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AF367-A4A8-485B-B5CA-B1151301C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2448,6 +2448,29 @@
         <v>151</v>
       </c>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>1009</v>
+      </c>
+      <c r="D75">
+        <v>942</v>
+      </c>
+      <c r="E75">
+        <v>122</v>
+      </c>
+      <c r="F75">
+        <v>199</v>
+      </c>
+      <c r="G75" s="17">
+        <v>150</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2456,7 +2479,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4089,6 +4112,29 @@
         <v>4.87</v>
       </c>
     </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2025</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D75">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E75">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F75">
+        <v>4.87</v>
+      </c>
+      <c r="G75">
+        <v>4.8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4097,7 +4143,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1631"/>
+  <dimension ref="A1:L1656"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -36773,6 +36819,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1632" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1632" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1632" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1632" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1632" s="3">
+        <v>932</v>
+      </c>
+      <c r="F1632" s="9">
+        <v>0.92400000000000004</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1633" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1633" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1633" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1633" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1633" s="3">
+        <v>62</v>
+      </c>
+      <c r="F1633" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1634" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1634" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1634" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1634" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1634" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1634" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1635" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1635" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1635" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1635" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1635" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1635" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1636" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1636" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1636" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1636" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1636" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1636" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1637" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1637" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1637" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1637" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1637" s="3">
+        <v>868</v>
+      </c>
+      <c r="F1637" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1638" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1638" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1638" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1638" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1638" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1638" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1639" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1639" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1639" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1639" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1639" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1639" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1640" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1640" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1640" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1640" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1640" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1640" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1641" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1641" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1641" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1641" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1641" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1641" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1642" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1642" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1642" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1642" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1642" s="3">
+        <v>112</v>
+      </c>
+      <c r="F1642" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1643" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1643" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1643" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1643" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1643" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1643" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1644" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1644" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1644" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1644" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1644" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1644" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1645" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1645" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1645" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1645" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1645" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1645" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1646" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1646" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1646" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1646" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1646" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1646" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1647" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1647" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1647" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1647" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1647" s="3">
+        <v>179</v>
+      </c>
+      <c r="F1647" s="9">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1648" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1648" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1648" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1648" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1648" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1648" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1649" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1649" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1649" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1649" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1649" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1649" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1650" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1650" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1650" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1650" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1650" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1650" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1651" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1651" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1651" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1651" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1651" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1651" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1652" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1652" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1652" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1652" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1652" s="3">
+        <v>126</v>
+      </c>
+      <c r="F1652" s="9">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1653" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1653" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1653" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1653" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1653" s="3">
+        <v>18</v>
+      </c>
+      <c r="F1653" s="9">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1654" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1654" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1654" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1654" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1654" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1654" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1655" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1655" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1655" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1655" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1655" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1655" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1656" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1656" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1656" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1656" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1656" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1656" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613AF367-A4A8-485B-B5CA-B1151301C8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57EB49-481E-4A12-A2BD-5884D6125E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3478" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2471,6 +2471,29 @@
         <v>150</v>
       </c>
     </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76">
+        <v>980</v>
+      </c>
+      <c r="D76">
+        <v>953</v>
+      </c>
+      <c r="E76">
+        <v>102</v>
+      </c>
+      <c r="F76">
+        <v>211</v>
+      </c>
+      <c r="G76" s="17">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2479,7 +2502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K76"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4135,6 +4158,29 @@
         <v>4.8</v>
       </c>
     </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D76">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E76">
+        <v>4.84</v>
+      </c>
+      <c r="F76">
+        <v>4.88</v>
+      </c>
+      <c r="G76">
+        <v>4.84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,7 +4189,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1656"/>
+  <dimension ref="A1:L1681"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -37319,6 +37365,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1657" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1657" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1657" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1657" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1657" s="3">
+        <v>904</v>
+      </c>
+      <c r="F1657" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1658" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1658" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1658" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1658" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1658" s="3">
+        <v>63</v>
+      </c>
+      <c r="F1658" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1659" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1659" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1659" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1659" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1659" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1659" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1660" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1660" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1660" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1660" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1660" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1660" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1661" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1661" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1661" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1661" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1661" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1661" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1662" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1662" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1662" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1662" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1662" s="3">
+        <v>875</v>
+      </c>
+      <c r="F1662" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1663" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1663" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1663" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1663" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1663" s="3">
+        <v>62</v>
+      </c>
+      <c r="F1663" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1664" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1664" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1664" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1664" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1664" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1664" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1665" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1665" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1665" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1665" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1665" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1665" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1666" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1666" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1666" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1666" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1666" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1666" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1667" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1667" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1667" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1667" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1667" s="3">
+        <v>89</v>
+      </c>
+      <c r="F1667" s="9">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1668" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1668" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1668" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1668" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1668" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1668" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1669" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1669" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1669" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1669" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1669" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1669" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1670" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1670" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1670" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1670" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1670" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1670" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1671" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1671" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1671" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1671" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1671" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1671" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1672" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1672" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1672" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1672" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1672" s="3">
+        <v>192</v>
+      </c>
+      <c r="F1672" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1673" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1673" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1673" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1673" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1673" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1673" s="9">
+        <v>6.6000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1674" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1674" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1674" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1674" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1674" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1674" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1675" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1675" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1675" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1675" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1675" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1675" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1676" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1676" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1676" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1676" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1676" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1676" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1677" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1677" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1677" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1677" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1677" s="3">
+        <v>130</v>
+      </c>
+      <c r="F1677" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1678" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1678" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1678" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1678" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1678" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1678" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1679" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1679" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1679" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1679" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1679" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1679" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1680" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1680" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1680" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1680" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1680" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1680" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1681" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1681" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1681" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1681" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1681" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1681" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA57EB49-481E-4A12-A2BD-5884D6125E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497A35C-20D9-40C7-84D5-105A0BBB8EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2494,6 +2494,29 @@
         <v>146</v>
       </c>
     </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2025</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77">
+        <v>977</v>
+      </c>
+      <c r="D77">
+        <v>877</v>
+      </c>
+      <c r="E77">
+        <v>110</v>
+      </c>
+      <c r="F77">
+        <v>201</v>
+      </c>
+      <c r="G77" s="17">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2502,7 +2525,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4181,6 +4204,29 @@
         <v>4.84</v>
       </c>
     </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2025</v>
+      </c>
+      <c r="B77" t="s">
+        <v>47</v>
+      </c>
+      <c r="C77">
+        <v>4.93</v>
+      </c>
+      <c r="D77">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E77">
+        <v>4.75</v>
+      </c>
+      <c r="F77">
+        <v>4.88</v>
+      </c>
+      <c r="G77">
+        <v>4.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4189,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1681"/>
+  <dimension ref="A1:L1706"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -37865,6 +37911,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1682" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1682" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1682" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1682" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1682" s="3">
+        <v>928</v>
+      </c>
+      <c r="F1682" s="9">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1683" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1683" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1683" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1683" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1683" s="3">
+        <v>36</v>
+      </c>
+      <c r="F1683" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1684" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1684" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1684" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1684" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1684" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1684" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1685" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1685" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1685" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1685" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1685" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1685" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1686" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1686" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1686" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1686" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1686" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1686" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1687" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1687" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1687" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1687" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1687" s="3">
+        <v>808</v>
+      </c>
+      <c r="F1687" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1688" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1688" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1688" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1688" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1688" s="3">
+        <v>51</v>
+      </c>
+      <c r="F1688" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1689" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1689" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1689" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1689" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1689" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1689" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1690" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1690" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1690" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1690" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1690" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1690" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1691" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1691" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1691" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1691" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1691" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1691" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1692" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1692" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1692" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1692" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1692" s="3">
+        <v>90</v>
+      </c>
+      <c r="F1692" s="9">
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1693" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1693" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1693" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1693" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1693" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1693" s="9">
+        <v>0.13600000000000001</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1694" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1694" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1694" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1694" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1694" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1694" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1695" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1695" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1695" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1695" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1695" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1695" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1696" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1696" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1696" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1696" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1696" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1696" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1697" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1697" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1697" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1697" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1697" s="3">
+        <v>185</v>
+      </c>
+      <c r="F1697" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1698" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1698" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1698" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1698" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1698" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1698" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1699" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1699" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1699" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1699" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1699" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1699" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1700" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1700" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1700" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1700" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1700" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1700" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1701" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1701" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1701" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1701" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1701" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1701" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1702" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1702" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1702" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1702" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1702" s="3">
+        <v>128</v>
+      </c>
+      <c r="F1702" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1703" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1703" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1703" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1703" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1703" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1703" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1704" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1704" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1704" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1704" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1704" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1704" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1705" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1705" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1705" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1705" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1705" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1705" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1706" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1706" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1706" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1706" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1706" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1706" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9497A35C-20D9-40C7-84D5-105A0BBB8EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806BDD32-C13C-49E5-AF60-10C81659BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2517,6 +2517,29 @@
         <v>144</v>
       </c>
     </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>916</v>
+      </c>
+      <c r="D78">
+        <v>814</v>
+      </c>
+      <c r="E78">
+        <v>103</v>
+      </c>
+      <c r="F78">
+        <v>225</v>
+      </c>
+      <c r="G78" s="17">
+        <v>184</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2525,7 +2548,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K77"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4227,6 +4250,29 @@
         <v>4.82</v>
       </c>
     </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C78">
+        <v>4.91</v>
+      </c>
+      <c r="D78">
+        <v>4.88</v>
+      </c>
+      <c r="E78">
+        <v>4.88</v>
+      </c>
+      <c r="F78">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G78">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4235,7 +4281,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1706"/>
+  <dimension ref="A1:L1731"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -38411,6 +38457,506 @@
         <v>1.4E-2</v>
       </c>
     </row>
+    <row r="1707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1707" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1707" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1707" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1707" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1707" s="3">
+        <v>852</v>
+      </c>
+      <c r="F1707" s="9">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1708" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1708" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1708" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1708" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1708" s="3">
+        <v>52</v>
+      </c>
+      <c r="F1708" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1709" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1709" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1709" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1709" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1709" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1709" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1710" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1710" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1710" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1710" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1710" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1710" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1711" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1711" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1711" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1711" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1711" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1711" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1712" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1712" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1712" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1712" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1712" s="3">
+        <v>741</v>
+      </c>
+      <c r="F1712" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1713" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1713" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1713" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1713" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1713" s="3">
+        <v>59</v>
+      </c>
+      <c r="F1713" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1714" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1714" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1714" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1714" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1714" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1714" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1715" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1715" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1715" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1715" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1715" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1715" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1716" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1716" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1716" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1716" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1716" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1716" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1717" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1717" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1717" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1717" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1717" s="3">
+        <v>94</v>
+      </c>
+      <c r="F1717" s="9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1718" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1718" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1718" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1718" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1718" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1718" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1719" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1719" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1719" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1719" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1719" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1719" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1720" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1720" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1720" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1720" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1720" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1720" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1721" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1721" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1721" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1721" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1721" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1721" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1722" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1722" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1722" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1722" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1722" s="3">
+        <v>200</v>
+      </c>
+      <c r="F1722" s="9">
+        <v>0.88900000000000001</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1723" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1723" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1723" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1723" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1723" s="3">
+        <v>21</v>
+      </c>
+      <c r="F1723" s="9">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1724" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1724" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1724" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1724" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1724" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1724" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1725" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1725" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1725" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1725" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1725" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1725" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1726" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1726" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1726" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1726" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1726" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1726" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1727" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1727" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1727" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1727" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1727" s="3">
+        <v>169</v>
+      </c>
+      <c r="F1727" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1728" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1728" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1728" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1728" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1728" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1728" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1729" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1729" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1729" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1729" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1729" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1729" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1730" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1730" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1730" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1730" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1730" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1730" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1731" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1731" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1731" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1731" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1731" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1731" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806BDD32-C13C-49E5-AF60-10C81659BD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5B0FF-1593-4C8D-8CD0-C7A594C22B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3634" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2540,6 +2540,29 @@
         <v>184</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2025</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>962</v>
+      </c>
+      <c r="D79">
+        <v>870</v>
+      </c>
+      <c r="E79">
+        <v>79</v>
+      </c>
+      <c r="F79">
+        <v>193</v>
+      </c>
+      <c r="G79" s="17">
+        <v>146</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2571,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4273,6 +4296,29 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2025</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D79">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E79">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F79">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G79">
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4281,7 +4327,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1731"/>
+  <dimension ref="A1:L1756"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -38957,6 +39003,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1732" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1732" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1732" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1732" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1732" s="3">
+        <v>879</v>
+      </c>
+      <c r="F1732" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1733" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1733" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1733" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1733" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1733" s="3">
+        <v>66</v>
+      </c>
+      <c r="F1733" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1734" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1734" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1734" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1734" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1734" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1734" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1735" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1735" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1735" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1735" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1735" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1735" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1736" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1736" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1736" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1736" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1736" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1736" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1737" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1737" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1737" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1737" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1737" s="3">
+        <v>795</v>
+      </c>
+      <c r="F1737" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1738" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1738" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1738" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1738" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1738" s="3">
+        <v>59</v>
+      </c>
+      <c r="F1738" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1739" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1739" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1739" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1739" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1739" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1739" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1740" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1740" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1740" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1740" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1740" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1740" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1741" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1741" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1741" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1741" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1741" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1741" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1742" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1742" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1742" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1742" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1742" s="3">
+        <v>71</v>
+      </c>
+      <c r="F1742" s="9">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1743" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1743" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1743" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1743" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1743" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1743" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1744" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1744" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1744" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1744" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1744" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1744" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1745" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1745" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1745" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1745" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1745" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1745" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1746" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1746" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1746" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1746" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1746" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1746" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1747" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1747" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1747" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1747" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1747" s="3">
+        <v>173</v>
+      </c>
+      <c r="F1747" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1748" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1748" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1748" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1748" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1748" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1748" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1749" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1749" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1749" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1749" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1749" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1749" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1750" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1750" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1750" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1750" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1750" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1750" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1751" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1751" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1751" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1751" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1751" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1751" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1752" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1752" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1752" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1752" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1752" s="3">
+        <v>139</v>
+      </c>
+      <c r="F1752" s="9">
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1753" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1753" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1753" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1753" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1753" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1753" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1754" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1754" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1754" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1754" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1754" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1754" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1755" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1755" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1755" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1755" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1755" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1755" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1756" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1756" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1756" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1756" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1756" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1756" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B5B0FF-1593-4C8D-8CD0-C7A594C22B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A732A-9A3D-4E1E-91E1-6F19C3701514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3686" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2563,6 +2563,52 @@
         <v>146</v>
       </c>
     </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2025</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>826</v>
+      </c>
+      <c r="D80">
+        <v>847</v>
+      </c>
+      <c r="E80">
+        <v>82</v>
+      </c>
+      <c r="F80">
+        <v>163</v>
+      </c>
+      <c r="G80" s="17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2025</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81">
+        <v>630</v>
+      </c>
+      <c r="D81">
+        <v>618</v>
+      </c>
+      <c r="E81">
+        <v>51</v>
+      </c>
+      <c r="F81">
+        <v>116</v>
+      </c>
+      <c r="G81" s="17">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2571,7 +2617,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4319,6 +4365,52 @@
         <v>4.95</v>
       </c>
     </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2025</v>
+      </c>
+      <c r="B80" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D80">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E80">
+        <v>4.8</v>
+      </c>
+      <c r="F80">
+        <v>4.87</v>
+      </c>
+      <c r="G80">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2025</v>
+      </c>
+      <c r="B81" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81">
+        <v>4.88</v>
+      </c>
+      <c r="D81">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E81">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="F81">
+        <v>4.79</v>
+      </c>
+      <c r="G81">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4327,7 +4419,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1756"/>
+  <dimension ref="A1:L1806"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -39503,6 +39595,1006 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1757" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1757" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1757" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1757" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1757" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1757" s="3">
+        <v>761</v>
+      </c>
+      <c r="F1757" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1758" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1758" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1758" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1758" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1758" s="3">
+        <v>50</v>
+      </c>
+      <c r="F1758" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1759" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1759" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1759" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1759" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1759" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1759" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1760" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1760" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1760" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1760" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1760" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1760" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1761" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1761" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1761" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1761" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1761" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1761" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1762" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1762" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1762" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1762" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1762" s="3">
+        <v>786</v>
+      </c>
+      <c r="F1762" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1763" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1763" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1763" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1763" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1763" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1763" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1764" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1764" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1764" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1764" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1764" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1764" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1765" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1765" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1765" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1765" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1765" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1765" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1766" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1766" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1766" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1766" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1766" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1766" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1767" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1767" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1767" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1767" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1767" s="3">
+        <v>71</v>
+      </c>
+      <c r="F1767" s="9">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1768" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1768" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1768" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1768" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1768" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1768" s="9">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1769" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1769" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1769" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1769" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1769" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1769" s="9">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1770" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1770" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1770" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1770" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1770" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1770" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1771" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1771" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1771" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1771" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1771" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1771" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1772" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1772" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1772" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1772" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1772" s="3">
+        <v>145</v>
+      </c>
+      <c r="F1772" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1773" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1773" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1773" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1773" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1773" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1773" s="9">
+        <v>9.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1774" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1774" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1774" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1774" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1774" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1774" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1775" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1775" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1775" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1775" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1775" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1775" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1776" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1776" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1776" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1776" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1776" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1776" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1777" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1777" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1777" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1777" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1777" s="3">
+        <v>113</v>
+      </c>
+      <c r="F1777" s="9">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1778" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1778" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1778" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1778" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1778" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1778" s="9">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1779" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1779" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1779" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1779" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1779" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1779" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1780" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1780" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1780" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1780" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1780" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1780" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1781" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1781" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1781" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1781" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1781" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1781" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1782" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1782" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1782" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1782" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1782" s="3">
+        <v>579</v>
+      </c>
+      <c r="F1782" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1783" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1783" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1783" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1783" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1783" s="3">
+        <v>37</v>
+      </c>
+      <c r="F1783" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1784" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1784" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1784" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1784" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1784" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1784" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1785" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1785" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1785" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1785" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1785" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1785" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1786" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1786" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1786" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1786" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1786" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1786" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1787" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1787" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1787" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1787" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1787" s="3">
+        <v>572</v>
+      </c>
+      <c r="F1787" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1788" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1788" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1788" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1788" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1788" s="3">
+        <v>35</v>
+      </c>
+      <c r="F1788" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1789" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1789" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1789" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1789" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1789" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1789" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1790" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1790" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1790" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1790" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1790" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1790" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1791" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1791" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1791" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1791" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1791" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1791" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1792" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1792" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1792" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1792" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1792" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1792" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1793" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1793" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1793" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1793" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1793" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1793" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1794" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1794" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1794" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1794" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1794" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1794" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1795" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1795" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1795" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1795" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1795" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1795" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1796" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1796" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1796" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1796" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1796" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1796" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1797" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1797" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1797" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1797" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1797" s="3">
+        <v>101</v>
+      </c>
+      <c r="F1797" s="9">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1798" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1798" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1798" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1798" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1798" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1798" s="9">
+        <v>6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1799" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1799" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1799" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1799" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1799" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1799" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1800" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1800" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1800" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1800" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1800" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1800" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1801" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1801" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1801" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1801" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1801" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1801" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1802" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1802" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1802" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1802" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1802" s="3">
+        <v>86</v>
+      </c>
+      <c r="F1802" s="9">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1803" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1803" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1803" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1803" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1803" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1803" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1804" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1804" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1804" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1804" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1804" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1804" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1805" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1805" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1805" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1805" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1805" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1805" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1806" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1806" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1806" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1806" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1806" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1806" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29A732A-9A3D-4E1E-91E1-6F19C3701514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA7A1F-6DE8-4FAD-AC2F-98E851A04003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2609,6 +2609,29 @@
         <v>88</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2025</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>1011</v>
+      </c>
+      <c r="D82">
+        <v>921</v>
+      </c>
+      <c r="E82">
+        <v>118</v>
+      </c>
+      <c r="F82">
+        <v>231</v>
+      </c>
+      <c r="G82" s="17">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2617,7 +2640,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:K82"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4411,6 +4434,29 @@
         <v>4.9800000000000004</v>
       </c>
     </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2025</v>
+      </c>
+      <c r="B82" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D82">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E82">
+        <v>4.76</v>
+      </c>
+      <c r="F82">
+        <v>4.91</v>
+      </c>
+      <c r="G82">
+        <v>4.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4419,7 +4465,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1806"/>
+  <dimension ref="A1:L1831"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -40595,6 +40641,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1807" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1807" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1807" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1807" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1807" s="3">
+        <v>937</v>
+      </c>
+      <c r="F1807" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1808" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1808" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1808" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1808" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1808" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1808" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1809" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1809" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1809" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1809" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1809" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1809" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1810" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1810" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1810" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1810" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1810" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1810" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1811" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1811" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1811" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1811" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1811" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1811" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1812" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1812" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1812" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1812" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1812" s="3">
+        <v>840</v>
+      </c>
+      <c r="F1812" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1813" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1813" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1813" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1813" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1813" s="3">
+        <v>60</v>
+      </c>
+      <c r="F1813" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1814" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1814" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1814" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1814" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1814" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1814" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1815" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1815" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1815" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1815" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1815" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1815" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1816" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1816" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1816" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1816" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1816" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1816" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1817" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1817" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1817" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1817" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1817" s="3">
+        <v>100</v>
+      </c>
+      <c r="F1817" s="9">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1818" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1818" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1818" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1818" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1818" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1818" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1819" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1819" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1819" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1819" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1819" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1819" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1820" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1820" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1820" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1820" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1820" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1820" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1821" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1821" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1821" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1821" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1821" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1821" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1822" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1822" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1822" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1822" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1822" s="3">
+        <v>214</v>
+      </c>
+      <c r="F1822" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1823" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1823" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1823" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1823" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1823" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1823" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1824" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1824" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1824" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1824" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1824" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1824" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1825" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1825" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1825" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1825" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1825" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1825" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1826" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1826" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1826" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1826" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1826" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1826" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1827" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1827" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1827" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1827" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1827" s="3">
+        <v>139</v>
+      </c>
+      <c r="F1827" s="9">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1828" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1828" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1828" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1828" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1828" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1828" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1829" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1829" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1829" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1829" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1829" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1829" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1830" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1830" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1830" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1830" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1830" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1830" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1831" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1831" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1831" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1831" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1831" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1831" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3EA7A1F-6DE8-4FAD-AC2F-98E851A04003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB5ECE-1AFB-4B5F-9EB6-C0D631B40CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3842" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2632,6 +2632,29 @@
         <v>157</v>
       </c>
     </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2025</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>989</v>
+      </c>
+      <c r="D83">
+        <v>835</v>
+      </c>
+      <c r="E83">
+        <v>90</v>
+      </c>
+      <c r="F83">
+        <v>212</v>
+      </c>
+      <c r="G83" s="17">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2640,7 +2663,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4457,6 +4480,29 @@
         <v>4.82</v>
       </c>
     </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2025</v>
+      </c>
+      <c r="B83" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D83">
+        <v>4.91</v>
+      </c>
+      <c r="E83">
+        <v>4.92</v>
+      </c>
+      <c r="F83">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G83">
+        <v>4.82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4465,7 +4511,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1831"/>
+  <dimension ref="A1:L1856"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -41141,6 +41187,506 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1832" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1832" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1832" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1832" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1832" s="3">
+        <v>910</v>
+      </c>
+      <c r="F1832" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1833" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1833" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1833" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1833" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1833" s="3">
+        <v>63</v>
+      </c>
+      <c r="F1833" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1834" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1834" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1834" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1834" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1834" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1834" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1835" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1835" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1835" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1835" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1835" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1835" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1836" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1836" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1836" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1836" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1836" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1836" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1837" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1837" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1837" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1837" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1837" s="3">
+        <v>776</v>
+      </c>
+      <c r="F1837" s="9">
+        <v>0.92900000000000005</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1838" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1838" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1838" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1838" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1838" s="3">
+        <v>45</v>
+      </c>
+      <c r="F1838" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1839" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1839" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1839" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1839" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1839" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1839" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1840" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1840" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1840" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1840" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1840" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1840" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1841" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1841" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1841" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1841" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1841" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1841" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1842" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1842" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1842" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1842" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1842" s="3">
+        <v>84</v>
+      </c>
+      <c r="F1842" s="9">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1843" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1843" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1843" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1843" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1843" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1843" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1844" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1844" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1844" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1844" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1844" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1844" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1845" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1845" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1845" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1845" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1845" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1845" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1846" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1846" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1846" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1846" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1846" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1846" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1847" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1847" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1847" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1847" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1847" s="3">
+        <v>183</v>
+      </c>
+      <c r="F1847" s="9">
+        <v>0.86299999999999999</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1848" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1848" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1848" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1848" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1848" s="3">
+        <v>26</v>
+      </c>
+      <c r="F1848" s="9">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1849" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1849" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1849" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1849" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1849" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1849" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1850" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1850" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1850" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1850" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1850" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1850" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1851" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1851" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1851" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1851" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1851" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1851" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1852" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1852" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1852" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1852" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1852" s="3">
+        <v>144</v>
+      </c>
+      <c r="F1852" s="9">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1853" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1853" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1853" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1853" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1853" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1853" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1854" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1854" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1854" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1854" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1854" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1854" s="9">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1855" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1855" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1855" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1855" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1855" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1855" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1856" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1856" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1856" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1856" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1856" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1856" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5DB5ECE-1AFB-4B5F-9EB6-C0D631B40CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB110FEF-0390-4770-BC54-F6D6B9C223FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3894" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2655,6 +2655,29 @@
         <v>163</v>
       </c>
     </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2025</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84">
+        <v>957</v>
+      </c>
+      <c r="D84">
+        <v>835</v>
+      </c>
+      <c r="E84">
+        <v>67</v>
+      </c>
+      <c r="F84">
+        <v>192</v>
+      </c>
+      <c r="G84" s="17">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2663,7 +2686,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K83"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4503,6 +4526,29 @@
         <v>4.82</v>
       </c>
     </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2025</v>
+      </c>
+      <c r="B84" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84">
+        <v>4.91</v>
+      </c>
+      <c r="D84">
+        <v>4.92</v>
+      </c>
+      <c r="E84">
+        <v>4.79</v>
+      </c>
+      <c r="F84">
+        <v>4.84</v>
+      </c>
+      <c r="G84">
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4511,7 +4557,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1856"/>
+  <dimension ref="A1:L1881"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -41687,6 +41733,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1857" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1857" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1857" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1857" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1857" s="3">
+        <v>887</v>
+      </c>
+      <c r="F1857" s="9">
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1858" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1858" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1858" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1858" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1858" s="3">
+        <v>60</v>
+      </c>
+      <c r="F1858" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1859" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1859" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1859" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1859" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1859" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1859" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1860" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1860" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1860" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1860" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1860" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1860" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1861" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1861" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1861" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1861" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1861" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1861" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1862" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1862" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1862" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1862" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1862" s="3">
+        <v>788</v>
+      </c>
+      <c r="F1862" s="9">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1863" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1863" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1863" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1863" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1863" s="3">
+        <v>34</v>
+      </c>
+      <c r="F1863" s="9">
+        <v>4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1864" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1864" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1864" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1864" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1864" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1864" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1865" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1865" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1865" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1865" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1865" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1865" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1866" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1866" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1866" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1866" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1866" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1866" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1867" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1867" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1867" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1867" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1867" s="3">
+        <v>57</v>
+      </c>
+      <c r="F1867" s="9">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1868" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1868" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1868" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1868" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1868" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1868" s="9">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1869" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1869" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1869" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1869" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1869" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1869" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1870" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1870" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1870" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1870" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1870" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1870" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1871" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1871" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1871" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1871" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1871" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1871" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1872" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1872" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1872" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1872" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1872" s="3">
+        <v>172</v>
+      </c>
+      <c r="F1872" s="9">
+        <v>0.89600000000000002</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1873" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1873" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1873" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1873" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1873" s="3">
+        <v>13</v>
+      </c>
+      <c r="F1873" s="9">
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1874" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1874" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1874" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1874" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1874" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1874" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1875" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1875" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1875" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1875" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1875" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1875" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1876" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1876" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1876" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1876" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1876" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1876" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1877" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1877" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1877" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1877" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1877" s="3">
+        <v>142</v>
+      </c>
+      <c r="F1877" s="9">
+        <v>0.95299999999999996</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1878" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1878" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1878" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1878" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1878" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1878" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1879" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1879" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1879" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1879" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1879" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1879" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1880" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1880" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1880" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1880" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1880" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1880" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1881" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1881" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1881" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1881" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1881" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1881" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB110FEF-0390-4770-BC54-F6D6B9C223FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606CC99-D1BA-4118-BDB7-821EB55F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G84"/>
+  <dimension ref="A1:G85"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2678,6 +2678,29 @@
         <v>149</v>
       </c>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2025</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85">
+        <v>1123</v>
+      </c>
+      <c r="D85">
+        <v>942</v>
+      </c>
+      <c r="E85">
+        <v>92</v>
+      </c>
+      <c r="F85">
+        <v>233</v>
+      </c>
+      <c r="G85" s="17">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2686,7 +2709,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4549,6 +4572,29 @@
         <v>4.95</v>
       </c>
     </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2025</v>
+      </c>
+      <c r="B85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C85">
+        <v>4.91</v>
+      </c>
+      <c r="D85">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E85">
+        <v>4.87</v>
+      </c>
+      <c r="F85">
+        <v>4.82</v>
+      </c>
+      <c r="G85">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4557,7 +4603,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1881"/>
+  <dimension ref="A1:L1906"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -42233,6 +42279,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1882" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1882" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1882" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1882" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1882" s="3">
+        <v>1035</v>
+      </c>
+      <c r="F1882" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1883" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1883" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1883" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1883" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1883" s="3">
+        <v>79</v>
+      </c>
+      <c r="F1883" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1884" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1884" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1884" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1884" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1884" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1884" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1885" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1885" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1885" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1885" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1885" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1885" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1886" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1886" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1886" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1886" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1886" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1887" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1887" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1887" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1887" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1887" s="3">
+        <v>867</v>
+      </c>
+      <c r="F1887" s="9">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1888" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1888" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1888" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1888" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1888" s="3">
+        <v>56</v>
+      </c>
+      <c r="F1888" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1889" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1889" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1889" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1889" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1889" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1889" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1890" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1890" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1890" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1890" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1890" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1890" s="9">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1891" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1891" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1891" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1891" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1891" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1891" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1892" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1892" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1892" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1892" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1892" s="3">
+        <v>81</v>
+      </c>
+      <c r="F1892" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1893" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1893" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1893" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1893" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1893" s="3">
+        <v>10</v>
+      </c>
+      <c r="F1893" s="9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1894" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1894" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1894" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1894" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1894" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1894" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1895" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1895" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1895" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1895" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1895" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1895" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1896" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1896" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1896" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1896" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1896" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1896" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1897" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1897" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1897" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1897" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1897" s="3">
+        <v>202</v>
+      </c>
+      <c r="F1897" s="9">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1898" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1898" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1898" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1898" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1898" s="3">
+        <v>22</v>
+      </c>
+      <c r="F1898" s="9">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1899" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1899" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1899" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1899" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1899" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1899" s="9">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1900" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1900" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1900" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1900" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1900" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1900" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1901" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1901" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1901" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1901" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1901" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1901" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1902" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1902" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1902" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1902" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1902" s="3">
+        <v>124</v>
+      </c>
+      <c r="F1902" s="9">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1903" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1903" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1903" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1903" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1903" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1903" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1904" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1904" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1904" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1904" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1904" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1904" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1905" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1905" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1905" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1905" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1905" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1905" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1906" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1906" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1906" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1906" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1906" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1906" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1606CC99-D1BA-4118-BDB7-821EB55F8825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63364E5-3544-41BE-973A-1F345C158D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2701,6 +2701,29 @@
         <v>132</v>
       </c>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2025</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>1140</v>
+      </c>
+      <c r="D86">
+        <v>829</v>
+      </c>
+      <c r="E86">
+        <v>94</v>
+      </c>
+      <c r="F86">
+        <v>233</v>
+      </c>
+      <c r="G86" s="17">
+        <v>149</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2709,7 +2732,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K85"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4595,6 +4618,29 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2025</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>4.93</v>
+      </c>
+      <c r="D86">
+        <v>4.91</v>
+      </c>
+      <c r="E86">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F86">
+        <v>4.84</v>
+      </c>
+      <c r="G86">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4603,7 +4649,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1906"/>
+  <dimension ref="A1:L1931"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -42779,6 +42825,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1907" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1907" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1907" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1907" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1907" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1907" s="3">
+        <v>1074</v>
+      </c>
+      <c r="F1907" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1908" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1908" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1908" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1908" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1908" s="3">
+        <v>53</v>
+      </c>
+      <c r="F1908" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1909" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1909" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1909" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1909" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1909" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1909" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1910" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1910" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1910" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1910" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1910" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1910" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1911" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1911" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1911" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1911" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1911" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1911" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1912" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1912" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1912" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1912" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1912" s="3">
+        <v>772</v>
+      </c>
+      <c r="F1912" s="9">
+        <v>0.93100000000000005</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1913" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1913" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1913" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1913" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1913" s="3">
+        <v>47</v>
+      </c>
+      <c r="F1913" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1914" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1914" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1914" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1914" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1914" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1914" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1915" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1915" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1915" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1915" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1915" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1915" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1916" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1916" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1916" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1916" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1916" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1916" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1917" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1917" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1917" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1917" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1917" s="3">
+        <v>85</v>
+      </c>
+      <c r="F1917" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1918" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1918" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1918" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1918" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1918" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1918" s="9">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1919" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1919" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1919" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1919" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1919" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1919" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1920" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1920" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1920" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1920" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1920" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1920" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1921" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1921" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1921" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1921" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1921" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1921" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1922" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1922" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1922" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1922" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1922" s="3">
+        <v>205</v>
+      </c>
+      <c r="F1922" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1923" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1923" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1923" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1923" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1923" s="3">
+        <v>21</v>
+      </c>
+      <c r="F1923" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1924" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1924" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1924" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1924" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1924" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1924" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1925" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1925" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1925" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1925" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1925" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1925" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1926" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1926" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1926" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1926" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1926" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1926" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1927" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1927" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1927" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1927" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1927" s="3">
+        <v>137</v>
+      </c>
+      <c r="F1927" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1928" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1928" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1928" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1928" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1928" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1928" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1929" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1929" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1929" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1929" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1929" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1929" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1930" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1930" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1930" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1930" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1930" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1930" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1931" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1931" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1931" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1931" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1931" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1931" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63364E5-3544-41BE-973A-1F345C158D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7CC66-F288-4EB9-AABA-92FCC4142745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4050" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2724,6 +2724,29 @@
         <v>149</v>
       </c>
     </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2025</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87">
+        <v>1067</v>
+      </c>
+      <c r="D87">
+        <v>808</v>
+      </c>
+      <c r="E87">
+        <v>122</v>
+      </c>
+      <c r="F87">
+        <v>281</v>
+      </c>
+      <c r="G87" s="17">
+        <v>182</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2732,7 +2755,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K86"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4641,6 +4664,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2025</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87">
+        <v>4.91</v>
+      </c>
+      <c r="D87">
+        <v>4.91</v>
+      </c>
+      <c r="E87">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="F87">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G87">
+        <v>4.91</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4649,7 +4695,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1931"/>
+  <dimension ref="A1:L1956"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -43325,6 +43371,506 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="1932" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1932" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1932" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1932" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1932" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1932" s="3">
+        <v>995</v>
+      </c>
+      <c r="F1932" s="9">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1933" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1933" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1933" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1933" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1933" s="3">
+        <v>54</v>
+      </c>
+      <c r="F1933" s="9">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1934" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1934" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1934" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1934" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1934" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1934" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1935" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1935" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1935" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1935" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1935" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1935" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1936" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1936" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1936" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1936" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1936" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1936" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1937" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1937" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1937" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1937" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1937" s="3">
+        <v>748</v>
+      </c>
+      <c r="F1937" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1938" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1938" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1938" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1938" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1938" s="3">
+        <v>49</v>
+      </c>
+      <c r="F1938" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1939" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1939" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1939" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1939" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1939" s="3">
+        <v>8</v>
+      </c>
+      <c r="F1939" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1940" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1940" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1940" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1940" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1940" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1940" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1941" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1941" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1941" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1941" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1941" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1941" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1942" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1942" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1942" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1942" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1942" s="3">
+        <v>110</v>
+      </c>
+      <c r="F1942" s="9">
+        <v>0.90200000000000002</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1943" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1943" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1943" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1943" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1943" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1943" s="9">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1944" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1944" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1944" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1944" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1944" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1944" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1945" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1945" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1945" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1945" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1945" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1945" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1946" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1946" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1946" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1946" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1946" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1946" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1947" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1947" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1947" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1947" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1947" s="3">
+        <v>253</v>
+      </c>
+      <c r="F1947" s="9">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1948" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1948" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1948" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1948" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1948" s="3">
+        <v>22</v>
+      </c>
+      <c r="F1948" s="9">
+        <v>7.8E-2</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1949" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1949" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1949" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1949" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1949" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1949" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1950" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1950" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1950" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1950" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1950" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1950" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1951" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1951" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1951" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1951" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1951" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1951" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1952" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1952" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1952" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1952" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1952" s="3">
+        <v>170</v>
+      </c>
+      <c r="F1952" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1953" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1953" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1953" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1953" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1953" s="3">
+        <v>7</v>
+      </c>
+      <c r="F1953" s="9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1954" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1954" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1954" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1954" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1954" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1954" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1955" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1955" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1955" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1955" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1955" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1955" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1956" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1956" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1956" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1956" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1956" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1956" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C7CC66-F288-4EB9-AABA-92FCC4142745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B85BC0-E5D8-459A-AF1C-357CD98A9EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4102" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2747,6 +2747,29 @@
         <v>182</v>
       </c>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2025</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88">
+        <v>948</v>
+      </c>
+      <c r="D88">
+        <v>908</v>
+      </c>
+      <c r="E88">
+        <v>101</v>
+      </c>
+      <c r="F88">
+        <v>174</v>
+      </c>
+      <c r="G88" s="17">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2755,7 +2778,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:K88"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4687,6 +4710,29 @@
         <v>4.91</v>
       </c>
     </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2025</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88">
+        <v>4.91</v>
+      </c>
+      <c r="D88">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E88">
+        <v>4.92</v>
+      </c>
+      <c r="F88">
+        <v>4.83</v>
+      </c>
+      <c r="G88">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4695,7 +4741,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1956"/>
+  <dimension ref="A1:L1981"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -43871,6 +43917,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1957" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1957" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1957" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1957" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1957" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1957" s="3">
+        <v>878</v>
+      </c>
+      <c r="F1957" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1958" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1958" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1958" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1958" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1958" s="3">
+        <v>54</v>
+      </c>
+      <c r="F1958" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1959" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1959" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1959" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1959" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1959" s="3">
+        <v>14</v>
+      </c>
+      <c r="F1959" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1960" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1960" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1960" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1960" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1960" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1960" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1961" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1961" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1961" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1961" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1961" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1961" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1962" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1962" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1962" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1962" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1962" s="3">
+        <v>841</v>
+      </c>
+      <c r="F1962" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1963" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1963" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1963" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1963" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1963" s="3">
+        <v>48</v>
+      </c>
+      <c r="F1963" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1964" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1964" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1964" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1964" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1964" s="3">
+        <v>17</v>
+      </c>
+      <c r="F1964" s="9">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1965" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1965" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1965" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1965" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1965" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1965" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1966" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1966" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1966" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1966" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1966" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1966" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1967" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1967" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1967" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1967" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1967" s="3">
+        <v>95</v>
+      </c>
+      <c r="F1967" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1968" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1968" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1968" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1968" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1968" s="3">
+        <v>4</v>
+      </c>
+      <c r="F1968" s="9">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1969" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1969" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1969" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1969" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1969" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1969" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1970" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1970" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1970" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1970" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1970" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1970" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1971" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1971" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1971" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1971" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1971" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1971" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1972" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1972" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1972" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1972" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1972" s="3">
+        <v>151</v>
+      </c>
+      <c r="F1972" s="9">
+        <v>0.86799999999999999</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1973" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1973" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1973" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1973" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1973" s="3">
+        <v>18</v>
+      </c>
+      <c r="F1973" s="9">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1974" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1974" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1974" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1974" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1974" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1974" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1975" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1975" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1975" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1975" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1975" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1975" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1976" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1976" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1976" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1976" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1976" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1976" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1977" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1977" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1977" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1977" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1977" s="3">
+        <v>106</v>
+      </c>
+      <c r="F1977" s="9">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1978" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1978" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1978" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1978" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1978" s="3">
+        <v>6</v>
+      </c>
+      <c r="F1978" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1979" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1979" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1979" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1979" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1979" s="3">
+        <v>2</v>
+      </c>
+      <c r="F1979" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1980" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1980" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1980" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1980" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1980" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1980" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1981" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1981" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1981" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1981" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1981" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1981" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B85BC0-E5D8-459A-AF1C-357CD98A9EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E287AC-F65A-4D72-9864-2E8219AF0685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4154" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2770,6 +2770,29 @@
         <v>115</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2025</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89">
+        <v>991</v>
+      </c>
+      <c r="D89">
+        <v>857</v>
+      </c>
+      <c r="E89">
+        <v>97</v>
+      </c>
+      <c r="F89">
+        <v>180</v>
+      </c>
+      <c r="G89" s="17">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2778,7 +2801,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4733,6 +4756,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2025</v>
+      </c>
+      <c r="B89" t="s">
+        <v>59</v>
+      </c>
+      <c r="C89">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D89">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E89">
+        <v>4.79</v>
+      </c>
+      <c r="F89">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G89">
+        <v>4.93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4741,7 +4787,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L1981"/>
+  <dimension ref="A1:L2006"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -44417,6 +44463,506 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
+    <row r="1982" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1982" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1982" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1982" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1982" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1982" s="3">
+        <v>904</v>
+      </c>
+      <c r="F1982" s="9">
+        <v>0.91200000000000003</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1983" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1983" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1983" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1983" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1983" s="3">
+        <v>66</v>
+      </c>
+      <c r="F1983" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1984" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1984" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1984" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1984" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1984" s="3">
+        <v>20</v>
+      </c>
+      <c r="F1984" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1985" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1985" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1985" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1985" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1985" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1985" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1986" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1986" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1986" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1986" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1986" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1986" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1987" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1987" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1987" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1987" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1987" s="3">
+        <v>787</v>
+      </c>
+      <c r="F1987" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1988" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1988" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1988" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1988" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1988" s="3">
+        <v>54</v>
+      </c>
+      <c r="F1988" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1989" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1989" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1989" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1989" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1989" s="3">
+        <v>15</v>
+      </c>
+      <c r="F1989" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1990" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1990" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1990" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1990" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1990" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1990" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1991" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1991" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1991" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1991" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1991" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1991" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1992" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1992" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1992" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1992" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1992" s="3">
+        <v>82</v>
+      </c>
+      <c r="F1992" s="9">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1993" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1993" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1993" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1993" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1993" s="3">
+        <v>11</v>
+      </c>
+      <c r="F1993" s="9">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1994" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1994" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1994" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1994" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1994" s="3">
+        <v>3</v>
+      </c>
+      <c r="F1994" s="9">
+        <v>3.1E-2</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1995" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1995" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1995" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1995" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1995" s="3">
+        <v>1</v>
+      </c>
+      <c r="F1995" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1996" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1996" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1996" s="2">
+        <v>1</v>
+      </c>
+      <c r="D1996" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1996" s="3">
+        <v>0</v>
+      </c>
+      <c r="F1996" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1997" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1997" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1997" s="2">
+        <v>5</v>
+      </c>
+      <c r="D1997" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1997" s="3">
+        <v>164</v>
+      </c>
+      <c r="F1997" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1998" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1998" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1998" s="2">
+        <v>4</v>
+      </c>
+      <c r="D1998" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1998" s="3">
+        <v>9</v>
+      </c>
+      <c r="F1998" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1999" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B1999" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1999" s="2">
+        <v>3</v>
+      </c>
+      <c r="D1999" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1999" s="3">
+        <v>5</v>
+      </c>
+      <c r="F1999" s="9">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2000" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2000" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2000" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2000" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2000" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2000" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2001" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2001" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2001" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2001" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2001" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2001" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2002" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2002" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2002" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2002" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2002" s="3">
+        <v>108</v>
+      </c>
+      <c r="F2002" s="9">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2003" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2003" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2003" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2003" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2003" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2003" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2004" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2004" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2004" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2004" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2004" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2004" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2005" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2005" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2005" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2005" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2005" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2005" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2006" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2006" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2006" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2006" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2006" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2006" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E287AC-F65A-4D72-9864-2E8219AF0685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED14C35-6D50-484E-9B1A-2AEAFFA9FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4206" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2793,6 +2793,29 @@
         <v>114</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2025</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90">
+        <v>1042</v>
+      </c>
+      <c r="D90">
+        <v>834</v>
+      </c>
+      <c r="E90">
+        <v>110</v>
+      </c>
+      <c r="F90">
+        <v>216</v>
+      </c>
+      <c r="G90" s="17">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,7 +2824,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4779,6 +4802,29 @@
         <v>4.93</v>
       </c>
     </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2025</v>
+      </c>
+      <c r="B90" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D90">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E90">
+        <v>4.83</v>
+      </c>
+      <c r="F90">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G90">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4787,7 +4833,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2006"/>
+  <dimension ref="A1:L2031"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -44963,6 +45009,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2007" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2007" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2007" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2007" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2007" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2007" s="3">
+        <v>967</v>
+      </c>
+      <c r="F2007" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2008" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2008" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2008" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2008" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2008" s="3">
+        <v>55</v>
+      </c>
+      <c r="F2008" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2009" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2009" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2009" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2009" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2009" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2009" s="9">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2010" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2010" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2010" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2010" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2010" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2010" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2011" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2011" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2011" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2011" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2011" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2011" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2012" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2012" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2012" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2012" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2012" s="3">
+        <v>763</v>
+      </c>
+      <c r="F2012" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2013" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2013" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2013" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2013" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2013" s="3">
+        <v>59</v>
+      </c>
+      <c r="F2013" s="9">
+        <v>7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2014" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2014" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2014" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2014" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2014" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2014" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2015" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2015" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2015" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2015" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2015" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2015" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2016" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2016" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2016" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2016" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2016" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2016" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2017" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2017" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2017" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2017" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2017" s="3">
+        <v>97</v>
+      </c>
+      <c r="F2017" s="9">
+        <v>0.88200000000000001</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2018" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2018" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2018" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2018" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2018" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2018" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2019" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2019" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2019" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2019" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2019" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2019" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2020" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2020" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2020" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2020" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2020" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2020" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2021" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2021" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2021" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2021" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2021" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2021" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2022" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2022" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2022" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2022" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2022" s="3">
+        <v>183</v>
+      </c>
+      <c r="F2022" s="9">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2023" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2023" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2023" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2023" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2023" s="3">
+        <v>25</v>
+      </c>
+      <c r="F2023" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2024" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2024" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2024" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2024" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2024" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2024" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2025" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2025" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2025" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2025" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2025" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2025" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2026" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2026" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2026" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2026" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2026" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2026" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2027" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2027" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2027" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2027" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2027" s="3">
+        <v>101</v>
+      </c>
+      <c r="F2027" s="9">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2028" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2028" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2028" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2028" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2028" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2028" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2029" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2029" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2029" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2029" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2029" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2029" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2030" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2030" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2030" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2030" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2030" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2030" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2031" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2031" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2031" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2031" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2031" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2031" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED14C35-6D50-484E-9B1A-2AEAFFA9FA50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3C2FF-DD1F-4A1B-8943-F6BAB9C327E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4258" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2816,6 +2816,29 @@
         <v>107</v>
       </c>
     </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2025</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>1103</v>
+      </c>
+      <c r="D91">
+        <v>779</v>
+      </c>
+      <c r="E91">
+        <v>128</v>
+      </c>
+      <c r="F91">
+        <v>241</v>
+      </c>
+      <c r="G91" s="17">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2824,7 +2847,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4825,6 +4848,29 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2025</v>
+      </c>
+      <c r="B91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C91">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D91">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E91">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F91">
+        <v>4.88</v>
+      </c>
+      <c r="G91">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4833,7 +4879,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2031"/>
+  <dimension ref="A1:L2056"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -45509,6 +45555,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2032" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2032" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2032" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2032" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2032" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2032" s="3">
+        <v>1013</v>
+      </c>
+      <c r="F2032" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2033" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2033" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2033" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2033" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2033" s="3">
+        <v>71</v>
+      </c>
+      <c r="F2033" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2034" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2034" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2034" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2034" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2034" s="3">
+        <v>11</v>
+      </c>
+      <c r="F2034" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2035" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2035" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2035" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2035" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2035" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2035" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2036" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2036" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2036" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2036" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2036" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2036" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2037" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2037" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2037" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2037" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2037" s="3">
+        <v>726</v>
+      </c>
+      <c r="F2037" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2038" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2038" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2038" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2038" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2038" s="3">
+        <v>36</v>
+      </c>
+      <c r="F2038" s="9">
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2039" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2039" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2039" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2039" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2039" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2039" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2040" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2040" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2040" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2040" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2040" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2040" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2041" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2041" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2041" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2041" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2041" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2041" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2042" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2042" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2042" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2042" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2042" s="3">
+        <v>103</v>
+      </c>
+      <c r="F2042" s="9">
+        <v>0.80500000000000005</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2043" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2043" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2043" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2043" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2043" s="3">
+        <v>22</v>
+      </c>
+      <c r="F2043" s="9">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2044" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2044" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2044" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2044" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2044" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2044" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2045" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2045" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2045" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2045" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2045" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2045" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2046" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2046" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2046" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2046" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2046" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2046" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2047" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2047" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2047" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2047" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2047" s="3">
+        <v>219</v>
+      </c>
+      <c r="F2047" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2048" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2048" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2048" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2048" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2048" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2048" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2049" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2049" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2049" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2049" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2049" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2049" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2050" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2050" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2050" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2050" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2050" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2050" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2051" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2051" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2051" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2051" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2051" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2051" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2052" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2052" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2052" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2052" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2052" s="3">
+        <v>105</v>
+      </c>
+      <c r="F2052" s="9">
+        <v>0.91300000000000003</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2053" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2053" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2053" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2053" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2053" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2053" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2054" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2054" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2054" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2054" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2054" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2054" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2055" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2055" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2055" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2055" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2055" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2055" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2056" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2056" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2056" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2056" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2056" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2056" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A3C2FF-DD1F-4A1B-8943-F6BAB9C327E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEDA02-561A-449C-983D-CB8D1BC9AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4310" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2839,6 +2839,29 @@
         <v>115</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2025</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92">
+        <v>989</v>
+      </c>
+      <c r="D92">
+        <v>710</v>
+      </c>
+      <c r="E92">
+        <v>112</v>
+      </c>
+      <c r="F92">
+        <v>189</v>
+      </c>
+      <c r="G92" s="17">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2847,7 +2870,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4871,6 +4894,29 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2025</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92">
+        <v>4.91</v>
+      </c>
+      <c r="D92">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E92">
+        <v>4.79</v>
+      </c>
+      <c r="F92">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G92">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4879,7 +4925,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2056"/>
+  <dimension ref="A1:L2081"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -46055,6 +46101,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2057" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2057" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2057" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2057" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2057" s="3">
+        <v>922</v>
+      </c>
+      <c r="F2057" s="9">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2058" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2058" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2058" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2058" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2058" s="3">
+        <v>53</v>
+      </c>
+      <c r="F2058" s="9">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2059" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2059" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2059" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2059" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2059" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2059" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2060" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2060" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2060" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2060" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2060" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2060" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2061" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2061" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2061" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2061" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2061" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2061" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2062" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2062" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2062" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2062" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2062" s="3">
+        <v>665</v>
+      </c>
+      <c r="F2062" s="9">
+        <v>0.93700000000000006</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2063" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2063" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2063" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2063" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2063" s="3">
+        <v>31</v>
+      </c>
+      <c r="F2063" s="9">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2064" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2064" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2064" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2064" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2064" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2064" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2065" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2065" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2065" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2065" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2065" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2065" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2066" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2066" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2066" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2066" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2066" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2066" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2067" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2067" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2067" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2067" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2067" s="3">
+        <v>92</v>
+      </c>
+      <c r="F2067" s="9">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2068" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2068" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2068" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2068" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2068" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2068" s="9">
+        <v>0.152</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2069" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2069" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2069" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2069" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2069" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2069" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2070" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2070" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2070" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2070" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2070" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2070" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2071" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2071" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2071" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2071" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2071" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2071" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2072" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2072" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2072" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2072" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2072" s="3">
+        <v>178</v>
+      </c>
+      <c r="F2072" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2073" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2073" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2073" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2073" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2073" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2073" s="9">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2074" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2074" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2074" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2074" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2074" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2074" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2075" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2075" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2075" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2075" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2075" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2075" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2076" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2076" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2076" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2076" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2076" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2076" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2077" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2077" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2077" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2077" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2077" s="3">
+        <v>81</v>
+      </c>
+      <c r="F2077" s="9">
+        <v>0.94199999999999995</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2078" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2078" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2078" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2078" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2078" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2078" s="9">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2079" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2079" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2079" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2079" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2079" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2079" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2080" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2080" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2080" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2080" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2080" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2080" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2081" s="2">
+        <v>2025</v>
+      </c>
+      <c r="B2081" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2081" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2081" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2081" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2081" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFEDA02-561A-449C-983D-CB8D1BC9AFF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE77B6F-81CA-41C6-B4CF-FA62C7C74231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4362" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2862,6 +2862,29 @@
         <v>86</v>
       </c>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93">
+        <v>1012</v>
+      </c>
+      <c r="D93">
+        <v>700</v>
+      </c>
+      <c r="E93">
+        <v>130</v>
+      </c>
+      <c r="F93">
+        <v>205</v>
+      </c>
+      <c r="G93" s="17">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2870,7 +2893,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K93"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4917,6 +4940,29 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2026</v>
+      </c>
+      <c r="B93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C93">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D93">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E93">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F93">
+        <v>4.91</v>
+      </c>
+      <c r="G93">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4925,7 +4971,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2081"/>
+  <dimension ref="A1:L2106"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -46601,6 +46647,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2082" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2082" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2082" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2082" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2082" s="3">
+        <v>932</v>
+      </c>
+      <c r="F2082" s="9">
+        <v>0.92100000000000004</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2083" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2083" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2083" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2083" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2083" s="3">
+        <v>66</v>
+      </c>
+      <c r="F2083" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2084" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2084" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2084" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2084" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2084" s="3">
+        <v>11</v>
+      </c>
+      <c r="F2084" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2085" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2085" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2085" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2085" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2085" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2085" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2086" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2086" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2086" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2086" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2086" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2086" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2087" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2087" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2087" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2087" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2087" s="3">
+        <v>643</v>
+      </c>
+      <c r="F2087" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2088" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2088" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2088" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2088" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2088" s="3">
+        <v>43</v>
+      </c>
+      <c r="F2088" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2089" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2089" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2089" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2089" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2089" s="3">
+        <v>11</v>
+      </c>
+      <c r="F2089" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2090" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2090" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2090" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2090" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2090" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2090" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2091" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2091" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2091" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2091" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2091" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2091" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2092" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2092" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2092" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2092" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2092" s="3">
+        <v>113</v>
+      </c>
+      <c r="F2092" s="9">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2093" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2093" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2093" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2093" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2093" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2093" s="9">
+        <v>0.115</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2094" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2094" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2094" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2094" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2094" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2094" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2095" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2095" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2095" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2095" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2095" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2095" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2096" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2096" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2096" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2096" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2096" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2096" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2097" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2097" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2097" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2097" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2097" s="3">
+        <v>193</v>
+      </c>
+      <c r="F2097" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2098" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2098" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2098" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2098" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2098" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2098" s="9">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2099" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2099" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2099" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2099" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2099" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2099" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2100" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2100" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2100" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2100" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2100" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2101" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2101" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2101" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2101" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2101" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2101" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2102" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2102" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2102" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2102" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2102" s="3">
+        <v>85</v>
+      </c>
+      <c r="F2102" s="9">
+        <v>0.94399999999999995</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2103" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2103" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2103" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2103" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2103" s="9">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2104" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2104" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2104" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2104" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2104" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2104" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2105" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2105" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2105" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2105" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2105" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2105" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2106" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2106" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2106" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2106" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2106" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2106" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE77B6F-81CA-41C6-B4CF-FA62C7C74231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71F637-1B75-471F-87DB-F24AA4AEE461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4414" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2885,6 +2885,29 @@
         <v>90</v>
       </c>
     </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94">
+        <v>1069</v>
+      </c>
+      <c r="D94">
+        <v>822</v>
+      </c>
+      <c r="E94">
+        <v>146</v>
+      </c>
+      <c r="F94">
+        <v>196</v>
+      </c>
+      <c r="G94" s="17">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2893,7 +2916,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K93"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -4963,6 +4986,29 @@
         <v>4.9400000000000004</v>
       </c>
     </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2026</v>
+      </c>
+      <c r="B94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C94">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D94">
+        <v>4.88</v>
+      </c>
+      <c r="E94">
+        <v>4.83</v>
+      </c>
+      <c r="F94">
+        <v>4.88</v>
+      </c>
+      <c r="G94">
+        <v>4.95</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4971,7 +5017,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2106"/>
+  <dimension ref="A1:L2131"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -47147,6 +47193,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2107" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2107" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2107" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2107" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2107" s="3">
+        <v>990</v>
+      </c>
+      <c r="F2107" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2108" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2108" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2108" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2108" s="3">
+        <v>63</v>
+      </c>
+      <c r="F2108" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2109" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2109" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2109" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2109" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2109" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2109" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2110" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2110" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2110" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2110" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2110" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2110" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2111" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2111" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2111" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2111" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2111" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2111" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2112" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2112" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2112" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2112" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2112" s="3">
+        <v>751</v>
+      </c>
+      <c r="F2112" s="9">
+        <v>0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2113" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2113" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2113" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2113" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2113" s="3">
+        <v>53</v>
+      </c>
+      <c r="F2113" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2114" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2114" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2114" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2114" s="3">
+        <v>12</v>
+      </c>
+      <c r="F2114" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2115" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2115" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2115" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2115" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2115" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2115" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2116" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2116" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2116" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2116" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2116" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2117" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2117" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2117" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2117" s="3">
+        <v>125</v>
+      </c>
+      <c r="F2117" s="9">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2118" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2118" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2118" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2118" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2118" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2118" s="9">
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2119" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2119" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2119" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2119" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2119" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2119" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2120" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2120" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2120" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2120" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2120" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2121" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2121" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2121" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2121" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2121" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2121" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2122" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2122" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2122" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2122" s="3">
+        <v>176</v>
+      </c>
+      <c r="F2122" s="9">
+        <v>0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2123" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2123" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2123" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2123" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2123" s="9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2124" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2124" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2124" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2124" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2124" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2124" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2125" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2125" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2125" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2125" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2125" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2126" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2126" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2126" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2126" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2126" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2127" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2127" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2127" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2127" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2127" s="3">
+        <v>110</v>
+      </c>
+      <c r="F2127" s="9">
+        <v>0.94799999999999995</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2128" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2128" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2128" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2128" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2128" s="9">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2129" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2129" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2129" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2129" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2129" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2129" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2130" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2130" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2130" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2130" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2130" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2131" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2131" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2131" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2131" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2131" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2131" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA71F637-1B75-471F-87DB-F24AA4AEE461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA876C0-E193-41D6-B5CE-B7DABED0D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2908,6 +2908,29 @@
         <v>116</v>
       </c>
     </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95">
+        <v>1059</v>
+      </c>
+      <c r="D95">
+        <v>788</v>
+      </c>
+      <c r="E95">
+        <v>117</v>
+      </c>
+      <c r="F95">
+        <v>164</v>
+      </c>
+      <c r="G95" s="17">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2916,7 +2939,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K94"/>
+  <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5009,6 +5032,29 @@
         <v>4.95</v>
       </c>
     </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2026</v>
+      </c>
+      <c r="B95" t="s">
+        <v>66</v>
+      </c>
+      <c r="C95">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D95">
+        <v>4.88</v>
+      </c>
+      <c r="E95">
+        <v>4.78</v>
+      </c>
+      <c r="F95">
+        <v>4.82</v>
+      </c>
+      <c r="G95">
+        <v>4.92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5017,7 +5063,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2131"/>
+  <dimension ref="A1:L2156"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -47693,6 +47739,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2132" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2132" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2132" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2132" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2132" s="3">
+        <v>980</v>
+      </c>
+      <c r="F2132" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2133" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2133" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2133" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2133" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2133" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2133" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2134" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2134" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2134" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2134" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2134" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2134" s="9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2135" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2135" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2135" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2135" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2135" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2135" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2136" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2136" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2136" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2136" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2136" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2136" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2137" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2137" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2137" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2137" s="3">
+        <v>730</v>
+      </c>
+      <c r="F2137" s="9">
+        <v>0.92600000000000005</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2138" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2138" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2138" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2138" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2138" s="3">
+        <v>37</v>
+      </c>
+      <c r="F2138" s="9">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2139" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2139" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2139" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2139" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2139" s="3">
+        <v>13</v>
+      </c>
+      <c r="F2139" s="9">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2140" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2140" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2140" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2140" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2141" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2141" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2141" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2141" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2141" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2141" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2142" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2142" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2142" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2142" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2142" s="3">
+        <v>96</v>
+      </c>
+      <c r="F2142" s="9">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2143" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2143" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2143" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2143" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2143" s="3">
+        <v>17</v>
+      </c>
+      <c r="F2143" s="9">
+        <v>0.14499999999999999</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2144" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2144" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2144" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2144" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2144" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2144" s="9">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2145" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2145" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2145" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2145" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2145" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2146" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2146" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2146" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2146" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2146" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2146" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2147" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2147" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2147" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2147" s="3">
+        <v>141</v>
+      </c>
+      <c r="F2147" s="9">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2148" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2148" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2148" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2148" s="3">
+        <v>18</v>
+      </c>
+      <c r="F2148" s="9">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2149" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2149" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2149" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2149" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2149" s="9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2150" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2150" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2150" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2150" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2150" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2151" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2151" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2151" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2151" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2151" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2152" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2152" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2152" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2152" s="3">
+        <v>106</v>
+      </c>
+      <c r="F2152" s="9">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2153" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2153" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2153" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2153" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2153" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2154" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2154" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2154" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2154" s="9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2155" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2155" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2155" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2155" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2155" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2156" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2156" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2156" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2156" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2156" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2156" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA876C0-E193-41D6-B5CE-B7DABED0D35B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8BBAAB-1B4B-40DB-8E66-F1B06F5C34D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4518" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2931,6 +2931,29 @@
         <v>112</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96">
+        <v>1025</v>
+      </c>
+      <c r="D96">
+        <v>741</v>
+      </c>
+      <c r="E96">
+        <v>128</v>
+      </c>
+      <c r="F96">
+        <v>165</v>
+      </c>
+      <c r="G96" s="17">
+        <v>99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2939,7 +2962,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K95"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5055,6 +5078,29 @@
         <v>4.92</v>
       </c>
     </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2026</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96">
+        <v>4.92</v>
+      </c>
+      <c r="D96">
+        <v>4.91</v>
+      </c>
+      <c r="E96">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="F96">
+        <v>4.84</v>
+      </c>
+      <c r="G96">
+        <v>4.99</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5063,7 +5109,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2156"/>
+  <dimension ref="A1:L2181"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -48239,6 +48285,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2157" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2157" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2157" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2157" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2157" s="3">
+        <v>957</v>
+      </c>
+      <c r="F2157" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2158" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2158" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2158" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2158" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2158" s="3">
+        <v>61</v>
+      </c>
+      <c r="F2158" s="9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="2159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2159" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2159" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2159" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2159" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2159" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2159" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2160" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2160" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2160" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2160" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2160" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2160" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2161" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2161" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2161" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2161" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2161" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2161" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2162" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2162" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2162" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2162" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2162" s="3">
+        <v>688</v>
+      </c>
+      <c r="F2162" s="9">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="2163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2163" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2163" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2163" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2163" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2163" s="3">
+        <v>42</v>
+      </c>
+      <c r="F2163" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2164" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2164" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2164" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2164" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2164" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2165" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2165" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2165" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2165" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2165" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2165" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2166" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2166" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2166" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2166" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2166" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2167" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2167" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2167" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2167" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2167" s="3">
+        <v>107</v>
+      </c>
+      <c r="F2167" s="9">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="2168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2168" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2168" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2168" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2168" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2168" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="2169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2169" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2169" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2169" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2169" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2169" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2169" s="9">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="2170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2170" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2170" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2170" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2170" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2170" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2171" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2171" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2171" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2171" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2172" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2172" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2172" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2172" s="3">
+        <v>144</v>
+      </c>
+      <c r="F2172" s="9">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="2173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2173" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2173" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2173" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2173" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2173" s="9">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="2174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2174" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2174" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2174" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2174" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2174" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2174" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2175" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2175" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2175" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2175" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2176" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2176" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2176" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2176" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2176" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2177" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2177" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2177" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2177" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2177" s="3">
+        <v>98</v>
+      </c>
+      <c r="F2177" s="9">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2178" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2178" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2178" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2178" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2178" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2179" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2179" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2179" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2179" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2179" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2179" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2180" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2180" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2180" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2180" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2180" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2180" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2181" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2181" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2181" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2181" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2181" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A8BBAAB-1B4B-40DB-8E66-F1B06F5C34D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E03699-B465-4B27-9A0B-9CA945EDBAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4570" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2954,6 +2954,29 @@
         <v>99</v>
       </c>
     </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97">
+        <v>1079</v>
+      </c>
+      <c r="D97">
+        <v>728</v>
+      </c>
+      <c r="E97">
+        <v>113</v>
+      </c>
+      <c r="F97">
+        <v>163</v>
+      </c>
+      <c r="G97" s="17">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2962,7 +2985,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:K97"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5101,6 +5124,29 @@
         <v>4.99</v>
       </c>
     </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2026</v>
+      </c>
+      <c r="B97" t="s">
+        <v>68</v>
+      </c>
+      <c r="C97">
+        <v>4.92</v>
+      </c>
+      <c r="D97">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E97">
+        <v>4.78</v>
+      </c>
+      <c r="F97">
+        <v>4.78</v>
+      </c>
+      <c r="G97">
+        <v>4.96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5109,7 +5155,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2181"/>
+  <dimension ref="A1:L2206"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -48785,6 +48831,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2182" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2182" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2182" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2182" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2182" s="3">
+        <v>1015</v>
+      </c>
+      <c r="F2182" s="9">
+        <v>0.94099999999999995</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2183" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2183" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2183" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2183" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2183" s="3">
+        <v>52</v>
+      </c>
+      <c r="F2183" s="9">
+        <v>4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2184" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2184" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2184" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2184" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2184" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2184" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2185" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2185" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2185" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2185" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2185" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2186" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2186" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2186" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2186" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2186" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2186" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2187" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2187" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2187" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2187" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2187" s="3">
+        <v>668</v>
+      </c>
+      <c r="F2187" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2188" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2188" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2188" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2188" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2188" s="3">
+        <v>49</v>
+      </c>
+      <c r="F2188" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2189" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2189" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2189" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2189" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2189" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2189" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2190" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2190" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2190" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2190" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2190" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2191" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2191" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2191" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2191" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2191" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2191" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2192" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2192" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2192" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2192" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2192" s="3">
+        <v>92</v>
+      </c>
+      <c r="F2192" s="9">
+        <v>0.81399999999999995</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2193" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2193" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2193" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2193" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2193" s="3">
+        <v>19</v>
+      </c>
+      <c r="F2193" s="9">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2194" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2194" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2194" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2194" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2194" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="2195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2195" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2195" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2195" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2195" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2195" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2195" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2196" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2196" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2196" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2196" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2196" s="9">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2197" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2197" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2197" s="3">
+        <v>141</v>
+      </c>
+      <c r="F2197" s="9">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2198" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2198" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2198" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2198" s="3">
+        <v>14</v>
+      </c>
+      <c r="F2198" s="9">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2199" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2199" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2199" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2199" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2199" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2199" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2200" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2200" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2200" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2200" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2200" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2200" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2201" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2201" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2201" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2201" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2201" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2201" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="2202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2202" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2202" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2202" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2202" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2202" s="3">
+        <v>89</v>
+      </c>
+      <c r="F2202" s="9">
+        <v>0.95699999999999996</v>
+      </c>
+    </row>
+    <row r="2203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2203" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2203" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2203" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2203" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2203" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2203" s="9">
+        <v>4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2204" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2204" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2204" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2204" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2204" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2204" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2205" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2205" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2205" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2205" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2205" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2205" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2206" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2206" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2206" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2206" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2206" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2206" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E03699-B465-4B27-9A0B-9CA945EDBAF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2E436-2147-476F-9526-8BB26B6E2412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -2977,6 +2977,29 @@
         <v>93</v>
       </c>
     </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98">
+        <v>1148</v>
+      </c>
+      <c r="D98">
+        <v>744</v>
+      </c>
+      <c r="E98">
+        <v>120</v>
+      </c>
+      <c r="F98">
+        <v>176</v>
+      </c>
+      <c r="G98" s="17">
+        <v>92</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2985,7 +3008,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5147,6 +5170,29 @@
         <v>4.96</v>
       </c>
     </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2026</v>
+      </c>
+      <c r="B98" t="s">
+        <v>69</v>
+      </c>
+      <c r="C98">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="D98">
+        <v>4.88</v>
+      </c>
+      <c r="E98">
+        <v>4.84</v>
+      </c>
+      <c r="F98">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G98">
+        <v>4.87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5155,7 +5201,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2206"/>
+  <dimension ref="A1:L2231"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -49331,6 +49377,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2207" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2207" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2207" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2207" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2207" s="3">
+        <v>1046</v>
+      </c>
+      <c r="F2207" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="2208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2208" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2208" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2208" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2208" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2208" s="3">
+        <v>83</v>
+      </c>
+      <c r="F2208" s="9">
+        <v>7.1999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2209" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2209" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2209" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2209" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2209" s="3">
+        <v>15</v>
+      </c>
+      <c r="F2209" s="9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2210" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2210" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2210" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2210" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2210" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2211" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2211" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2211" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2211" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2211" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2211" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2212" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2212" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2212" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2212" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2212" s="3">
+        <v>684</v>
+      </c>
+      <c r="F2212" s="9">
+        <v>0.91900000000000004</v>
+      </c>
+    </row>
+    <row r="2213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2213" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2213" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2213" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2213" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2213" s="3">
+        <v>47</v>
+      </c>
+      <c r="F2213" s="9">
+        <v>6.3E-2</v>
+      </c>
+    </row>
+    <row r="2214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2214" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2214" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2214" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2214" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2214" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2214" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2215" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2215" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2215" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2215" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2215" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2216" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2216" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2216" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2216" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2216" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2216" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2217" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2217" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2217" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2217" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2217" s="3">
+        <v>106</v>
+      </c>
+      <c r="F2217" s="9">
+        <v>0.88300000000000001</v>
+      </c>
+    </row>
+    <row r="2218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2218" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2218" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2218" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2218" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2218" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2218" s="9">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2219" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2219" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2219" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2219" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2219" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2219" s="9">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2220" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2220" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2220" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2220" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2221" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2221" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2221" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2221" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2221" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2221" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2222" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2222" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2222" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2222" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2222" s="3">
+        <v>154</v>
+      </c>
+      <c r="F2222" s="9">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2223" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2223" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2223" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2223" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2223" s="3">
+        <v>20</v>
+      </c>
+      <c r="F2223" s="9">
+        <v>0.114</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2224" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2224" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2224" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2224" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2224" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2224" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2225" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2225" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2225" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2225" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2225" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2225" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2226" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2226" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2226" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2226" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2226" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2227" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2227" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2227" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2227" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2227" s="3">
+        <v>81</v>
+      </c>
+      <c r="F2227" s="9">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2228" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2228" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2228" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2228" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2228" s="3">
+        <v>10</v>
+      </c>
+      <c r="F2228" s="9">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2229" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2229" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2229" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2229" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2229" s="9">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2230" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2230" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2230" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2230" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2230" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2230" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2231" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2231" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2231" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2231" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2231" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2231" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F2E436-2147-476F-9526-8BB26B6E2412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE53B8A-99F1-49E2-8E57-A0FA8AFAFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4674" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -3000,6 +3000,29 @@
         <v>92</v>
       </c>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99">
+        <v>1182</v>
+      </c>
+      <c r="D99">
+        <v>843</v>
+      </c>
+      <c r="E99">
+        <v>125</v>
+      </c>
+      <c r="F99">
+        <v>199</v>
+      </c>
+      <c r="G99" s="17">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3008,7 +3031,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K98"/>
+  <dimension ref="A1:K99"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5193,6 +5216,29 @@
         <v>4.87</v>
       </c>
     </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2026</v>
+      </c>
+      <c r="B99" t="s">
+        <v>70</v>
+      </c>
+      <c r="C99">
+        <v>4.87</v>
+      </c>
+      <c r="D99">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E99">
+        <v>4.87</v>
+      </c>
+      <c r="F99">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="G99">
+        <v>4.88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5201,7 +5247,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2231"/>
+  <dimension ref="A1:L2256"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -49877,6 +49923,506 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2232" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2232" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2232" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2232" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2232" s="3">
+        <v>1077</v>
+      </c>
+      <c r="F2232" s="9">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2233" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2233" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2233" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2233" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2233" s="3">
+        <v>73</v>
+      </c>
+      <c r="F2233" s="9">
+        <v>6.2E-2</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2234" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2234" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2234" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2234" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2234" s="3">
+        <v>26</v>
+      </c>
+      <c r="F2234" s="9">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2235" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2235" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2235" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2235" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2235" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2235" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2236" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2236" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2236" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2236" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2236" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2236" s="9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2237" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2237" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2237" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2237" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2237" s="3">
+        <v>787</v>
+      </c>
+      <c r="F2237" s="9">
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2238" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2238" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2238" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2238" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2238" s="3">
+        <v>42</v>
+      </c>
+      <c r="F2238" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2239" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2239" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2239" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2239" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2239" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2239" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2240" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2240" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2240" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2240" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2240" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2240" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2241" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2241" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2241" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2241" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2241" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2241" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2242" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2242" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2242" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2242" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2242" s="3">
+        <v>113</v>
+      </c>
+      <c r="F2242" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2243" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2243" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2243" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2243" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2243" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2243" s="9">
+        <v>6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2244" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2244" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2244" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2244" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2244" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2244" s="9">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2245" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2245" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2245" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2245" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2245" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2245" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2246" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2246" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2246" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2246" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2246" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2246" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2247" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2247" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2247" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2247" s="3">
+        <v>181</v>
+      </c>
+      <c r="F2247" s="9">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="2248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2248" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2248" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2248" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2248" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2248" s="3">
+        <v>13</v>
+      </c>
+      <c r="F2248" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2249" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2249" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2249" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2249" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2249" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2249" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2250" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2250" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2250" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2250" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2250" s="9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2251" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2251" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2251" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2251" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2251" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2251" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2252" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2252" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2252" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2252" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2252" s="3">
+        <v>75</v>
+      </c>
+      <c r="F2252" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="2253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2253" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2253" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2253" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2253" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2253" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2253" s="9">
+        <v>7.2999999999999995E-2</v>
+      </c>
+    </row>
+    <row r="2254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2254" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2254" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2254" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2254" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2254" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2254" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2255" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2255" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2255" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2255" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2255" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2255" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2256" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2256" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2256" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2256" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2256" s="9">
+        <v>1.2E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/통계.xlsx
+++ b/통계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\speed\Desktop\streamlit_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE53B8A-99F1-49E2-8E57-A0FA8AFAFA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43E9378-884D-4F8F-B67A-90BEECD14921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11295" xr2:uid="{F4A024DD-7AAF-4521-86D4-B48464A3C096}"/>
   </bookViews>
   <sheets>
     <sheet name="리뷰수" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4726" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4778" uniqueCount="81">
   <si>
     <t>홈던트하우스</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -852,7 +852,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D5E0E0-72AB-4ADE-A93E-1AF20B5B167B}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A72" sqref="A72:XFD72"/>
@@ -3023,6 +3023,29 @@
         <v>82</v>
       </c>
     </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100">
+        <v>1004</v>
+      </c>
+      <c r="D100">
+        <v>856</v>
+      </c>
+      <c r="E100">
+        <v>104</v>
+      </c>
+      <c r="F100">
+        <v>134</v>
+      </c>
+      <c r="G100" s="17">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3031,7 +3054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B69A316-25FE-4EC5-81E8-130475E57CE3}">
-  <dimension ref="A1:K99"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
@@ -5239,6 +5262,29 @@
         <v>4.88</v>
       </c>
     </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2026</v>
+      </c>
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D100">
+        <v>4.92</v>
+      </c>
+      <c r="E100">
+        <v>4.76</v>
+      </c>
+      <c r="F100">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="G100">
+        <v>4.9800000000000004</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5247,7 +5293,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C152F69-2778-4A6D-8FC7-E721B589E33B}">
-  <dimension ref="A1:L2256"/>
+  <dimension ref="A1:L2281"/>
   <sheetViews>
     <sheetView topLeftCell="A932" workbookViewId="0">
       <selection activeCell="F952" sqref="F952"/>
@@ -50423,6 +50469,506 @@
         <v>1.2E-2</v>
       </c>
     </row>
+    <row r="2257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2257" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2257" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2257" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2257" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2257" s="3">
+        <v>919</v>
+      </c>
+      <c r="F2257" s="9">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="2258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2258" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2258" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2258" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2258" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2258" s="3">
+        <v>75</v>
+      </c>
+      <c r="F2258" s="9">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="2259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2259" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2259" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2259" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2259" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2259" s="3">
+        <v>8</v>
+      </c>
+      <c r="F2259" s="9">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2260" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2260" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2260" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2260" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2260" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2260" s="9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2261" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2261" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2261" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2261" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2261" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2261" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2262" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2262" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2262" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2262" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2262" s="3">
+        <v>792</v>
+      </c>
+      <c r="F2262" s="9">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2263" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2263" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2263" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2263" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2263" s="3">
+        <v>57</v>
+      </c>
+      <c r="F2263" s="9">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2264" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2264" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2264" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2264" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2264" s="3">
+        <v>6</v>
+      </c>
+      <c r="F2264" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2265" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2265" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2265" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2265" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2266" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2266" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2266" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2266" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2266" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2266" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2267" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2267" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2267" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2267" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2267" s="3">
+        <v>84</v>
+      </c>
+      <c r="F2267" s="9">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2268" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2268" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2268" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2268" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2268" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2268" s="9">
+        <v>0.154</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2269" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2269" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2269" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2269" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2269" s="3">
+        <v>3</v>
+      </c>
+      <c r="F2269" s="9">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2270" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2270" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2270" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2270" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2270" s="9">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2271" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2271" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2271" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2271" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2271" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2271" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2272" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2272" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2272" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2272" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2272" s="3">
+        <v>123</v>
+      </c>
+      <c r="F2272" s="9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2273" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2273" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2273" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2273" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2273" s="3">
+        <v>5</v>
+      </c>
+      <c r="F2273" s="9">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="2274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2274" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2274" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2274" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2274" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2274" s="3">
+        <v>4</v>
+      </c>
+      <c r="F2274" s="9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="2275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2275" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2275" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2275" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2275" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2275" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2275" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2276" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2276" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2276" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2276" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2276" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2276" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="2277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2277" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2277" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2277" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2277" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2277" s="3">
+        <v>58</v>
+      </c>
+      <c r="F2277" s="9">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2278" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2278" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2278" s="2">
+        <v>4</v>
+      </c>
+      <c r="D2278" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2278" s="9">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2279" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2279" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2279" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2279" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2279" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2279" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2280" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2280" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2280" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2280" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2280" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2280" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2281" s="2">
+        <v>2026</v>
+      </c>
+      <c r="B2281" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2281" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2281" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E2281" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2281" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="B1:F956" xr:uid="{1357DB43-983C-4824-A231-42A48EC12E59}"/>
   <phoneticPr fontId="1" type="noConversion"/>
